--- a/BackTest/2020-01-16 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-16 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:M228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="C2" t="n">
         <v>338.7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>335.1</v>
       </c>
       <c r="D2" t="n">
         <v>338.7</v>
       </c>
       <c r="E2" t="n">
-        <v>333.1</v>
+        <v>334.9</v>
       </c>
       <c r="F2" t="n">
-        <v>682.1828</v>
+        <v>5140</v>
       </c>
       <c r="G2" t="n">
-        <v>338.7933333333333</v>
+        <v>338.9583333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,584 +468,566 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>338.7</v>
+      </c>
+      <c r="C3" t="n">
         <v>335.1</v>
       </c>
-      <c r="C3" t="n">
-        <v>334.1</v>
-      </c>
       <c r="D3" t="n">
-        <v>335.1</v>
+        <v>338.7</v>
       </c>
       <c r="E3" t="n">
         <v>333.1</v>
       </c>
       <c r="F3" t="n">
+        <v>682.1828</v>
+      </c>
+      <c r="G3" t="n">
+        <v>338.7933333333333</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="F4" t="n">
         <v>339.22</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>338.6949999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>338.5799999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="G6" t="n">
+        <v>338.3983333333333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>159.4282</v>
+      </c>
+      <c r="G7" t="n">
+        <v>338.2816666666666</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>48.93</v>
+      </c>
+      <c r="G8" t="n">
+        <v>338.1816666666666</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>338.0016666666665</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4153.7985</v>
+      </c>
+      <c r="G10" t="n">
+        <v>337.8033333333332</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1916.394</v>
+      </c>
+      <c r="G11" t="n">
+        <v>337.6549999999998</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>333</v>
+      </c>
+      <c r="C12" t="n">
+        <v>333</v>
+      </c>
+      <c r="D12" t="n">
+        <v>333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>394.048</v>
+      </c>
+      <c r="G12" t="n">
+        <v>337.4566666666664</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>332.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>333.8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>334</v>
+      </c>
+      <c r="E13" t="n">
+        <v>332.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1353.2313</v>
+      </c>
+      <c r="G13" t="n">
+        <v>337.2516666666664</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>331.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>331.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>229.2071</v>
+      </c>
+      <c r="G14" t="n">
+        <v>337.0533333333331</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>833.2499</v>
+      </c>
+      <c r="G15" t="n">
+        <v>336.8349999999998</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>337.6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>337.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24.48946193</v>
+      </c>
+      <c r="G16" t="n">
+        <v>336.7283333333331</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>333.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>331.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>333.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>331.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>308.54</v>
+      </c>
+      <c r="G17" t="n">
+        <v>336.4866666666664</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>337.6</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>338.5799999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27.96</v>
-      </c>
-      <c r="G5" t="n">
-        <v>338.3983333333333</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>159.4282</v>
-      </c>
-      <c r="G6" t="n">
-        <v>338.2816666666666</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>48.93</v>
-      </c>
-      <c r="G7" t="n">
-        <v>338.1816666666666</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>55.67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>338.0016666666665</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4153.7985</v>
-      </c>
-      <c r="G9" t="n">
-        <v>337.8033333333332</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1916.394</v>
-      </c>
-      <c r="G10" t="n">
-        <v>337.6549999999998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>333</v>
-      </c>
-      <c r="C11" t="n">
-        <v>333</v>
-      </c>
-      <c r="D11" t="n">
-        <v>333</v>
-      </c>
-      <c r="E11" t="n">
-        <v>333</v>
-      </c>
-      <c r="F11" t="n">
-        <v>394.048</v>
-      </c>
-      <c r="G11" t="n">
-        <v>337.4566666666664</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>332.9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>333.8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>334</v>
-      </c>
-      <c r="E12" t="n">
-        <v>332.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1353.2313</v>
-      </c>
-      <c r="G12" t="n">
-        <v>337.2516666666664</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>331.7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>331.7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>229.2071</v>
-      </c>
-      <c r="G13" t="n">
-        <v>337.0533333333331</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>833.2499</v>
-      </c>
-      <c r="G14" t="n">
-        <v>336.8349999999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>337.6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>337.6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>24.48946193</v>
-      </c>
-      <c r="G15" t="n">
-        <v>336.7283333333331</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>333.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>331.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>333.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>331.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>308.54</v>
-      </c>
-      <c r="G16" t="n">
-        <v>336.4866666666664</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>333</v>
-      </c>
-      <c r="C17" t="n">
-        <v>333</v>
-      </c>
-      <c r="D17" t="n">
-        <v>333</v>
-      </c>
-      <c r="E17" t="n">
-        <v>333</v>
-      </c>
-      <c r="F17" t="n">
-        <v>24.4894</v>
-      </c>
-      <c r="G17" t="n">
-        <v>336.3033333333331</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1055,30 +1037,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C18" t="n">
-        <v>338.6</v>
+        <v>333</v>
       </c>
       <c r="D18" t="n">
-        <v>338.6</v>
+        <v>333</v>
       </c>
       <c r="E18" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F18" t="n">
-        <v>1914.0301</v>
+        <v>24.4894</v>
       </c>
       <c r="G18" t="n">
-        <v>336.1783333333331</v>
+        <v>336.3033333333331</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>331.7</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1094,22 +1078,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>338.7</v>
+        <v>337</v>
       </c>
       <c r="C19" t="n">
-        <v>338.7</v>
+        <v>338.6</v>
       </c>
       <c r="D19" t="n">
-        <v>338.7</v>
+        <v>338.6</v>
       </c>
       <c r="E19" t="n">
-        <v>338.7</v>
+        <v>337</v>
       </c>
       <c r="F19" t="n">
-        <v>141.1921</v>
+        <v>1914.0301</v>
       </c>
       <c r="G19" t="n">
-        <v>336.1066666666664</v>
+        <v>336.1783333333331</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1133,22 +1117,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>338.8</v>
+        <v>338.7</v>
       </c>
       <c r="C20" t="n">
-        <v>340</v>
+        <v>338.7</v>
       </c>
       <c r="D20" t="n">
-        <v>340</v>
+        <v>338.7</v>
       </c>
       <c r="E20" t="n">
-        <v>338.8</v>
+        <v>338.7</v>
       </c>
       <c r="F20" t="n">
-        <v>1638.4596</v>
+        <v>141.1921</v>
       </c>
       <c r="G20" t="n">
-        <v>336.0699999999997</v>
+        <v>336.1066666666664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1172,7 +1156,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>339.7</v>
+        <v>338.8</v>
       </c>
       <c r="C21" t="n">
         <v>340</v>
@@ -1181,13 +1165,13 @@
         <v>340</v>
       </c>
       <c r="E21" t="n">
-        <v>339.7</v>
+        <v>338.8</v>
       </c>
       <c r="F21" t="n">
-        <v>1812.5196</v>
+        <v>1638.4596</v>
       </c>
       <c r="G21" t="n">
-        <v>336.033333333333</v>
+        <v>336.0699999999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1211,22 +1195,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>339.7</v>
+      </c>
+      <c r="C22" t="n">
         <v>340</v>
       </c>
-      <c r="C22" t="n">
-        <v>341</v>
-      </c>
       <c r="D22" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E22" t="n">
-        <v>340</v>
+        <v>339.7</v>
       </c>
       <c r="F22" t="n">
-        <v>645.4326</v>
+        <v>1812.5196</v>
       </c>
       <c r="G22" t="n">
-        <v>336.0299999999997</v>
+        <v>336.033333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1250,22 +1234,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>340.9</v>
+        <v>340</v>
       </c>
       <c r="C23" t="n">
-        <v>340.9</v>
+        <v>341</v>
       </c>
       <c r="D23" t="n">
-        <v>340.9</v>
+        <v>341</v>
       </c>
       <c r="E23" t="n">
-        <v>340.9</v>
+        <v>340</v>
       </c>
       <c r="F23" t="n">
-        <v>3298.8972</v>
+        <v>645.4326</v>
       </c>
       <c r="G23" t="n">
-        <v>336.0249999999997</v>
+        <v>336.0299999999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1301,10 +1285,10 @@
         <v>340.9</v>
       </c>
       <c r="F24" t="n">
-        <v>347.6468</v>
+        <v>3298.8972</v>
       </c>
       <c r="G24" t="n">
-        <v>336.0199999999997</v>
+        <v>336.0249999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1328,22 +1312,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>337.3</v>
+        <v>340.9</v>
       </c>
       <c r="C25" t="n">
-        <v>337.3</v>
+        <v>340.9</v>
       </c>
       <c r="D25" t="n">
-        <v>337.3</v>
+        <v>340.9</v>
       </c>
       <c r="E25" t="n">
-        <v>336.2</v>
+        <v>340.9</v>
       </c>
       <c r="F25" t="n">
-        <v>796.3819</v>
+        <v>347.6468</v>
       </c>
       <c r="G25" t="n">
-        <v>335.9566666666664</v>
+        <v>336.0199999999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1376,13 +1360,13 @@
         <v>337.3</v>
       </c>
       <c r="E26" t="n">
-        <v>337.3</v>
+        <v>336.2</v>
       </c>
       <c r="F26" t="n">
-        <v>815.6423</v>
+        <v>796.3819</v>
       </c>
       <c r="G26" t="n">
-        <v>335.9283333333331</v>
+        <v>335.9566666666664</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1406,22 +1390,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>338</v>
+        <v>337.3</v>
       </c>
       <c r="C27" t="n">
-        <v>340.8</v>
+        <v>337.3</v>
       </c>
       <c r="D27" t="n">
-        <v>340.8</v>
+        <v>337.3</v>
       </c>
       <c r="E27" t="n">
-        <v>338</v>
+        <v>337.3</v>
       </c>
       <c r="F27" t="n">
-        <v>3.49</v>
+        <v>815.6423</v>
       </c>
       <c r="G27" t="n">
-        <v>335.983333333333</v>
+        <v>335.9283333333331</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1445,22 +1429,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>340.7</v>
+        <v>338</v>
       </c>
       <c r="C28" t="n">
-        <v>337</v>
+        <v>340.8</v>
       </c>
       <c r="D28" t="n">
-        <v>342</v>
+        <v>340.8</v>
       </c>
       <c r="E28" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F28" t="n">
-        <v>2515.1652</v>
+        <v>3.49</v>
       </c>
       <c r="G28" t="n">
-        <v>335.9766666666663</v>
+        <v>335.983333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1484,22 +1468,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>336.8</v>
+        <v>340.7</v>
       </c>
       <c r="C29" t="n">
-        <v>336.8</v>
+        <v>337</v>
       </c>
       <c r="D29" t="n">
-        <v>336.8</v>
+        <v>342</v>
       </c>
       <c r="E29" t="n">
-        <v>336.8</v>
+        <v>337</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>2515.1652</v>
       </c>
       <c r="G29" t="n">
-        <v>335.9399999999997</v>
+        <v>335.9766666666663</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1523,22 +1507,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>341</v>
+        <v>336.8</v>
       </c>
       <c r="C30" t="n">
-        <v>341</v>
+        <v>336.8</v>
       </c>
       <c r="D30" t="n">
-        <v>341</v>
+        <v>336.8</v>
       </c>
       <c r="E30" t="n">
-        <v>341</v>
+        <v>336.8</v>
       </c>
       <c r="F30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>336.0066666666663</v>
+        <v>335.9399999999997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1565,19 +1549,19 @@
         <v>341</v>
       </c>
       <c r="C31" t="n">
-        <v>338.2</v>
+        <v>341</v>
       </c>
       <c r="D31" t="n">
         <v>341</v>
       </c>
       <c r="E31" t="n">
-        <v>338.2</v>
+        <v>341</v>
       </c>
       <c r="F31" t="n">
-        <v>2050</v>
+        <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>335.978333333333</v>
+        <v>336.0066666666663</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1601,22 +1585,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>341</v>
+      </c>
+      <c r="C32" t="n">
         <v>338.2</v>
       </c>
-      <c r="C32" t="n">
-        <v>342</v>
-      </c>
       <c r="D32" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E32" t="n">
         <v>338.2</v>
       </c>
       <c r="F32" t="n">
-        <v>3.5</v>
+        <v>2050</v>
       </c>
       <c r="G32" t="n">
-        <v>336.093333333333</v>
+        <v>335.978333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1640,22 +1624,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>338.2</v>
+      </c>
+      <c r="C33" t="n">
         <v>342</v>
       </c>
-      <c r="C33" t="n">
-        <v>361.2</v>
-      </c>
       <c r="D33" t="n">
-        <v>361.2</v>
+        <v>342</v>
       </c>
       <c r="E33" t="n">
-        <v>342</v>
+        <v>338.2</v>
       </c>
       <c r="F33" t="n">
-        <v>9732.42472486</v>
+        <v>3.5</v>
       </c>
       <c r="G33" t="n">
-        <v>336.4849999999997</v>
+        <v>336.093333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1679,22 +1663,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>347.4</v>
+        <v>342</v>
       </c>
       <c r="C34" t="n">
-        <v>338</v>
+        <v>361.2</v>
       </c>
       <c r="D34" t="n">
-        <v>348</v>
+        <v>361.2</v>
       </c>
       <c r="E34" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F34" t="n">
-        <v>1704.959</v>
+        <v>9732.42472486</v>
       </c>
       <c r="G34" t="n">
-        <v>336.488333333333</v>
+        <v>336.4849999999997</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1718,22 +1702,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>345</v>
+        <v>347.4</v>
       </c>
       <c r="C35" t="n">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D35" t="n">
         <v>348</v>
       </c>
       <c r="E35" t="n">
-        <v>337.1</v>
+        <v>338</v>
       </c>
       <c r="F35" t="n">
-        <v>12373.0027</v>
+        <v>1704.959</v>
       </c>
       <c r="G35" t="n">
-        <v>336.608333333333</v>
+        <v>336.488333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1757,22 +1741,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C36" t="n">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D36" t="n">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E36" t="n">
-        <v>338</v>
+        <v>337.1</v>
       </c>
       <c r="F36" t="n">
-        <v>130.0095</v>
+        <v>12373.0027</v>
       </c>
       <c r="G36" t="n">
-        <v>336.6249999999997</v>
+        <v>336.608333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1796,22 +1780,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>342</v>
+      </c>
+      <c r="C37" t="n">
         <v>338</v>
       </c>
-      <c r="C37" t="n">
-        <v>337</v>
-      </c>
       <c r="D37" t="n">
+        <v>342</v>
+      </c>
+      <c r="E37" t="n">
         <v>338</v>
       </c>
-      <c r="E37" t="n">
-        <v>337</v>
-      </c>
       <c r="F37" t="n">
-        <v>220.32</v>
+        <v>130.0095</v>
       </c>
       <c r="G37" t="n">
-        <v>336.6499999999997</v>
+        <v>336.6249999999997</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1835,22 +1819,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>337.8</v>
+        <v>338</v>
       </c>
       <c r="C38" t="n">
-        <v>337.8</v>
+        <v>337</v>
       </c>
       <c r="D38" t="n">
-        <v>337.8</v>
+        <v>338</v>
       </c>
       <c r="E38" t="n">
-        <v>337.8</v>
+        <v>337</v>
       </c>
       <c r="F38" t="n">
-        <v>5025.28</v>
+        <v>220.32</v>
       </c>
       <c r="G38" t="n">
-        <v>336.693333333333</v>
+        <v>336.6499999999997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1880,16 +1864,16 @@
         <v>337.8</v>
       </c>
       <c r="D39" t="n">
-        <v>339</v>
+        <v>337.8</v>
       </c>
       <c r="E39" t="n">
         <v>337.8</v>
       </c>
       <c r="F39" t="n">
-        <v>3695.44</v>
+        <v>5025.28</v>
       </c>
       <c r="G39" t="n">
-        <v>336.738333333333</v>
+        <v>336.693333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1919,16 +1903,16 @@
         <v>337.8</v>
       </c>
       <c r="D40" t="n">
-        <v>337.8</v>
+        <v>339</v>
       </c>
       <c r="E40" t="n">
         <v>337.8</v>
       </c>
       <c r="F40" t="n">
-        <v>779</v>
+        <v>3695.44</v>
       </c>
       <c r="G40" t="n">
-        <v>336.783333333333</v>
+        <v>336.738333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1955,19 +1939,19 @@
         <v>337.8</v>
       </c>
       <c r="C41" t="n">
-        <v>337</v>
+        <v>337.8</v>
       </c>
       <c r="D41" t="n">
         <v>337.8</v>
       </c>
       <c r="E41" t="n">
-        <v>337</v>
+        <v>337.8</v>
       </c>
       <c r="F41" t="n">
-        <v>635.9725</v>
+        <v>779</v>
       </c>
       <c r="G41" t="n">
-        <v>336.8149999999997</v>
+        <v>336.783333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1991,22 +1975,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>336.9</v>
+        <v>337.8</v>
       </c>
       <c r="C42" t="n">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D42" t="n">
-        <v>340</v>
+        <v>337.8</v>
       </c>
       <c r="E42" t="n">
-        <v>336.9</v>
+        <v>337</v>
       </c>
       <c r="F42" t="n">
-        <v>723.965</v>
+        <v>635.9725</v>
       </c>
       <c r="G42" t="n">
-        <v>336.8966666666664</v>
+        <v>336.8149999999997</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2030,22 +2014,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>341</v>
+        <v>336.9</v>
       </c>
       <c r="C43" t="n">
         <v>340</v>
       </c>
       <c r="D43" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E43" t="n">
-        <v>340</v>
+        <v>336.9</v>
       </c>
       <c r="F43" t="n">
-        <v>626</v>
+        <v>723.965</v>
       </c>
       <c r="G43" t="n">
-        <v>336.9216666666664</v>
+        <v>336.8966666666664</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2069,22 +2053,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C44" t="n">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D44" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E44" t="n">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F44" t="n">
-        <v>1.6112</v>
+        <v>626</v>
       </c>
       <c r="G44" t="n">
-        <v>337.0533333333331</v>
+        <v>336.9216666666664</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2108,22 +2092,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C45" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D45" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E45" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F45" t="n">
-        <v>8800</v>
+        <v>1.6112</v>
       </c>
       <c r="G45" t="n">
-        <v>337.1349999999998</v>
+        <v>337.0533333333331</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2159,10 +2143,10 @@
         <v>340</v>
       </c>
       <c r="F46" t="n">
-        <v>91.6356</v>
+        <v>8800</v>
       </c>
       <c r="G46" t="n">
-        <v>337.2166666666665</v>
+        <v>337.1349999999998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2186,22 +2170,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C47" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D47" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E47" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F47" t="n">
-        <v>2.4885</v>
+        <v>91.6356</v>
       </c>
       <c r="G47" t="n">
-        <v>337.3333333333331</v>
+        <v>337.2166666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2225,22 +2209,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C48" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D48" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E48" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F48" t="n">
-        <v>148.2548</v>
+        <v>2.4885</v>
       </c>
       <c r="G48" t="n">
-        <v>337.3999999999998</v>
+        <v>337.3333333333331</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2264,22 +2248,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>340.1</v>
+        <v>339</v>
       </c>
       <c r="C49" t="n">
-        <v>338.2</v>
+        <v>339</v>
       </c>
       <c r="D49" t="n">
-        <v>340.1</v>
+        <v>339</v>
       </c>
       <c r="E49" t="n">
-        <v>338.2</v>
+        <v>339</v>
       </c>
       <c r="F49" t="n">
-        <v>11200.8674</v>
+        <v>148.2548</v>
       </c>
       <c r="G49" t="n">
-        <v>337.4533333333331</v>
+        <v>337.3999999999998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2303,19 +2287,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>339</v>
+        <v>340.1</v>
       </c>
       <c r="C50" t="n">
-        <v>339</v>
+        <v>338.2</v>
       </c>
       <c r="D50" t="n">
-        <v>339</v>
+        <v>340.1</v>
       </c>
       <c r="E50" t="n">
-        <v>339</v>
+        <v>338.2</v>
       </c>
       <c r="F50" t="n">
-        <v>81.88</v>
+        <v>11200.8674</v>
       </c>
       <c r="G50" t="n">
         <v>337.4533333333331</v>
@@ -2345,19 +2329,19 @@
         <v>339</v>
       </c>
       <c r="C51" t="n">
-        <v>338.2</v>
+        <v>339</v>
       </c>
       <c r="D51" t="n">
         <v>339</v>
       </c>
       <c r="E51" t="n">
-        <v>338.2</v>
+        <v>339</v>
       </c>
       <c r="F51" t="n">
-        <v>5.88</v>
+        <v>81.88</v>
       </c>
       <c r="G51" t="n">
-        <v>337.5066666666665</v>
+        <v>337.4533333333331</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2384,19 +2368,19 @@
         <v>339</v>
       </c>
       <c r="C52" t="n">
-        <v>334.2</v>
+        <v>338.2</v>
       </c>
       <c r="D52" t="n">
         <v>339</v>
       </c>
       <c r="E52" t="n">
-        <v>334.2</v>
+        <v>338.2</v>
       </c>
       <c r="F52" t="n">
-        <v>566.8776</v>
+        <v>5.88</v>
       </c>
       <c r="G52" t="n">
-        <v>337.5266666666665</v>
+        <v>337.5066666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2420,22 +2404,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>340.2</v>
+        <v>339</v>
       </c>
       <c r="C53" t="n">
-        <v>340.3</v>
+        <v>334.2</v>
       </c>
       <c r="D53" t="n">
-        <v>340.3</v>
+        <v>339</v>
       </c>
       <c r="E53" t="n">
-        <v>340.2</v>
+        <v>334.2</v>
       </c>
       <c r="F53" t="n">
-        <v>849.222</v>
+        <v>566.8776</v>
       </c>
       <c r="G53" t="n">
-        <v>337.6483333333332</v>
+        <v>337.5266666666665</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2459,22 +2443,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>340.3</v>
+        <v>340.2</v>
       </c>
       <c r="C54" t="n">
         <v>340.3</v>
       </c>
       <c r="D54" t="n">
-        <v>340.4</v>
+        <v>340.3</v>
       </c>
       <c r="E54" t="n">
-        <v>340.3</v>
+        <v>340.2</v>
       </c>
       <c r="F54" t="n">
-        <v>6260.868</v>
+        <v>849.222</v>
       </c>
       <c r="G54" t="n">
-        <v>337.7366666666665</v>
+        <v>337.6483333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2504,16 +2488,16 @@
         <v>340.3</v>
       </c>
       <c r="D55" t="n">
-        <v>340.3</v>
+        <v>340.4</v>
       </c>
       <c r="E55" t="n">
         <v>340.3</v>
       </c>
       <c r="F55" t="n">
-        <v>2820</v>
+        <v>6260.868</v>
       </c>
       <c r="G55" t="n">
-        <v>337.8249999999998</v>
+        <v>337.7366666666665</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2537,22 +2521,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>341.3</v>
+        <v>340.3</v>
       </c>
       <c r="C56" t="n">
-        <v>341.3</v>
+        <v>340.3</v>
       </c>
       <c r="D56" t="n">
-        <v>341.3</v>
+        <v>340.3</v>
       </c>
       <c r="E56" t="n">
-        <v>341.3</v>
+        <v>340.3</v>
       </c>
       <c r="F56" t="n">
-        <v>359.021</v>
+        <v>2820</v>
       </c>
       <c r="G56" t="n">
-        <v>337.9299999999998</v>
+        <v>337.8249999999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2588,10 +2572,10 @@
         <v>341.3</v>
       </c>
       <c r="F57" t="n">
-        <v>324.98</v>
+        <v>359.021</v>
       </c>
       <c r="G57" t="n">
-        <v>338.0349999999998</v>
+        <v>337.9299999999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2627,10 +2611,10 @@
         <v>341.3</v>
       </c>
       <c r="F58" t="n">
-        <v>62</v>
+        <v>324.98</v>
       </c>
       <c r="G58" t="n">
-        <v>338.1399999999998</v>
+        <v>338.0349999999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2657,19 +2641,19 @@
         <v>341.3</v>
       </c>
       <c r="C59" t="n">
-        <v>343</v>
+        <v>341.3</v>
       </c>
       <c r="D59" t="n">
-        <v>343</v>
+        <v>341.3</v>
       </c>
       <c r="E59" t="n">
         <v>341.3</v>
       </c>
       <c r="F59" t="n">
-        <v>1092.176</v>
+        <v>62</v>
       </c>
       <c r="G59" t="n">
-        <v>338.2749999999997</v>
+        <v>338.1399999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2693,22 +2677,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>344.3</v>
+        <v>341.3</v>
       </c>
       <c r="C60" t="n">
-        <v>344.3</v>
+        <v>343</v>
       </c>
       <c r="D60" t="n">
-        <v>344.3</v>
+        <v>343</v>
       </c>
       <c r="E60" t="n">
-        <v>344.3</v>
+        <v>341.3</v>
       </c>
       <c r="F60" t="n">
-        <v>26.4882</v>
+        <v>1092.176</v>
       </c>
       <c r="G60" t="n">
-        <v>338.4616666666664</v>
+        <v>338.2749999999997</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2732,22 +2716,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>345.4</v>
+        <v>344.3</v>
       </c>
       <c r="C61" t="n">
-        <v>347.4</v>
+        <v>344.3</v>
       </c>
       <c r="D61" t="n">
-        <v>347.4</v>
+        <v>344.3</v>
       </c>
       <c r="E61" t="n">
-        <v>345.4</v>
+        <v>344.3</v>
       </c>
       <c r="F61" t="n">
-        <v>80.73234368999999</v>
+        <v>26.4882</v>
       </c>
       <c r="G61" t="n">
-        <v>338.6066666666665</v>
+        <v>338.4616666666664</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2771,7 +2755,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>347.4</v>
+        <v>345.4</v>
       </c>
       <c r="C62" t="n">
         <v>347.4</v>
@@ -2780,13 +2764,13 @@
         <v>347.4</v>
       </c>
       <c r="E62" t="n">
-        <v>347.4</v>
+        <v>345.4</v>
       </c>
       <c r="F62" t="n">
-        <v>652.48055631</v>
+        <v>80.73234368999999</v>
       </c>
       <c r="G62" t="n">
-        <v>338.8116666666665</v>
+        <v>338.6066666666665</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2810,22 +2794,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>348</v>
+        <v>347.4</v>
       </c>
       <c r="C63" t="n">
-        <v>348</v>
+        <v>347.4</v>
       </c>
       <c r="D63" t="n">
-        <v>348</v>
+        <v>347.4</v>
       </c>
       <c r="E63" t="n">
-        <v>348</v>
+        <v>347.4</v>
       </c>
       <c r="F63" t="n">
-        <v>864</v>
+        <v>652.48055631</v>
       </c>
       <c r="G63" t="n">
-        <v>339.0433333333332</v>
+        <v>338.8116666666665</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2849,22 +2833,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C64" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D64" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E64" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F64" t="n">
-        <v>1393</v>
+        <v>864</v>
       </c>
       <c r="G64" t="n">
-        <v>339.2916666666666</v>
+        <v>339.0433333333332</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2894,16 +2878,16 @@
         <v>349</v>
       </c>
       <c r="D65" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E65" t="n">
         <v>349</v>
       </c>
       <c r="F65" t="n">
-        <v>1255.5025</v>
+        <v>1393</v>
       </c>
       <c r="G65" t="n">
-        <v>339.5399999999999</v>
+        <v>339.2916666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2927,22 +2911,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C66" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D66" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E66" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F66" t="n">
-        <v>1454.6712</v>
+        <v>1255.5025</v>
       </c>
       <c r="G66" t="n">
-        <v>339.8049999999999</v>
+        <v>339.5399999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2966,22 +2950,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C67" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D67" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E67" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F67" t="n">
-        <v>80</v>
+        <v>1454.6712</v>
       </c>
       <c r="G67" t="n">
-        <v>340.1033333333333</v>
+        <v>339.8049999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3005,22 +2989,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>353.4</v>
+        <v>352</v>
       </c>
       <c r="C68" t="n">
         <v>352</v>
       </c>
       <c r="D68" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E68" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F68" t="n">
-        <v>3499.9254</v>
+        <v>80</v>
       </c>
       <c r="G68" t="n">
-        <v>340.4016666666666</v>
+        <v>340.1033333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3044,22 +3028,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>357.9</v>
+        <v>353.4</v>
       </c>
       <c r="C69" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D69" t="n">
-        <v>361.2</v>
+        <v>356</v>
       </c>
       <c r="E69" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F69" t="n">
-        <v>16677.6261</v>
+        <v>3499.9254</v>
       </c>
       <c r="G69" t="n">
-        <v>340.8</v>
+        <v>340.4016666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3083,22 +3067,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>358</v>
+        <v>357.9</v>
       </c>
       <c r="C70" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D70" t="n">
-        <v>358</v>
+        <v>361.2</v>
       </c>
       <c r="E70" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>16677.6261</v>
       </c>
       <c r="G70" t="n">
-        <v>341.215</v>
+        <v>340.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3122,22 +3106,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C71" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D71" t="n">
-        <v>359.6</v>
+        <v>358</v>
       </c>
       <c r="E71" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F71" t="n">
-        <v>4328.8979</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>341.5816666666667</v>
+        <v>341.215</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3161,22 +3145,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>358.9</v>
+        <v>353</v>
       </c>
       <c r="C72" t="n">
-        <v>354.9</v>
+        <v>355</v>
       </c>
       <c r="D72" t="n">
-        <v>358.9</v>
+        <v>359.6</v>
       </c>
       <c r="E72" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F72" t="n">
-        <v>2906.0282</v>
+        <v>4328.8979</v>
       </c>
       <c r="G72" t="n">
-        <v>341.9333333333334</v>
+        <v>341.5816666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3200,22 +3184,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>358.8</v>
+        <v>358.9</v>
       </c>
       <c r="C73" t="n">
-        <v>360</v>
+        <v>354.9</v>
       </c>
       <c r="D73" t="n">
-        <v>360</v>
+        <v>358.9</v>
       </c>
       <c r="E73" t="n">
-        <v>358.8</v>
+        <v>354</v>
       </c>
       <c r="F73" t="n">
-        <v>7003</v>
+        <v>2906.0282</v>
       </c>
       <c r="G73" t="n">
-        <v>342.3650000000001</v>
+        <v>341.9333333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3239,22 +3223,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>355</v>
+        <v>358.8</v>
       </c>
       <c r="C74" t="n">
-        <v>359.8</v>
+        <v>360</v>
       </c>
       <c r="D74" t="n">
-        <v>359.8</v>
+        <v>360</v>
       </c>
       <c r="E74" t="n">
-        <v>355</v>
+        <v>358.8</v>
       </c>
       <c r="F74" t="n">
-        <v>1223.7353</v>
+        <v>7003</v>
       </c>
       <c r="G74" t="n">
-        <v>342.7933333333334</v>
+        <v>342.3650000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3278,22 +3262,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>357.1</v>
+        <v>355</v>
       </c>
       <c r="C75" t="n">
-        <v>360.1</v>
+        <v>359.8</v>
       </c>
       <c r="D75" t="n">
-        <v>360.1</v>
+        <v>359.8</v>
       </c>
       <c r="E75" t="n">
-        <v>356.1</v>
+        <v>355</v>
       </c>
       <c r="F75" t="n">
-        <v>4530.07597915</v>
+        <v>1223.7353</v>
       </c>
       <c r="G75" t="n">
-        <v>343.1683333333334</v>
+        <v>342.7933333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3317,61 +3301,59 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>360</v>
+        <v>357.1</v>
       </c>
       <c r="C76" t="n">
-        <v>356.1</v>
+        <v>360.1</v>
       </c>
       <c r="D76" t="n">
-        <v>361.1</v>
+        <v>360.1</v>
       </c>
       <c r="E76" t="n">
         <v>356.1</v>
       </c>
       <c r="F76" t="n">
-        <v>4748.6548</v>
+        <v>4530.07597915</v>
       </c>
       <c r="G76" t="n">
-        <v>343.575</v>
+        <v>343.1683333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>361.2</v>
+        <v>360</v>
       </c>
       <c r="C77" t="n">
-        <v>364.8</v>
+        <v>356.1</v>
       </c>
       <c r="D77" t="n">
-        <v>364.8</v>
+        <v>361.1</v>
       </c>
       <c r="E77" t="n">
-        <v>361.2</v>
+        <v>356.1</v>
       </c>
       <c r="F77" t="n">
-        <v>5165.839</v>
+        <v>4748.6548</v>
       </c>
       <c r="G77" t="n">
-        <v>344.1050000000001</v>
+        <v>343.575</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3381,11 +3363,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3395,22 +3373,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>364.7</v>
+        <v>361.2</v>
       </c>
       <c r="C78" t="n">
-        <v>360.3</v>
+        <v>364.8</v>
       </c>
       <c r="D78" t="n">
         <v>364.8</v>
       </c>
       <c r="E78" t="n">
-        <v>360.3</v>
+        <v>361.2</v>
       </c>
       <c r="F78" t="n">
-        <v>1486.92857514</v>
+        <v>5165.839</v>
       </c>
       <c r="G78" t="n">
-        <v>344.4666666666668</v>
+        <v>344.1050000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3420,11 +3398,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3434,22 +3408,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>363</v>
+        <v>364.7</v>
       </c>
       <c r="C79" t="n">
-        <v>365</v>
+        <v>360.3</v>
       </c>
       <c r="D79" t="n">
-        <v>365</v>
+        <v>364.8</v>
       </c>
       <c r="E79" t="n">
-        <v>363</v>
+        <v>360.3</v>
       </c>
       <c r="F79" t="n">
-        <v>768.5999</v>
+        <v>1486.92857514</v>
       </c>
       <c r="G79" t="n">
-        <v>344.905</v>
+        <v>344.4666666666668</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3459,11 +3433,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3473,7 +3443,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C80" t="n">
         <v>365</v>
@@ -3482,13 +3452,13 @@
         <v>365</v>
       </c>
       <c r="E80" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F80" t="n">
-        <v>274.4286</v>
+        <v>768.5999</v>
       </c>
       <c r="G80" t="n">
-        <v>345.3216666666667</v>
+        <v>344.905</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3498,11 +3468,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3515,19 +3481,19 @@
         <v>365</v>
       </c>
       <c r="C81" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D81" t="n">
         <v>365</v>
       </c>
       <c r="E81" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F81" t="n">
-        <v>2.5</v>
+        <v>274.4286</v>
       </c>
       <c r="G81" t="n">
-        <v>345.705</v>
+        <v>345.3216666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3537,11 +3503,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3551,65 +3513,63 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>363.1</v>
+        <v>365</v>
       </c>
       <c r="C82" t="n">
-        <v>363.2</v>
+        <v>363</v>
       </c>
       <c r="D82" t="n">
-        <v>363.2</v>
+        <v>365</v>
       </c>
       <c r="E82" t="n">
-        <v>363.1</v>
+        <v>363</v>
       </c>
       <c r="F82" t="n">
-        <v>189.4438</v>
+        <v>2.5</v>
       </c>
       <c r="G82" t="n">
-        <v>346.075</v>
+        <v>345.705</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="C83" t="n">
         <v>363.2</v>
       </c>
-      <c r="C83" t="n">
-        <v>366.9</v>
-      </c>
       <c r="D83" t="n">
-        <v>366.9</v>
+        <v>363.2</v>
       </c>
       <c r="E83" t="n">
-        <v>363.2</v>
+        <v>363.1</v>
       </c>
       <c r="F83" t="n">
-        <v>3443.6652</v>
+        <v>189.4438</v>
       </c>
       <c r="G83" t="n">
-        <v>346.5083333333334</v>
+        <v>346.075</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3623,28 +3583,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>366.6</v>
+        <v>363.2</v>
       </c>
       <c r="C84" t="n">
-        <v>366.6</v>
+        <v>366.9</v>
       </c>
       <c r="D84" t="n">
-        <v>366.6</v>
+        <v>366.9</v>
       </c>
       <c r="E84" t="n">
-        <v>366.6</v>
+        <v>363.2</v>
       </c>
       <c r="F84" t="n">
-        <v>117.7424</v>
+        <v>3443.6652</v>
       </c>
       <c r="G84" t="n">
-        <v>346.9366666666667</v>
+        <v>346.5083333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3658,22 +3618,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>364.2</v>
+        <v>366.6</v>
       </c>
       <c r="C85" t="n">
-        <v>364.2</v>
+        <v>366.6</v>
       </c>
       <c r="D85" t="n">
-        <v>364.2</v>
+        <v>366.6</v>
       </c>
       <c r="E85" t="n">
-        <v>364.2</v>
+        <v>366.6</v>
       </c>
       <c r="F85" t="n">
-        <v>160.4648</v>
+        <v>117.7424</v>
       </c>
       <c r="G85" t="n">
-        <v>347.385</v>
+        <v>346.9366666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3693,22 +3653,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>363.1</v>
+        <v>364.2</v>
       </c>
       <c r="C86" t="n">
-        <v>363.1</v>
+        <v>364.2</v>
       </c>
       <c r="D86" t="n">
-        <v>363.1</v>
+        <v>364.2</v>
       </c>
       <c r="E86" t="n">
-        <v>363.1</v>
+        <v>364.2</v>
       </c>
       <c r="F86" t="n">
-        <v>86.5842</v>
+        <v>160.4648</v>
       </c>
       <c r="G86" t="n">
-        <v>347.815</v>
+        <v>347.385</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3728,22 +3688,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>361</v>
+        <v>363.1</v>
       </c>
       <c r="C87" t="n">
-        <v>361</v>
+        <v>363.1</v>
       </c>
       <c r="D87" t="n">
-        <v>361</v>
+        <v>363.1</v>
       </c>
       <c r="E87" t="n">
-        <v>361</v>
+        <v>363.1</v>
       </c>
       <c r="F87" t="n">
-        <v>228.2091</v>
+        <v>86.5842</v>
       </c>
       <c r="G87" t="n">
-        <v>348.1516666666667</v>
+        <v>347.815</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3766,19 +3726,19 @@
         <v>361</v>
       </c>
       <c r="C88" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D88" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E88" t="n">
         <v>361</v>
       </c>
       <c r="F88" t="n">
-        <v>5555.7645</v>
+        <v>228.2091</v>
       </c>
       <c r="G88" t="n">
-        <v>348.6016666666667</v>
+        <v>348.1516666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3801,19 +3761,19 @@
         <v>361</v>
       </c>
       <c r="C89" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D89" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E89" t="n">
         <v>361</v>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>5555.7645</v>
       </c>
       <c r="G89" t="n">
-        <v>349.0050000000001</v>
+        <v>348.6016666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3833,22 +3793,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C90" t="n">
-        <v>363.5</v>
+        <v>361</v>
       </c>
       <c r="D90" t="n">
-        <v>363.5</v>
+        <v>361</v>
       </c>
       <c r="E90" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F90" t="n">
-        <v>1637.0608</v>
+        <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>349.3800000000001</v>
+        <v>349.0050000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3868,22 +3828,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C91" t="n">
-        <v>361</v>
+        <v>363.5</v>
       </c>
       <c r="D91" t="n">
-        <v>361</v>
+        <v>363.5</v>
       </c>
       <c r="E91" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F91" t="n">
-        <v>198.0729</v>
+        <v>1637.0608</v>
       </c>
       <c r="G91" t="n">
-        <v>349.76</v>
+        <v>349.3800000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3906,19 +3866,19 @@
         <v>361</v>
       </c>
       <c r="C92" t="n">
-        <v>359.5</v>
+        <v>361</v>
       </c>
       <c r="D92" t="n">
         <v>361</v>
       </c>
       <c r="E92" t="n">
-        <v>359.5</v>
+        <v>361</v>
       </c>
       <c r="F92" t="n">
-        <v>4398.1391</v>
+        <v>198.0729</v>
       </c>
       <c r="G92" t="n">
-        <v>350.0516666666667</v>
+        <v>349.76</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3938,22 +3898,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C93" t="n">
-        <v>362</v>
+        <v>359.5</v>
       </c>
       <c r="D93" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E93" t="n">
-        <v>362</v>
+        <v>359.5</v>
       </c>
       <c r="F93" t="n">
-        <v>186.4888</v>
+        <v>4398.1391</v>
       </c>
       <c r="G93" t="n">
-        <v>350.065</v>
+        <v>350.0516666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3985,10 +3945,10 @@
         <v>362</v>
       </c>
       <c r="F94" t="n">
-        <v>69.84</v>
+        <v>186.4888</v>
       </c>
       <c r="G94" t="n">
-        <v>350.465</v>
+        <v>350.065</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4011,19 +3971,19 @@
         <v>362</v>
       </c>
       <c r="C95" t="n">
-        <v>358.1</v>
+        <v>362</v>
       </c>
       <c r="D95" t="n">
         <v>362</v>
       </c>
       <c r="E95" t="n">
-        <v>358.1</v>
+        <v>362</v>
       </c>
       <c r="F95" t="n">
-        <v>6643.5483</v>
+        <v>69.84</v>
       </c>
       <c r="G95" t="n">
-        <v>350.6833333333333</v>
+        <v>350.465</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4043,22 +4003,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C96" t="n">
-        <v>359</v>
+        <v>358.1</v>
       </c>
       <c r="D96" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E96" t="n">
         <v>358.1</v>
       </c>
       <c r="F96" t="n">
-        <v>583.6441</v>
+        <v>6643.5483</v>
       </c>
       <c r="G96" t="n">
-        <v>351.0333333333334</v>
+        <v>350.6833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4078,22 +4038,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>358.1</v>
+        <v>359</v>
       </c>
       <c r="C97" t="n">
-        <v>358.1</v>
+        <v>359</v>
       </c>
       <c r="D97" t="n">
-        <v>358.1</v>
+        <v>359</v>
       </c>
       <c r="E97" t="n">
         <v>358.1</v>
       </c>
       <c r="F97" t="n">
-        <v>280.99</v>
+        <v>583.6441</v>
       </c>
       <c r="G97" t="n">
-        <v>351.385</v>
+        <v>351.0333333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4116,19 +4076,19 @@
         <v>358.1</v>
       </c>
       <c r="C98" t="n">
-        <v>354.1</v>
+        <v>358.1</v>
       </c>
       <c r="D98" t="n">
         <v>358.1</v>
       </c>
       <c r="E98" t="n">
-        <v>354.1</v>
+        <v>358.1</v>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>280.99</v>
       </c>
       <c r="G98" t="n">
-        <v>351.6566666666666</v>
+        <v>351.385</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4148,22 +4108,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>355.6</v>
+        <v>358.1</v>
       </c>
       <c r="C99" t="n">
-        <v>354.6</v>
+        <v>354.1</v>
       </c>
       <c r="D99" t="n">
-        <v>355.6</v>
+        <v>358.1</v>
       </c>
       <c r="E99" t="n">
-        <v>354.6</v>
+        <v>354.1</v>
       </c>
       <c r="F99" t="n">
-        <v>1804.4466</v>
+        <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>351.9366666666666</v>
+        <v>351.6566666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4183,22 +4143,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>354</v>
+        <v>355.6</v>
       </c>
       <c r="C100" t="n">
-        <v>359</v>
+        <v>354.6</v>
       </c>
       <c r="D100" t="n">
-        <v>359</v>
+        <v>355.6</v>
       </c>
       <c r="E100" t="n">
-        <v>354</v>
+        <v>354.6</v>
       </c>
       <c r="F100" t="n">
-        <v>3099.9731</v>
+        <v>1804.4466</v>
       </c>
       <c r="G100" t="n">
-        <v>352.29</v>
+        <v>351.9366666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4218,22 +4178,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C101" t="n">
-        <v>352.3</v>
+        <v>359</v>
       </c>
       <c r="D101" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E101" t="n">
-        <v>352.3</v>
+        <v>354</v>
       </c>
       <c r="F101" t="n">
-        <v>1637.0608</v>
+        <v>3099.9731</v>
       </c>
       <c r="G101" t="n">
-        <v>352.545</v>
+        <v>352.29</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4253,22 +4213,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>357.2</v>
+        <v>357</v>
       </c>
       <c r="C102" t="n">
-        <v>357.2</v>
+        <v>352.3</v>
       </c>
       <c r="D102" t="n">
-        <v>357.2</v>
+        <v>357</v>
       </c>
       <c r="E102" t="n">
-        <v>357.2</v>
+        <v>352.3</v>
       </c>
       <c r="F102" t="n">
-        <v>7633.2764</v>
+        <v>1637.0608</v>
       </c>
       <c r="G102" t="n">
-        <v>352.8316666666666</v>
+        <v>352.545</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4288,22 +4248,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>359</v>
+        <v>357.2</v>
       </c>
       <c r="C103" t="n">
-        <v>359</v>
+        <v>357.2</v>
       </c>
       <c r="D103" t="n">
-        <v>359</v>
+        <v>357.2</v>
       </c>
       <c r="E103" t="n">
-        <v>359</v>
+        <v>357.2</v>
       </c>
       <c r="F103" t="n">
-        <v>239</v>
+        <v>7633.2764</v>
       </c>
       <c r="G103" t="n">
-        <v>353.1483333333333</v>
+        <v>352.8316666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4326,19 +4286,19 @@
         <v>359</v>
       </c>
       <c r="C104" t="n">
-        <v>357.2</v>
+        <v>359</v>
       </c>
       <c r="D104" t="n">
         <v>359</v>
       </c>
       <c r="E104" t="n">
-        <v>357.1</v>
+        <v>359</v>
       </c>
       <c r="F104" t="n">
-        <v>1811</v>
+        <v>239</v>
       </c>
       <c r="G104" t="n">
-        <v>353.385</v>
+        <v>353.1483333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4358,22 +4318,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>358.3</v>
+        <v>359</v>
       </c>
       <c r="C105" t="n">
-        <v>360.6</v>
+        <v>357.2</v>
       </c>
       <c r="D105" t="n">
-        <v>360.6</v>
+        <v>359</v>
       </c>
       <c r="E105" t="n">
-        <v>358.3</v>
+        <v>357.1</v>
       </c>
       <c r="F105" t="n">
-        <v>387</v>
+        <v>1811</v>
       </c>
       <c r="G105" t="n">
-        <v>353.7283333333333</v>
+        <v>353.385</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4393,22 +4353,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>358.2</v>
+        <v>358.3</v>
       </c>
       <c r="C106" t="n">
-        <v>358.2</v>
+        <v>360.6</v>
       </c>
       <c r="D106" t="n">
-        <v>358.2</v>
+        <v>360.6</v>
       </c>
       <c r="E106" t="n">
-        <v>358.2</v>
+        <v>358.3</v>
       </c>
       <c r="F106" t="n">
-        <v>122.3673</v>
+        <v>387</v>
       </c>
       <c r="G106" t="n">
-        <v>354.0316666666666</v>
+        <v>353.7283333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4428,22 +4388,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>360.5</v>
+        <v>358.2</v>
       </c>
       <c r="C107" t="n">
-        <v>357.1</v>
+        <v>358.2</v>
       </c>
       <c r="D107" t="n">
-        <v>360.5</v>
+        <v>358.2</v>
       </c>
       <c r="E107" t="n">
-        <v>357.1</v>
+        <v>358.2</v>
       </c>
       <c r="F107" t="n">
-        <v>2015.7361</v>
+        <v>122.3673</v>
       </c>
       <c r="G107" t="n">
-        <v>354.2833333333332</v>
+        <v>354.0316666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4463,22 +4423,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>357</v>
+        <v>360.5</v>
       </c>
       <c r="C108" t="n">
-        <v>357</v>
+        <v>357.1</v>
       </c>
       <c r="D108" t="n">
-        <v>357</v>
+        <v>360.5</v>
       </c>
       <c r="E108" t="n">
-        <v>357</v>
+        <v>357.1</v>
       </c>
       <c r="F108" t="n">
-        <v>6363.592</v>
+        <v>2015.7361</v>
       </c>
       <c r="G108" t="n">
-        <v>354.5833333333333</v>
+        <v>354.2833333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4510,10 +4470,10 @@
         <v>357</v>
       </c>
       <c r="F109" t="n">
-        <v>3233.1903</v>
+        <v>6363.592</v>
       </c>
       <c r="G109" t="n">
-        <v>354.8966666666666</v>
+        <v>354.5833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4545,10 +4505,10 @@
         <v>357</v>
       </c>
       <c r="F110" t="n">
-        <v>85.64530000000001</v>
+        <v>3233.1903</v>
       </c>
       <c r="G110" t="n">
-        <v>355.1966666666666</v>
+        <v>354.8966666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4580,10 +4540,10 @@
         <v>357</v>
       </c>
       <c r="F111" t="n">
-        <v>3059.9339</v>
+        <v>85.64530000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>355.5099999999999</v>
+        <v>355.1966666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4603,22 +4563,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>352.1</v>
+        <v>357</v>
       </c>
       <c r="C112" t="n">
-        <v>352.1</v>
+        <v>357</v>
       </c>
       <c r="D112" t="n">
-        <v>352.1</v>
+        <v>357</v>
       </c>
       <c r="E112" t="n">
-        <v>352.1</v>
+        <v>357</v>
       </c>
       <c r="F112" t="n">
-        <v>1672</v>
+        <v>3059.9339</v>
       </c>
       <c r="G112" t="n">
-        <v>355.8083333333332</v>
+        <v>355.5099999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4638,22 +4598,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>353</v>
+        <v>352.1</v>
       </c>
       <c r="C113" t="n">
-        <v>353</v>
+        <v>352.1</v>
       </c>
       <c r="D113" t="n">
-        <v>353</v>
+        <v>352.1</v>
       </c>
       <c r="E113" t="n">
-        <v>353</v>
+        <v>352.1</v>
       </c>
       <c r="F113" t="n">
-        <v>12.78</v>
+        <v>1672</v>
       </c>
       <c r="G113" t="n">
-        <v>356.0199999999999</v>
+        <v>355.8083333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4673,22 +4633,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>356.9</v>
+        <v>353</v>
       </c>
       <c r="C114" t="n">
-        <v>356.9</v>
+        <v>353</v>
       </c>
       <c r="D114" t="n">
-        <v>356.9</v>
+        <v>353</v>
       </c>
       <c r="E114" t="n">
-        <v>356.9</v>
+        <v>353</v>
       </c>
       <c r="F114" t="n">
-        <v>20095.37</v>
+        <v>12.78</v>
       </c>
       <c r="G114" t="n">
-        <v>356.2966666666666</v>
+        <v>356.0199999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4720,10 +4680,10 @@
         <v>356.9</v>
       </c>
       <c r="F115" t="n">
-        <v>11</v>
+        <v>20095.37</v>
       </c>
       <c r="G115" t="n">
-        <v>356.5733333333333</v>
+        <v>356.2966666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4743,22 +4703,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>359.4</v>
+        <v>356.9</v>
       </c>
       <c r="C116" t="n">
-        <v>359.4</v>
+        <v>356.9</v>
       </c>
       <c r="D116" t="n">
-        <v>359.4</v>
+        <v>356.9</v>
       </c>
       <c r="E116" t="n">
-        <v>359.4</v>
+        <v>356.9</v>
       </c>
       <c r="F116" t="n">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="G116" t="n">
-        <v>356.875</v>
+        <v>356.5733333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4778,22 +4738,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>356.9</v>
+        <v>359.4</v>
       </c>
       <c r="C117" t="n">
-        <v>356.9</v>
+        <v>359.4</v>
       </c>
       <c r="D117" t="n">
-        <v>356.9</v>
+        <v>359.4</v>
       </c>
       <c r="E117" t="n">
-        <v>356.9</v>
+        <v>359.4</v>
       </c>
       <c r="F117" t="n">
-        <v>3134.2028</v>
+        <v>1.4</v>
       </c>
       <c r="G117" t="n">
-        <v>357.135</v>
+        <v>356.875</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4825,10 +4785,10 @@
         <v>356.9</v>
       </c>
       <c r="F118" t="n">
-        <v>21.98</v>
+        <v>3134.2028</v>
       </c>
       <c r="G118" t="n">
-        <v>357.3950000000001</v>
+        <v>357.135</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4848,22 +4808,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>357.1</v>
+        <v>356.9</v>
       </c>
       <c r="C119" t="n">
-        <v>357</v>
+        <v>356.9</v>
       </c>
       <c r="D119" t="n">
-        <v>357.1</v>
+        <v>356.9</v>
       </c>
       <c r="E119" t="n">
-        <v>357</v>
+        <v>356.9</v>
       </c>
       <c r="F119" t="n">
-        <v>3062.2236</v>
+        <v>21.98</v>
       </c>
       <c r="G119" t="n">
-        <v>357.6283333333334</v>
+        <v>357.3950000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4883,22 +4843,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>357</v>
+        <v>357.1</v>
       </c>
       <c r="C120" t="n">
         <v>357</v>
       </c>
       <c r="D120" t="n">
-        <v>359.4</v>
+        <v>357.1</v>
       </c>
       <c r="E120" t="n">
         <v>357</v>
       </c>
       <c r="F120" t="n">
-        <v>3443.7889</v>
+        <v>3062.2236</v>
       </c>
       <c r="G120" t="n">
-        <v>357.8400000000001</v>
+        <v>357.6283333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4918,22 +4878,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C121" t="n">
         <v>357</v>
       </c>
       <c r="D121" t="n">
-        <v>359</v>
+        <v>359.4</v>
       </c>
       <c r="E121" t="n">
         <v>357</v>
       </c>
       <c r="F121" t="n">
-        <v>8095.3403</v>
+        <v>3443.7889</v>
       </c>
       <c r="G121" t="n">
-        <v>358.0000000000001</v>
+        <v>357.8400000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4953,22 +4913,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C122" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D122" t="n">
         <v>359</v>
       </c>
       <c r="E122" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F122" t="n">
-        <v>1.4</v>
+        <v>8095.3403</v>
       </c>
       <c r="G122" t="n">
-        <v>358.1933333333334</v>
+        <v>358.0000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4988,7 +4948,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>357.2</v>
+        <v>359</v>
       </c>
       <c r="C123" t="n">
         <v>359</v>
@@ -4997,13 +4957,13 @@
         <v>359</v>
       </c>
       <c r="E123" t="n">
-        <v>357.2</v>
+        <v>359</v>
       </c>
       <c r="F123" t="n">
-        <v>2244.2268</v>
+        <v>1.4</v>
       </c>
       <c r="G123" t="n">
-        <v>358.3766666666667</v>
+        <v>358.1933333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5023,7 +4983,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>359</v>
+        <v>357.2</v>
       </c>
       <c r="C124" t="n">
         <v>359</v>
@@ -5032,13 +4992,13 @@
         <v>359</v>
       </c>
       <c r="E124" t="n">
-        <v>359</v>
+        <v>357.2</v>
       </c>
       <c r="F124" t="n">
-        <v>120.8037</v>
+        <v>2244.2268</v>
       </c>
       <c r="G124" t="n">
-        <v>358.5433333333334</v>
+        <v>358.3766666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5058,22 +5018,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C125" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D125" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E125" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F125" t="n">
-        <v>579.3627</v>
+        <v>120.8037</v>
       </c>
       <c r="G125" t="n">
-        <v>358.6933333333334</v>
+        <v>358.5433333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5093,22 +5053,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>360.4</v>
+        <v>358</v>
       </c>
       <c r="C126" t="n">
         <v>358</v>
       </c>
       <c r="D126" t="n">
-        <v>360.4</v>
+        <v>358</v>
       </c>
       <c r="E126" t="n">
         <v>358</v>
       </c>
       <c r="F126" t="n">
-        <v>296.2796</v>
+        <v>579.3627</v>
       </c>
       <c r="G126" t="n">
-        <v>358.8266666666667</v>
+        <v>358.6933333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5131,19 +5091,19 @@
         <v>360.4</v>
       </c>
       <c r="C127" t="n">
-        <v>360.4</v>
+        <v>358</v>
       </c>
       <c r="D127" t="n">
         <v>360.4</v>
       </c>
       <c r="E127" t="n">
-        <v>360.4</v>
+        <v>358</v>
       </c>
       <c r="F127" t="n">
-        <v>987.5715</v>
+        <v>296.2796</v>
       </c>
       <c r="G127" t="n">
-        <v>358.9666666666668</v>
+        <v>358.8266666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5163,22 +5123,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>362</v>
+        <v>360.4</v>
       </c>
       <c r="C128" t="n">
-        <v>362</v>
+        <v>360.4</v>
       </c>
       <c r="D128" t="n">
-        <v>362</v>
+        <v>360.4</v>
       </c>
       <c r="E128" t="n">
-        <v>362</v>
+        <v>360.4</v>
       </c>
       <c r="F128" t="n">
-        <v>312.4627</v>
+        <v>987.5715</v>
       </c>
       <c r="G128" t="n">
-        <v>359.1333333333334</v>
+        <v>358.9666666666668</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5210,10 +5170,10 @@
         <v>362</v>
       </c>
       <c r="F129" t="n">
-        <v>512</v>
+        <v>312.4627</v>
       </c>
       <c r="G129" t="n">
-        <v>359.2166666666668</v>
+        <v>359.1333333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5236,19 +5196,19 @@
         <v>362</v>
       </c>
       <c r="C130" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D130" t="n">
         <v>362</v>
       </c>
       <c r="E130" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F130" t="n">
-        <v>61.99</v>
+        <v>512</v>
       </c>
       <c r="G130" t="n">
-        <v>359.2333333333334</v>
+        <v>359.2166666666668</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5268,22 +5228,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C131" t="n">
         <v>359</v>
       </c>
       <c r="D131" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E131" t="n">
         <v>359</v>
       </c>
       <c r="F131" t="n">
-        <v>241.7926</v>
+        <v>61.99</v>
       </c>
       <c r="G131" t="n">
-        <v>359.3000000000001</v>
+        <v>359.2333333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5303,22 +5263,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C132" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D132" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E132" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F132" t="n">
-        <v>159.9027</v>
+        <v>241.7926</v>
       </c>
       <c r="G132" t="n">
-        <v>359.385</v>
+        <v>359.3000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5338,22 +5298,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>358.9</v>
+        <v>360</v>
       </c>
       <c r="C133" t="n">
-        <v>358.9</v>
+        <v>360</v>
       </c>
       <c r="D133" t="n">
-        <v>358.9</v>
+        <v>360</v>
       </c>
       <c r="E133" t="n">
-        <v>358.9</v>
+        <v>360</v>
       </c>
       <c r="F133" t="n">
-        <v>30.6461</v>
+        <v>159.9027</v>
       </c>
       <c r="G133" t="n">
-        <v>359.3666666666667</v>
+        <v>359.385</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5373,22 +5333,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>353.3</v>
+        <v>358.9</v>
       </c>
       <c r="C134" t="n">
-        <v>357.9</v>
+        <v>358.9</v>
       </c>
       <c r="D134" t="n">
-        <v>357.9</v>
+        <v>358.9</v>
       </c>
       <c r="E134" t="n">
-        <v>353.3</v>
+        <v>358.9</v>
       </c>
       <c r="F134" t="n">
-        <v>1050</v>
+        <v>30.6461</v>
       </c>
       <c r="G134" t="n">
-        <v>359.3350000000001</v>
+        <v>359.3666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5408,22 +5368,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>353.6</v>
+        <v>353.3</v>
       </c>
       <c r="C135" t="n">
-        <v>351.6</v>
+        <v>357.9</v>
       </c>
       <c r="D135" t="n">
-        <v>353.6</v>
+        <v>357.9</v>
       </c>
       <c r="E135" t="n">
-        <v>351.6</v>
+        <v>353.3</v>
       </c>
       <c r="F135" t="n">
-        <v>10514.5473</v>
+        <v>1050</v>
       </c>
       <c r="G135" t="n">
-        <v>359.1933333333334</v>
+        <v>359.3350000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5443,22 +5403,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>355</v>
+        <v>353.6</v>
       </c>
       <c r="C136" t="n">
-        <v>357.9</v>
+        <v>351.6</v>
       </c>
       <c r="D136" t="n">
-        <v>357.9</v>
+        <v>353.6</v>
       </c>
       <c r="E136" t="n">
-        <v>355</v>
+        <v>351.6</v>
       </c>
       <c r="F136" t="n">
-        <v>638</v>
+        <v>10514.5473</v>
       </c>
       <c r="G136" t="n">
-        <v>359.2233333333335</v>
+        <v>359.1933333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5478,22 +5438,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>356.7</v>
+        <v>355</v>
       </c>
       <c r="C137" t="n">
-        <v>356.7</v>
+        <v>357.9</v>
       </c>
       <c r="D137" t="n">
-        <v>356.7</v>
+        <v>357.9</v>
       </c>
       <c r="E137" t="n">
-        <v>356.7</v>
+        <v>355</v>
       </c>
       <c r="F137" t="n">
-        <v>107</v>
+        <v>638</v>
       </c>
       <c r="G137" t="n">
-        <v>359.0883333333335</v>
+        <v>359.2233333333335</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5513,22 +5473,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>357.6</v>
+        <v>356.7</v>
       </c>
       <c r="C138" t="n">
-        <v>357.5</v>
+        <v>356.7</v>
       </c>
       <c r="D138" t="n">
-        <v>357.6</v>
+        <v>356.7</v>
       </c>
       <c r="E138" t="n">
-        <v>357.5</v>
+        <v>356.7</v>
       </c>
       <c r="F138" t="n">
-        <v>852.1999</v>
+        <v>107</v>
       </c>
       <c r="G138" t="n">
-        <v>359.0416666666669</v>
+        <v>359.0883333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5548,22 +5508,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>356</v>
+        <v>357.6</v>
       </c>
       <c r="C139" t="n">
-        <v>356</v>
+        <v>357.5</v>
       </c>
       <c r="D139" t="n">
-        <v>356</v>
+        <v>357.6</v>
       </c>
       <c r="E139" t="n">
-        <v>356</v>
+        <v>357.5</v>
       </c>
       <c r="F139" t="n">
-        <v>51.6762</v>
+        <v>852.1999</v>
       </c>
       <c r="G139" t="n">
-        <v>358.8916666666668</v>
+        <v>359.0416666666669</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5583,22 +5543,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C140" t="n">
-        <v>351.7</v>
+        <v>356</v>
       </c>
       <c r="D140" t="n">
-        <v>355.8</v>
+        <v>356</v>
       </c>
       <c r="E140" t="n">
-        <v>351.7</v>
+        <v>356</v>
       </c>
       <c r="F140" t="n">
-        <v>355.8167</v>
+        <v>51.6762</v>
       </c>
       <c r="G140" t="n">
-        <v>358.6700000000002</v>
+        <v>358.8916666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5618,22 +5578,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>350.6</v>
+        <v>353</v>
       </c>
       <c r="C141" t="n">
-        <v>353.9</v>
+        <v>351.7</v>
       </c>
       <c r="D141" t="n">
-        <v>353.9</v>
+        <v>355.8</v>
       </c>
       <c r="E141" t="n">
-        <v>347.1</v>
+        <v>351.7</v>
       </c>
       <c r="F141" t="n">
-        <v>2589</v>
+        <v>355.8167</v>
       </c>
       <c r="G141" t="n">
-        <v>358.5183333333335</v>
+        <v>358.6700000000002</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5653,22 +5613,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>350.4</v>
+        <v>350.6</v>
       </c>
       <c r="C142" t="n">
-        <v>347.1</v>
+        <v>353.9</v>
       </c>
       <c r="D142" t="n">
-        <v>350.4</v>
+        <v>353.9</v>
       </c>
       <c r="E142" t="n">
         <v>347.1</v>
       </c>
       <c r="F142" t="n">
-        <v>336</v>
+        <v>2589</v>
       </c>
       <c r="G142" t="n">
-        <v>358.2500000000002</v>
+        <v>358.5183333333335</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5688,22 +5648,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>351</v>
+        <v>350.4</v>
       </c>
       <c r="C143" t="n">
-        <v>352</v>
+        <v>347.1</v>
       </c>
       <c r="D143" t="n">
-        <v>352</v>
+        <v>350.4</v>
       </c>
       <c r="E143" t="n">
-        <v>349.2</v>
+        <v>347.1</v>
       </c>
       <c r="F143" t="n">
-        <v>505.4212</v>
+        <v>336</v>
       </c>
       <c r="G143" t="n">
-        <v>358.0016666666668</v>
+        <v>358.2500000000002</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5723,22 +5683,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>352.8</v>
+        <v>351</v>
       </c>
       <c r="C144" t="n">
-        <v>351.7</v>
+        <v>352</v>
       </c>
       <c r="D144" t="n">
-        <v>352.8</v>
+        <v>352</v>
       </c>
       <c r="E144" t="n">
-        <v>347.1</v>
+        <v>349.2</v>
       </c>
       <c r="F144" t="n">
-        <v>5044.9185</v>
+        <v>505.4212</v>
       </c>
       <c r="G144" t="n">
-        <v>357.7533333333335</v>
+        <v>358.0016666666668</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5758,22 +5718,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>352.8</v>
+      </c>
+      <c r="C145" t="n">
         <v>351.7</v>
       </c>
-      <c r="C145" t="n">
-        <v>351.9</v>
-      </c>
       <c r="D145" t="n">
-        <v>352.7</v>
+        <v>352.8</v>
       </c>
       <c r="E145" t="n">
-        <v>351.7</v>
+        <v>347.1</v>
       </c>
       <c r="F145" t="n">
-        <v>795</v>
+        <v>5044.9185</v>
       </c>
       <c r="G145" t="n">
-        <v>357.5483333333335</v>
+        <v>357.7533333333335</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5793,22 +5753,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>351.9</v>
+        <v>351.7</v>
       </c>
       <c r="C146" t="n">
         <v>351.9</v>
       </c>
       <c r="D146" t="n">
-        <v>351.9</v>
+        <v>352.7</v>
       </c>
       <c r="E146" t="n">
-        <v>351.9</v>
+        <v>351.7</v>
       </c>
       <c r="F146" t="n">
-        <v>608.9997</v>
+        <v>795</v>
       </c>
       <c r="G146" t="n">
-        <v>357.3616666666669</v>
+        <v>357.5483333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5840,10 +5800,10 @@
         <v>351.9</v>
       </c>
       <c r="F147" t="n">
-        <v>109.4749</v>
+        <v>608.9997</v>
       </c>
       <c r="G147" t="n">
-        <v>357.2100000000003</v>
+        <v>357.3616666666669</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5863,7 +5823,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>351</v>
+        <v>351.9</v>
       </c>
       <c r="C148" t="n">
         <v>351.9</v>
@@ -5872,13 +5832,13 @@
         <v>351.9</v>
       </c>
       <c r="E148" t="n">
-        <v>351</v>
+        <v>351.9</v>
       </c>
       <c r="F148" t="n">
-        <v>490.5232</v>
+        <v>109.4749</v>
       </c>
       <c r="G148" t="n">
-        <v>357.0083333333336</v>
+        <v>357.2100000000003</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5898,7 +5858,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>351.9</v>
+        <v>351</v>
       </c>
       <c r="C149" t="n">
         <v>351.9</v>
@@ -5907,13 +5867,13 @@
         <v>351.9</v>
       </c>
       <c r="E149" t="n">
-        <v>351.9</v>
+        <v>351</v>
       </c>
       <c r="F149" t="n">
-        <v>712</v>
+        <v>490.5232</v>
       </c>
       <c r="G149" t="n">
-        <v>356.856666666667</v>
+        <v>357.0083333333336</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5945,10 +5905,10 @@
         <v>351.9</v>
       </c>
       <c r="F150" t="n">
-        <v>405.9998</v>
+        <v>712</v>
       </c>
       <c r="G150" t="n">
-        <v>356.6633333333337</v>
+        <v>356.856666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5968,22 +5928,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>352.9</v>
+        <v>351.9</v>
       </c>
       <c r="C151" t="n">
-        <v>352.9</v>
+        <v>351.9</v>
       </c>
       <c r="D151" t="n">
-        <v>352.9</v>
+        <v>351.9</v>
       </c>
       <c r="E151" t="n">
-        <v>352.9</v>
+        <v>351.9</v>
       </c>
       <c r="F151" t="n">
-        <v>156.0468</v>
+        <v>405.9998</v>
       </c>
       <c r="G151" t="n">
-        <v>356.5283333333337</v>
+        <v>356.6633333333337</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6003,22 +5963,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>351.6</v>
+        <v>352.9</v>
       </c>
       <c r="C152" t="n">
-        <v>351.6</v>
+        <v>352.9</v>
       </c>
       <c r="D152" t="n">
-        <v>351.6</v>
+        <v>352.9</v>
       </c>
       <c r="E152" t="n">
-        <v>351</v>
+        <v>352.9</v>
       </c>
       <c r="F152" t="n">
-        <v>2659.0426</v>
+        <v>156.0468</v>
       </c>
       <c r="G152" t="n">
-        <v>356.396666666667</v>
+        <v>356.5283333333337</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6047,13 +6007,13 @@
         <v>351.6</v>
       </c>
       <c r="E153" t="n">
-        <v>351.6</v>
+        <v>351</v>
       </c>
       <c r="F153" t="n">
-        <v>835</v>
+        <v>2659.0426</v>
       </c>
       <c r="G153" t="n">
-        <v>356.2233333333336</v>
+        <v>356.396666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6073,22 +6033,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>351.3</v>
+        <v>351.6</v>
       </c>
       <c r="C154" t="n">
-        <v>354.6</v>
+        <v>351.6</v>
       </c>
       <c r="D154" t="n">
-        <v>354.6</v>
+        <v>351.6</v>
       </c>
       <c r="E154" t="n">
-        <v>351.2</v>
+        <v>351.6</v>
       </c>
       <c r="F154" t="n">
-        <v>884.9</v>
+        <v>835</v>
       </c>
       <c r="G154" t="n">
-        <v>356.1000000000003</v>
+        <v>356.2233333333336</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6108,22 +6068,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>351.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>354.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>354.6</v>
+      </c>
+      <c r="E155" t="n">
         <v>351.2</v>
       </c>
-      <c r="C155" t="n">
-        <v>353.7</v>
-      </c>
-      <c r="D155" t="n">
-        <v>353.7</v>
-      </c>
-      <c r="E155" t="n">
-        <v>348.1</v>
-      </c>
       <c r="F155" t="n">
-        <v>868</v>
+        <v>884.9</v>
       </c>
       <c r="G155" t="n">
-        <v>356.026666666667</v>
+        <v>356.1000000000003</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6143,22 +6103,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>353.9</v>
+        <v>351.2</v>
       </c>
       <c r="C156" t="n">
-        <v>353.9</v>
+        <v>353.7</v>
       </c>
       <c r="D156" t="n">
-        <v>353.9</v>
+        <v>353.7</v>
       </c>
       <c r="E156" t="n">
-        <v>353.9</v>
+        <v>348.1</v>
       </c>
       <c r="F156" t="n">
-        <v>122.2766</v>
+        <v>868</v>
       </c>
       <c r="G156" t="n">
-        <v>355.941666666667</v>
+        <v>356.026666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6190,10 +6150,10 @@
         <v>353.9</v>
       </c>
       <c r="F157" t="n">
-        <v>497.6</v>
+        <v>122.2766</v>
       </c>
       <c r="G157" t="n">
-        <v>355.8716666666671</v>
+        <v>355.941666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6213,22 +6173,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>354.9</v>
+        <v>353.9</v>
       </c>
       <c r="C158" t="n">
-        <v>354.9</v>
+        <v>353.9</v>
       </c>
       <c r="D158" t="n">
-        <v>354.9</v>
+        <v>353.9</v>
       </c>
       <c r="E158" t="n">
-        <v>354.9</v>
+        <v>353.9</v>
       </c>
       <c r="F158" t="n">
-        <v>203</v>
+        <v>497.6</v>
       </c>
       <c r="G158" t="n">
-        <v>355.8850000000004</v>
+        <v>355.8716666666671</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6251,19 +6211,19 @@
         <v>354.9</v>
       </c>
       <c r="C159" t="n">
-        <v>359.9</v>
+        <v>354.9</v>
       </c>
       <c r="D159" t="n">
-        <v>359.9</v>
+        <v>354.9</v>
       </c>
       <c r="E159" t="n">
         <v>354.9</v>
       </c>
       <c r="F159" t="n">
-        <v>6000</v>
+        <v>203</v>
       </c>
       <c r="G159" t="n">
-        <v>355.9733333333339</v>
+        <v>355.8850000000004</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6283,22 +6243,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>356</v>
+        <v>354.9</v>
       </c>
       <c r="C160" t="n">
-        <v>358.6</v>
+        <v>359.9</v>
       </c>
       <c r="D160" t="n">
-        <v>358.6</v>
+        <v>359.9</v>
       </c>
       <c r="E160" t="n">
-        <v>355.9</v>
+        <v>354.9</v>
       </c>
       <c r="F160" t="n">
-        <v>3139.5671</v>
+        <v>6000</v>
       </c>
       <c r="G160" t="n">
-        <v>355.9666666666672</v>
+        <v>355.9733333333339</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6318,22 +6278,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>358.5</v>
+        <v>356</v>
       </c>
       <c r="C161" t="n">
-        <v>355.1</v>
+        <v>358.6</v>
       </c>
       <c r="D161" t="n">
-        <v>358.5</v>
+        <v>358.6</v>
       </c>
       <c r="E161" t="n">
-        <v>355.1</v>
+        <v>355.9</v>
       </c>
       <c r="F161" t="n">
-        <v>5110.3433</v>
+        <v>3139.5671</v>
       </c>
       <c r="G161" t="n">
-        <v>356.0133333333338</v>
+        <v>355.9666666666672</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6353,22 +6313,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>359.9</v>
+        <v>358.5</v>
       </c>
       <c r="C162" t="n">
-        <v>359.9</v>
+        <v>355.1</v>
       </c>
       <c r="D162" t="n">
-        <v>359.9</v>
+        <v>358.5</v>
       </c>
       <c r="E162" t="n">
-        <v>359.9</v>
+        <v>355.1</v>
       </c>
       <c r="F162" t="n">
-        <v>3.3277</v>
+        <v>5110.3433</v>
       </c>
       <c r="G162" t="n">
-        <v>356.0583333333338</v>
+        <v>356.0133333333338</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6388,22 +6348,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>357</v>
+        <v>359.9</v>
       </c>
       <c r="C163" t="n">
-        <v>357</v>
+        <v>359.9</v>
       </c>
       <c r="D163" t="n">
-        <v>357</v>
+        <v>359.9</v>
       </c>
       <c r="E163" t="n">
-        <v>357</v>
+        <v>359.9</v>
       </c>
       <c r="F163" t="n">
-        <v>3.99</v>
+        <v>3.3277</v>
       </c>
       <c r="G163" t="n">
-        <v>356.0250000000005</v>
+        <v>356.0583333333338</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6423,22 +6383,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C164" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D164" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E164" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F164" t="n">
-        <v>300</v>
+        <v>3.99</v>
       </c>
       <c r="G164" t="n">
-        <v>356.0716666666671</v>
+        <v>356.0250000000005</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6461,19 +6421,19 @@
         <v>360</v>
       </c>
       <c r="C165" t="n">
-        <v>363.9</v>
+        <v>360</v>
       </c>
       <c r="D165" t="n">
-        <v>363.9</v>
+        <v>360</v>
       </c>
       <c r="E165" t="n">
         <v>360</v>
       </c>
       <c r="F165" t="n">
-        <v>843</v>
+        <v>300</v>
       </c>
       <c r="G165" t="n">
-        <v>356.1266666666672</v>
+        <v>356.0716666666671</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6493,22 +6453,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C166" t="n">
-        <v>366.9</v>
+        <v>363.9</v>
       </c>
       <c r="D166" t="n">
-        <v>366.9</v>
+        <v>363.9</v>
       </c>
       <c r="E166" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F166" t="n">
-        <v>620</v>
+        <v>843</v>
       </c>
       <c r="G166" t="n">
-        <v>356.2716666666672</v>
+        <v>356.1266666666672</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6528,22 +6488,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>363.1</v>
+        <v>364</v>
       </c>
       <c r="C167" t="n">
-        <v>365.8</v>
+        <v>366.9</v>
       </c>
       <c r="D167" t="n">
-        <v>365.8</v>
+        <v>366.9</v>
       </c>
       <c r="E167" t="n">
-        <v>363.1</v>
+        <v>364</v>
       </c>
       <c r="F167" t="n">
-        <v>50.4549</v>
+        <v>620</v>
       </c>
       <c r="G167" t="n">
-        <v>356.4166666666672</v>
+        <v>356.2716666666672</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6563,22 +6523,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="C168" t="n">
         <v>365.8</v>
       </c>
-      <c r="C168" t="n">
-        <v>367</v>
-      </c>
       <c r="D168" t="n">
-        <v>367</v>
+        <v>365.8</v>
       </c>
       <c r="E168" t="n">
-        <v>365.8</v>
+        <v>363.1</v>
       </c>
       <c r="F168" t="n">
-        <v>626.9314104600001</v>
+        <v>50.4549</v>
       </c>
       <c r="G168" t="n">
-        <v>356.5833333333339</v>
+        <v>356.4166666666672</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6598,22 +6558,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>365.8</v>
+      </c>
+      <c r="C169" t="n">
         <v>367</v>
       </c>
-      <c r="C169" t="n">
-        <v>359.1</v>
-      </c>
       <c r="D169" t="n">
-        <v>368.1</v>
+        <v>367</v>
       </c>
       <c r="E169" t="n">
-        <v>359.1</v>
+        <v>365.8</v>
       </c>
       <c r="F169" t="n">
-        <v>24562.4898</v>
+        <v>626.9314104600001</v>
       </c>
       <c r="G169" t="n">
-        <v>356.6183333333339</v>
+        <v>356.5833333333339</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6633,22 +6593,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>362.1</v>
+        <v>367</v>
       </c>
       <c r="C170" t="n">
-        <v>362.1</v>
+        <v>359.1</v>
       </c>
       <c r="D170" t="n">
-        <v>362.1</v>
+        <v>368.1</v>
       </c>
       <c r="E170" t="n">
-        <v>362.1</v>
+        <v>359.1</v>
       </c>
       <c r="F170" t="n">
-        <v>626.9314000000001</v>
+        <v>24562.4898</v>
       </c>
       <c r="G170" t="n">
-        <v>356.7033333333338</v>
+        <v>356.6183333333339</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6668,22 +6628,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>362</v>
+        <v>362.1</v>
       </c>
       <c r="C171" t="n">
-        <v>358.1</v>
+        <v>362.1</v>
       </c>
       <c r="D171" t="n">
-        <v>362</v>
+        <v>362.1</v>
       </c>
       <c r="E171" t="n">
-        <v>358.1</v>
+        <v>362.1</v>
       </c>
       <c r="F171" t="n">
-        <v>1860</v>
+        <v>626.9314000000001</v>
       </c>
       <c r="G171" t="n">
-        <v>356.7216666666671</v>
+        <v>356.7033333333338</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6703,22 +6663,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C172" t="n">
-        <v>358</v>
+        <v>358.1</v>
       </c>
       <c r="D172" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E172" t="n">
-        <v>358</v>
+        <v>358.1</v>
       </c>
       <c r="F172" t="n">
-        <v>59.629</v>
+        <v>1860</v>
       </c>
       <c r="G172" t="n">
-        <v>356.8200000000005</v>
+        <v>356.7216666666671</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6738,22 +6698,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>356.1</v>
+        <v>358</v>
       </c>
       <c r="C173" t="n">
-        <v>356.1</v>
+        <v>358</v>
       </c>
       <c r="D173" t="n">
-        <v>356.1</v>
+        <v>358</v>
       </c>
       <c r="E173" t="n">
-        <v>356.1</v>
+        <v>358</v>
       </c>
       <c r="F173" t="n">
-        <v>1342.8334</v>
+        <v>59.629</v>
       </c>
       <c r="G173" t="n">
-        <v>356.8716666666671</v>
+        <v>356.8200000000005</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6773,22 +6733,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>359</v>
+        <v>356.1</v>
       </c>
       <c r="C174" t="n">
-        <v>359</v>
+        <v>356.1</v>
       </c>
       <c r="D174" t="n">
-        <v>359</v>
+        <v>356.1</v>
       </c>
       <c r="E174" t="n">
-        <v>359</v>
+        <v>356.1</v>
       </c>
       <c r="F174" t="n">
-        <v>1.4</v>
+        <v>1342.8334</v>
       </c>
       <c r="G174" t="n">
-        <v>356.9066666666671</v>
+        <v>356.8716666666671</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6820,10 +6780,10 @@
         <v>359</v>
       </c>
       <c r="F175" t="n">
-        <v>198.6</v>
+        <v>1.4</v>
       </c>
       <c r="G175" t="n">
-        <v>356.9416666666671</v>
+        <v>356.9066666666671</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6843,22 +6803,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C176" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D176" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E176" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F176" t="n">
-        <v>226</v>
+        <v>198.6</v>
       </c>
       <c r="G176" t="n">
-        <v>356.9683333333338</v>
+        <v>356.9416666666671</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6878,22 +6838,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>360</v>
+      </c>
+      <c r="C177" t="n">
+        <v>361</v>
+      </c>
+      <c r="D177" t="n">
         <v>362</v>
       </c>
-      <c r="C177" t="n">
-        <v>363.5</v>
-      </c>
-      <c r="D177" t="n">
-        <v>363.6</v>
-      </c>
       <c r="E177" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F177" t="n">
-        <v>1159.1566</v>
+        <v>226</v>
       </c>
       <c r="G177" t="n">
-        <v>357.0783333333337</v>
+        <v>356.9683333333338</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6913,22 +6873,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>363.6</v>
+        <v>362</v>
       </c>
       <c r="C178" t="n">
-        <v>363.6</v>
+        <v>363.5</v>
       </c>
       <c r="D178" t="n">
         <v>363.6</v>
       </c>
       <c r="E178" t="n">
-        <v>363.6</v>
+        <v>362</v>
       </c>
       <c r="F178" t="n">
-        <v>53</v>
+        <v>1159.1566</v>
       </c>
       <c r="G178" t="n">
-        <v>357.1900000000003</v>
+        <v>357.0783333333337</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6948,22 +6908,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>362.2</v>
+        <v>363.6</v>
       </c>
       <c r="C179" t="n">
-        <v>362.2</v>
+        <v>363.6</v>
       </c>
       <c r="D179" t="n">
-        <v>362.2</v>
+        <v>363.6</v>
       </c>
       <c r="E179" t="n">
-        <v>362.2</v>
+        <v>363.6</v>
       </c>
       <c r="F179" t="n">
-        <v>1565.8719</v>
+        <v>53</v>
       </c>
       <c r="G179" t="n">
-        <v>357.276666666667</v>
+        <v>357.1900000000003</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6983,22 +6943,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>363.6</v>
+        <v>362.2</v>
       </c>
       <c r="C180" t="n">
-        <v>363.6</v>
+        <v>362.2</v>
       </c>
       <c r="D180" t="n">
-        <v>363.6</v>
+        <v>362.2</v>
       </c>
       <c r="E180" t="n">
-        <v>363.6</v>
+        <v>362.2</v>
       </c>
       <c r="F180" t="n">
-        <v>200.8845</v>
+        <v>1565.8719</v>
       </c>
       <c r="G180" t="n">
-        <v>357.386666666667</v>
+        <v>357.276666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7021,19 +6981,19 @@
         <v>363.6</v>
       </c>
       <c r="C181" t="n">
-        <v>365</v>
+        <v>363.6</v>
       </c>
       <c r="D181" t="n">
-        <v>365</v>
+        <v>363.6</v>
       </c>
       <c r="E181" t="n">
         <v>363.6</v>
       </c>
       <c r="F181" t="n">
-        <v>3708.514</v>
+        <v>200.8845</v>
       </c>
       <c r="G181" t="n">
-        <v>357.5200000000003</v>
+        <v>357.386666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7053,7 +7013,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>365</v>
+        <v>363.6</v>
       </c>
       <c r="C182" t="n">
         <v>365</v>
@@ -7062,13 +7022,13 @@
         <v>365</v>
       </c>
       <c r="E182" t="n">
-        <v>365</v>
+        <v>363.6</v>
       </c>
       <c r="F182" t="n">
-        <v>620</v>
+        <v>3708.514</v>
       </c>
       <c r="G182" t="n">
-        <v>357.6200000000003</v>
+        <v>357.5200000000003</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7100,10 +7060,10 @@
         <v>365</v>
       </c>
       <c r="F183" t="n">
-        <v>134.0402</v>
+        <v>620</v>
       </c>
       <c r="G183" t="n">
-        <v>357.7200000000003</v>
+        <v>357.6200000000003</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7135,10 +7095,10 @@
         <v>365</v>
       </c>
       <c r="F184" t="n">
-        <v>491</v>
+        <v>134.0402</v>
       </c>
       <c r="G184" t="n">
-        <v>357.8200000000003</v>
+        <v>357.7200000000003</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7161,19 +7121,19 @@
         <v>365</v>
       </c>
       <c r="C185" t="n">
-        <v>365.8</v>
+        <v>365</v>
       </c>
       <c r="D185" t="n">
-        <v>365.8</v>
+        <v>365</v>
       </c>
       <c r="E185" t="n">
         <v>365</v>
       </c>
       <c r="F185" t="n">
-        <v>1438</v>
+        <v>491</v>
       </c>
       <c r="G185" t="n">
-        <v>357.9500000000003</v>
+        <v>357.8200000000003</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7193,7 +7153,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>365.8</v>
+        <v>365</v>
       </c>
       <c r="C186" t="n">
         <v>365.8</v>
@@ -7202,13 +7162,13 @@
         <v>365.8</v>
       </c>
       <c r="E186" t="n">
-        <v>365.8</v>
+        <v>365</v>
       </c>
       <c r="F186" t="n">
-        <v>78</v>
+        <v>1438</v>
       </c>
       <c r="G186" t="n">
-        <v>358.0800000000003</v>
+        <v>357.9500000000003</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7228,22 +7188,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>364.7</v>
+        <v>365.8</v>
       </c>
       <c r="C187" t="n">
-        <v>366</v>
+        <v>365.8</v>
       </c>
       <c r="D187" t="n">
-        <v>366</v>
+        <v>365.8</v>
       </c>
       <c r="E187" t="n">
-        <v>364.7</v>
+        <v>365.8</v>
       </c>
       <c r="F187" t="n">
-        <v>619.1283</v>
+        <v>78</v>
       </c>
       <c r="G187" t="n">
-        <v>358.1733333333336</v>
+        <v>358.0800000000003</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7263,22 +7223,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>364.7</v>
+      </c>
+      <c r="C188" t="n">
         <v>366</v>
-      </c>
-      <c r="C188" t="n">
-        <v>365.3</v>
       </c>
       <c r="D188" t="n">
         <v>366</v>
       </c>
       <c r="E188" t="n">
-        <v>365.3</v>
+        <v>364.7</v>
       </c>
       <c r="F188" t="n">
-        <v>1300</v>
+        <v>619.1283</v>
       </c>
       <c r="G188" t="n">
-        <v>358.2283333333336</v>
+        <v>358.1733333333336</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7298,22 +7258,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C189" t="n">
-        <v>368</v>
+        <v>365.3</v>
       </c>
       <c r="D189" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E189" t="n">
-        <v>367</v>
+        <v>365.3</v>
       </c>
       <c r="F189" t="n">
-        <v>310</v>
+        <v>1300</v>
       </c>
       <c r="G189" t="n">
-        <v>358.3283333333336</v>
+        <v>358.2283333333336</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7333,22 +7293,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>367</v>
+      </c>
+      <c r="C190" t="n">
         <v>368</v>
       </c>
-      <c r="C190" t="n">
-        <v>368.2</v>
-      </c>
       <c r="D190" t="n">
-        <v>368.2</v>
+        <v>368</v>
       </c>
       <c r="E190" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F190" t="n">
-        <v>620</v>
+        <v>310</v>
       </c>
       <c r="G190" t="n">
-        <v>358.4816666666669</v>
+        <v>358.3283333333336</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7368,22 +7328,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>368</v>
+      </c>
+      <c r="C191" t="n">
         <v>368.2</v>
       </c>
-      <c r="C191" t="n">
-        <v>369</v>
-      </c>
       <c r="D191" t="n">
-        <v>369</v>
+        <v>368.2</v>
       </c>
       <c r="E191" t="n">
-        <v>368.2</v>
+        <v>368</v>
       </c>
       <c r="F191" t="n">
-        <v>274.2585</v>
+        <v>620</v>
       </c>
       <c r="G191" t="n">
-        <v>358.6483333333336</v>
+        <v>358.4816666666669</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7403,22 +7363,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>369.1</v>
+        <v>368.2</v>
       </c>
       <c r="C192" t="n">
-        <v>369.9</v>
+        <v>369</v>
       </c>
       <c r="D192" t="n">
-        <v>369.9</v>
+        <v>369</v>
       </c>
       <c r="E192" t="n">
-        <v>368</v>
+        <v>368.2</v>
       </c>
       <c r="F192" t="n">
-        <v>1729.1953</v>
+        <v>274.2585</v>
       </c>
       <c r="G192" t="n">
-        <v>358.8133333333336</v>
+        <v>358.6483333333336</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7438,7 +7398,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>369.9</v>
+        <v>369.1</v>
       </c>
       <c r="C193" t="n">
         <v>369.9</v>
@@ -7447,13 +7407,13 @@
         <v>369.9</v>
       </c>
       <c r="E193" t="n">
-        <v>369.9</v>
+        <v>368</v>
       </c>
       <c r="F193" t="n">
-        <v>2388.1263</v>
+        <v>1729.1953</v>
       </c>
       <c r="G193" t="n">
-        <v>358.996666666667</v>
+        <v>358.8133333333336</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7473,22 +7433,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>368.9</v>
+        <v>369.9</v>
       </c>
       <c r="C194" t="n">
-        <v>368.9</v>
+        <v>369.9</v>
       </c>
       <c r="D194" t="n">
-        <v>368.9</v>
+        <v>369.9</v>
       </c>
       <c r="E194" t="n">
-        <v>368.9</v>
+        <v>369.9</v>
       </c>
       <c r="F194" t="n">
-        <v>372.5999</v>
+        <v>2388.1263</v>
       </c>
       <c r="G194" t="n">
-        <v>359.1800000000003</v>
+        <v>358.996666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7520,10 +7480,10 @@
         <v>368.9</v>
       </c>
       <c r="F195" t="n">
-        <v>145.8917</v>
+        <v>372.5999</v>
       </c>
       <c r="G195" t="n">
-        <v>359.4683333333336</v>
+        <v>359.1800000000003</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7543,22 +7503,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>369</v>
+        <v>368.9</v>
       </c>
       <c r="C196" t="n">
-        <v>369</v>
+        <v>368.9</v>
       </c>
       <c r="D196" t="n">
-        <v>369</v>
+        <v>368.9</v>
       </c>
       <c r="E196" t="n">
-        <v>369</v>
+        <v>368.9</v>
       </c>
       <c r="F196" t="n">
-        <v>3909.2751</v>
+        <v>145.8917</v>
       </c>
       <c r="G196" t="n">
-        <v>359.6533333333336</v>
+        <v>359.4683333333336</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7578,22 +7538,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>369.9</v>
+        <v>369</v>
       </c>
       <c r="C197" t="n">
-        <v>369.9</v>
+        <v>369</v>
       </c>
       <c r="D197" t="n">
-        <v>369.9</v>
+        <v>369</v>
       </c>
       <c r="E197" t="n">
-        <v>369.9</v>
+        <v>369</v>
       </c>
       <c r="F197" t="n">
-        <v>3436</v>
+        <v>3909.2751</v>
       </c>
       <c r="G197" t="n">
-        <v>359.8733333333337</v>
+        <v>359.6533333333336</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7616,19 +7576,19 @@
         <v>369.9</v>
       </c>
       <c r="C198" t="n">
-        <v>367.1</v>
+        <v>369.9</v>
       </c>
       <c r="D198" t="n">
         <v>369.9</v>
       </c>
       <c r="E198" t="n">
-        <v>367.1</v>
+        <v>369.9</v>
       </c>
       <c r="F198" t="n">
-        <v>6033.3432</v>
+        <v>3436</v>
       </c>
       <c r="G198" t="n">
-        <v>360.0333333333336</v>
+        <v>359.8733333333337</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7648,22 +7608,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>368</v>
+        <v>369.9</v>
       </c>
       <c r="C199" t="n">
-        <v>367</v>
+        <v>367.1</v>
       </c>
       <c r="D199" t="n">
-        <v>368</v>
+        <v>369.9</v>
       </c>
       <c r="E199" t="n">
-        <v>367</v>
+        <v>367.1</v>
       </c>
       <c r="F199" t="n">
-        <v>635</v>
+        <v>6033.3432</v>
       </c>
       <c r="G199" t="n">
-        <v>360.216666666667</v>
+        <v>360.0333333333336</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7695,10 +7655,10 @@
         <v>367</v>
       </c>
       <c r="F200" t="n">
-        <v>135</v>
+        <v>635</v>
       </c>
       <c r="G200" t="n">
-        <v>360.471666666667</v>
+        <v>360.216666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7718,22 +7678,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C201" t="n">
         <v>367</v>
       </c>
       <c r="D201" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E201" t="n">
         <v>367</v>
       </c>
       <c r="F201" t="n">
-        <v>4814.6425</v>
+        <v>135</v>
       </c>
       <c r="G201" t="n">
-        <v>360.6900000000003</v>
+        <v>360.471666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7753,22 +7713,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C202" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D202" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E202" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F202" t="n">
-        <v>119.0357</v>
+        <v>4814.6425</v>
       </c>
       <c r="G202" t="n">
-        <v>361.0383333333336</v>
+        <v>360.6900000000003</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7800,10 +7760,10 @@
         <v>368</v>
       </c>
       <c r="F203" t="n">
-        <v>517.1550999999999</v>
+        <v>119.0357</v>
       </c>
       <c r="G203" t="n">
-        <v>361.3050000000003</v>
+        <v>361.0383333333336</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7823,22 +7783,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C204" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D204" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E204" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F204" t="n">
-        <v>8169.2939</v>
+        <v>517.1550999999999</v>
       </c>
       <c r="G204" t="n">
-        <v>361.5600000000003</v>
+        <v>361.3050000000003</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7870,10 +7830,10 @@
         <v>367</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0001</v>
+        <v>8169.2939</v>
       </c>
       <c r="G205" t="n">
-        <v>361.8116666666669</v>
+        <v>361.5600000000003</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7893,22 +7853,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C206" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D206" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E206" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F206" t="n">
-        <v>30</v>
+        <v>0.0001</v>
       </c>
       <c r="G206" t="n">
-        <v>362.0466666666669</v>
+        <v>361.8116666666669</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7937,13 +7897,13 @@
         <v>366</v>
       </c>
       <c r="E207" t="n">
-        <v>364.3</v>
+        <v>366</v>
       </c>
       <c r="F207" t="n">
-        <v>1338.382</v>
+        <v>30</v>
       </c>
       <c r="G207" t="n">
-        <v>362.2816666666669</v>
+        <v>362.0466666666669</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7972,13 +7932,13 @@
         <v>366</v>
       </c>
       <c r="E208" t="n">
-        <v>366</v>
+        <v>364.3</v>
       </c>
       <c r="F208" t="n">
-        <v>9</v>
+        <v>1338.382</v>
       </c>
       <c r="G208" t="n">
-        <v>362.5166666666668</v>
+        <v>362.2816666666669</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7998,22 +7958,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C209" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D209" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E209" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F209" t="n">
-        <v>75.8189</v>
+        <v>9</v>
       </c>
       <c r="G209" t="n">
-        <v>362.7683333333335</v>
+        <v>362.5166666666668</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8033,22 +7993,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>366.9</v>
+        <v>367</v>
       </c>
       <c r="C210" t="n">
-        <v>367.9</v>
+        <v>367</v>
       </c>
       <c r="D210" t="n">
-        <v>367.9</v>
+        <v>367</v>
       </c>
       <c r="E210" t="n">
-        <v>366.9</v>
+        <v>367</v>
       </c>
       <c r="F210" t="n">
-        <v>3449.1234</v>
+        <v>75.8189</v>
       </c>
       <c r="G210" t="n">
-        <v>363.0350000000001</v>
+        <v>362.7683333333335</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8068,22 +8028,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>365.2</v>
+        <v>366.9</v>
       </c>
       <c r="C211" t="n">
-        <v>364.2</v>
+        <v>367.9</v>
       </c>
       <c r="D211" t="n">
-        <v>365.2</v>
+        <v>367.9</v>
       </c>
       <c r="E211" t="n">
-        <v>364.2</v>
+        <v>366.9</v>
       </c>
       <c r="F211" t="n">
-        <v>690.3323</v>
+        <v>3449.1234</v>
       </c>
       <c r="G211" t="n">
-        <v>363.2233333333335</v>
+        <v>363.0350000000001</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8103,22 +8063,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>365.2</v>
+      </c>
+      <c r="C212" t="n">
         <v>364.2</v>
       </c>
-      <c r="C212" t="n">
-        <v>364.1</v>
-      </c>
       <c r="D212" t="n">
+        <v>365.2</v>
+      </c>
+      <c r="E212" t="n">
         <v>364.2</v>
       </c>
-      <c r="E212" t="n">
-        <v>364.1</v>
-      </c>
       <c r="F212" t="n">
-        <v>4425.6742</v>
+        <v>690.3323</v>
       </c>
       <c r="G212" t="n">
-        <v>363.4316666666668</v>
+        <v>363.2233333333335</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8138,22 +8098,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>364.2</v>
+      </c>
+      <c r="C213" t="n">
         <v>364.1</v>
       </c>
-      <c r="C213" t="n">
-        <v>363.8</v>
-      </c>
       <c r="D213" t="n">
+        <v>364.2</v>
+      </c>
+      <c r="E213" t="n">
         <v>364.1</v>
       </c>
-      <c r="E213" t="n">
-        <v>363.8</v>
-      </c>
       <c r="F213" t="n">
-        <v>546.4512</v>
+        <v>4425.6742</v>
       </c>
       <c r="G213" t="n">
-        <v>363.6350000000002</v>
+        <v>363.4316666666668</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8173,22 +8133,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>363.8</v>
+        <v>364.1</v>
       </c>
       <c r="C214" t="n">
         <v>363.8</v>
       </c>
       <c r="D214" t="n">
-        <v>363.8</v>
+        <v>364.1</v>
       </c>
       <c r="E214" t="n">
         <v>363.8</v>
       </c>
       <c r="F214" t="n">
-        <v>619.6858</v>
+        <v>546.4512</v>
       </c>
       <c r="G214" t="n">
-        <v>363.7883333333335</v>
+        <v>363.6350000000002</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8220,10 +8180,10 @@
         <v>363.8</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0001</v>
+        <v>619.6858</v>
       </c>
       <c r="G215" t="n">
-        <v>363.9566666666668</v>
+        <v>363.7883333333335</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8243,22 +8203,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>362</v>
+        <v>363.8</v>
       </c>
       <c r="C216" t="n">
-        <v>362</v>
+        <v>363.8</v>
       </c>
       <c r="D216" t="n">
-        <v>362</v>
+        <v>363.8</v>
       </c>
       <c r="E216" t="n">
-        <v>362</v>
+        <v>363.8</v>
       </c>
       <c r="F216" t="n">
-        <v>77.1665</v>
+        <v>0.0001</v>
       </c>
       <c r="G216" t="n">
-        <v>364.0916666666668</v>
+        <v>363.9566666666668</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8278,7 +8238,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C217" t="n">
         <v>362</v>
@@ -8287,13 +8247,13 @@
         <v>362</v>
       </c>
       <c r="E217" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F217" t="n">
-        <v>1498.3436</v>
+        <v>77.1665</v>
       </c>
       <c r="G217" t="n">
-        <v>364.2266666666667</v>
+        <v>364.0916666666668</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8313,7 +8273,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C218" t="n">
         <v>362</v>
@@ -8322,13 +8282,13 @@
         <v>362</v>
       </c>
       <c r="E218" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F218" t="n">
-        <v>578.3572</v>
+        <v>1498.3436</v>
       </c>
       <c r="G218" t="n">
-        <v>364.3450000000001</v>
+        <v>364.2266666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8351,19 +8311,19 @@
         <v>362</v>
       </c>
       <c r="C219" t="n">
-        <v>364.1</v>
+        <v>362</v>
       </c>
       <c r="D219" t="n">
-        <v>364.1</v>
+        <v>362</v>
       </c>
       <c r="E219" t="n">
         <v>362</v>
       </c>
       <c r="F219" t="n">
-        <v>4207.7786</v>
+        <v>578.3572</v>
       </c>
       <c r="G219" t="n">
-        <v>364.415</v>
+        <v>364.3450000000001</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8392,13 +8352,13 @@
         <v>364.1</v>
       </c>
       <c r="E220" t="n">
-        <v>360.4</v>
+        <v>362</v>
       </c>
       <c r="F220" t="n">
-        <v>32494.2595</v>
+        <v>4207.7786</v>
       </c>
       <c r="G220" t="n">
-        <v>364.5066666666667</v>
+        <v>364.415</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8418,7 +8378,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>363.1</v>
+        <v>362</v>
       </c>
       <c r="C221" t="n">
         <v>364.1</v>
@@ -8427,13 +8387,13 @@
         <v>364.1</v>
       </c>
       <c r="E221" t="n">
-        <v>363.1</v>
+        <v>360.4</v>
       </c>
       <c r="F221" t="n">
-        <v>1802</v>
+        <v>32494.2595</v>
       </c>
       <c r="G221" t="n">
-        <v>364.6566666666667</v>
+        <v>364.5066666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8453,22 +8413,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>363</v>
+        <v>363.1</v>
       </c>
       <c r="C222" t="n">
-        <v>363</v>
+        <v>364.1</v>
       </c>
       <c r="D222" t="n">
-        <v>363</v>
+        <v>364.1</v>
       </c>
       <c r="E222" t="n">
-        <v>363</v>
+        <v>363.1</v>
       </c>
       <c r="F222" t="n">
-        <v>4181.9668</v>
+        <v>1802</v>
       </c>
       <c r="G222" t="n">
-        <v>364.7083333333333</v>
+        <v>364.6566666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8500,10 +8460,10 @@
         <v>363</v>
       </c>
       <c r="F223" t="n">
-        <v>171.5031</v>
+        <v>4181.9668</v>
       </c>
       <c r="G223" t="n">
-        <v>364.8083333333333</v>
+        <v>364.7083333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8523,22 +8483,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>363.1</v>
+        <v>363</v>
       </c>
       <c r="C224" t="n">
-        <v>363.1</v>
+        <v>363</v>
       </c>
       <c r="D224" t="n">
-        <v>363.1</v>
+        <v>363</v>
       </c>
       <c r="E224" t="n">
-        <v>363.1</v>
+        <v>363</v>
       </c>
       <c r="F224" t="n">
-        <v>362</v>
+        <v>171.5031</v>
       </c>
       <c r="G224" t="n">
-        <v>364.86</v>
+        <v>364.8083333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8570,10 +8530,10 @@
         <v>363.1</v>
       </c>
       <c r="F225" t="n">
-        <v>802.4992999999999</v>
+        <v>362</v>
       </c>
       <c r="G225" t="n">
-        <v>364.8466666666666</v>
+        <v>364.86</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8593,22 +8553,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>364.1</v>
+        <v>363.1</v>
       </c>
       <c r="C226" t="n">
-        <v>366</v>
+        <v>363.1</v>
       </c>
       <c r="D226" t="n">
-        <v>366</v>
+        <v>363.1</v>
       </c>
       <c r="E226" t="n">
-        <v>364.1</v>
+        <v>363.1</v>
       </c>
       <c r="F226" t="n">
-        <v>5910</v>
+        <v>802.4992999999999</v>
       </c>
       <c r="G226" t="n">
-        <v>364.8316666666666</v>
+        <v>364.8466666666666</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8628,19 +8588,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>365.8</v>
+        <v>364.1</v>
       </c>
       <c r="C227" t="n">
-        <v>365.8</v>
+        <v>366</v>
       </c>
       <c r="D227" t="n">
-        <v>365.8</v>
+        <v>366</v>
       </c>
       <c r="E227" t="n">
-        <v>365.8</v>
+        <v>364.1</v>
       </c>
       <c r="F227" t="n">
-        <v>1704</v>
+        <v>5910</v>
       </c>
       <c r="G227" t="n">
         <v>364.8316666666666</v>
@@ -8658,6 +8618,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>365.8</v>
+      </c>
+      <c r="C228" t="n">
+        <v>365.8</v>
+      </c>
+      <c r="D228" t="n">
+        <v>365.8</v>
+      </c>
+      <c r="E228" t="n">
+        <v>365.8</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1704</v>
+      </c>
+      <c r="G228" t="n">
+        <v>364.8316666666666</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-16 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M228"/>
+  <dimension ref="A1:N238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>5140</v>
       </c>
       <c r="G2" t="n">
+        <v>335.1133333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>338.9583333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>682.1828</v>
       </c>
       <c r="G3" t="n">
+        <v>335.12</v>
+      </c>
+      <c r="H3" t="n">
         <v>338.7933333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>339.22</v>
       </c>
       <c r="G4" t="n">
+        <v>335.0600000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>338.6949999999999</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>50</v>
       </c>
       <c r="G5" t="n">
+        <v>335.0000000000001</v>
+      </c>
+      <c r="H5" t="n">
         <v>338.5799999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>27.96</v>
       </c>
       <c r="G6" t="n">
+        <v>334.6733333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>338.3983333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,22 +643,21 @@
         <v>159.4282</v>
       </c>
       <c r="G7" t="n">
+        <v>334.6133333333335</v>
+      </c>
+      <c r="H7" t="n">
         <v>338.2816666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>334.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -662,26 +681,21 @@
         <v>48.93</v>
       </c>
       <c r="G8" t="n">
+        <v>334.6866666666668</v>
+      </c>
+      <c r="H8" t="n">
         <v>338.1816666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -705,26 +719,21 @@
         <v>55.67</v>
       </c>
       <c r="G9" t="n">
+        <v>334.7600000000002</v>
+      </c>
+      <c r="H9" t="n">
         <v>338.0016666666665</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -748,22 +757,21 @@
         <v>4153.7985</v>
       </c>
       <c r="G10" t="n">
+        <v>334.6333333333335</v>
+      </c>
+      <c r="H10" t="n">
         <v>337.8033333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>334.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -787,26 +795,21 @@
         <v>1916.394</v>
       </c>
       <c r="G11" t="n">
+        <v>334.5066666666669</v>
+      </c>
+      <c r="H11" t="n">
         <v>337.6549999999998</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -830,24 +833,25 @@
         <v>394.048</v>
       </c>
       <c r="G12" t="n">
+        <v>334.3733333333336</v>
+      </c>
+      <c r="H12" t="n">
         <v>337.4566666666664</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -871,18 +875,29 @@
         <v>1353.2313</v>
       </c>
       <c r="G13" t="n">
+        <v>334.2933333333336</v>
+      </c>
+      <c r="H13" t="n">
         <v>337.2516666666664</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>333</v>
+      </c>
+      <c r="L13" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -906,18 +921,29 @@
         <v>229.2071</v>
       </c>
       <c r="G14" t="n">
+        <v>334.2333333333336</v>
+      </c>
+      <c r="H14" t="n">
         <v>337.0533333333331</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>333.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -941,18 +967,29 @@
         <v>833.2499</v>
       </c>
       <c r="G15" t="n">
+        <v>334.1800000000003</v>
+      </c>
+      <c r="H15" t="n">
         <v>336.8349999999998</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -976,18 +1013,29 @@
         <v>24.48946193</v>
       </c>
       <c r="G16" t="n">
+        <v>334.4800000000003</v>
+      </c>
+      <c r="H16" t="n">
         <v>336.7283333333331</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1011,24 +1059,29 @@
         <v>308.54</v>
       </c>
       <c r="G17" t="n">
+        <v>334.0133333333336</v>
+      </c>
+      <c r="H17" t="n">
         <v>336.4866666666664</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>337.6</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,24 +1105,29 @@
         <v>24.4894</v>
       </c>
       <c r="G18" t="n">
+        <v>333.8733333333336</v>
+      </c>
+      <c r="H18" t="n">
         <v>336.3033333333331</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>331.7</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1093,22 +1151,29 @@
         <v>1914.0301</v>
       </c>
       <c r="G19" t="n">
+        <v>334.1733333333336</v>
+      </c>
+      <c r="H19" t="n">
         <v>336.1783333333331</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>333</v>
+      </c>
+      <c r="L19" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1132,22 +1197,29 @@
         <v>141.1921</v>
       </c>
       <c r="G20" t="n">
+        <v>334.4800000000002</v>
+      </c>
+      <c r="H20" t="n">
         <v>336.1066666666664</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>338.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1171,22 +1243,29 @@
         <v>1638.4596</v>
       </c>
       <c r="G21" t="n">
+        <v>334.8733333333336</v>
+      </c>
+      <c r="H21" t="n">
         <v>336.0699999999997</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>338.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,22 +1289,29 @@
         <v>1812.5196</v>
       </c>
       <c r="G22" t="n">
+        <v>335.2666666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>336.033333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>340</v>
+      </c>
+      <c r="L22" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1249,22 +1335,29 @@
         <v>645.4326</v>
       </c>
       <c r="G23" t="n">
+        <v>335.7266666666668</v>
+      </c>
+      <c r="H23" t="n">
         <v>336.0299999999997</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>340</v>
+      </c>
+      <c r="L23" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,22 +1381,29 @@
         <v>3298.8972</v>
       </c>
       <c r="G24" t="n">
+        <v>336.1800000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>336.0249999999997</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>341</v>
+      </c>
+      <c r="L24" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1327,22 +1427,29 @@
         <v>347.6468</v>
       </c>
       <c r="G25" t="n">
+        <v>336.7</v>
+      </c>
+      <c r="H25" t="n">
         <v>336.0199999999997</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>340.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1366,22 +1473,29 @@
         <v>796.3819</v>
       </c>
       <c r="G26" t="n">
+        <v>336.9800000000001</v>
+      </c>
+      <c r="H26" t="n">
         <v>335.9566666666664</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>340.9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1405,22 +1519,29 @@
         <v>815.6423</v>
       </c>
       <c r="G27" t="n">
+        <v>337.2666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>335.9283333333331</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>337.3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,22 +1565,29 @@
         <v>3.49</v>
       </c>
       <c r="G28" t="n">
+        <v>337.7333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>335.983333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>337.3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,22 +1611,29 @@
         <v>2515.1652</v>
       </c>
       <c r="G29" t="n">
+        <v>337.9266666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>335.9766666666663</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>340.8</v>
+      </c>
+      <c r="L29" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1522,22 +1657,29 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
+        <v>338.1066666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>335.9399999999997</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>337</v>
+      </c>
+      <c r="L30" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1561,22 +1703,29 @@
         <v>2.1</v>
       </c>
       <c r="G31" t="n">
+        <v>338.3333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>336.0066666666663</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1600,22 +1749,29 @@
         <v>2050</v>
       </c>
       <c r="G32" t="n">
+        <v>338.7666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>335.978333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>341</v>
+      </c>
+      <c r="L32" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1639,22 +1795,27 @@
         <v>3.5</v>
       </c>
       <c r="G33" t="n">
+        <v>339.3666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>336.093333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,22 +1839,29 @@
         <v>9732.42472486</v>
       </c>
       <c r="G34" t="n">
+        <v>340.8733333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>336.4849999999997</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>342</v>
+      </c>
+      <c r="L34" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1717,22 +1885,27 @@
         <v>1704.959</v>
       </c>
       <c r="G35" t="n">
+        <v>340.8266666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>336.488333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1756,22 +1929,27 @@
         <v>12373.0027</v>
       </c>
       <c r="G36" t="n">
+        <v>341.16</v>
+      </c>
+      <c r="H36" t="n">
         <v>336.608333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1795,22 +1973,27 @@
         <v>130.0095</v>
       </c>
       <c r="G37" t="n">
+        <v>341.0266666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>336.6249999999997</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1834,22 +2017,27 @@
         <v>220.32</v>
       </c>
       <c r="G38" t="n">
+        <v>340.76</v>
+      </c>
+      <c r="H38" t="n">
         <v>336.6499999999997</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,22 +2061,27 @@
         <v>5025.28</v>
       </c>
       <c r="G39" t="n">
+        <v>340.5533333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>336.693333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1912,22 +2105,27 @@
         <v>3695.44</v>
       </c>
       <c r="G40" t="n">
+        <v>340.3466666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>336.738333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1951,22 +2149,27 @@
         <v>779</v>
       </c>
       <c r="G41" t="n">
+        <v>340.3800000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>336.783333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1990,22 +2193,27 @@
         <v>635.9725</v>
       </c>
       <c r="G42" t="n">
+        <v>340.36</v>
+      </c>
+      <c r="H42" t="n">
         <v>336.8149999999997</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,22 +2237,27 @@
         <v>723.965</v>
       </c>
       <c r="G43" t="n">
+        <v>340.3066666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>336.8966666666664</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,22 +2281,27 @@
         <v>626</v>
       </c>
       <c r="G44" t="n">
+        <v>340.5066666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>336.9216666666664</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2107,22 +2325,27 @@
         <v>1.6112</v>
       </c>
       <c r="G45" t="n">
+        <v>340.92</v>
+      </c>
+      <c r="H45" t="n">
         <v>337.0533333333331</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,22 +2369,27 @@
         <v>8800</v>
       </c>
       <c r="G46" t="n">
+        <v>340.8533333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>337.1349999999998</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2185,22 +2413,27 @@
         <v>91.6356</v>
       </c>
       <c r="G47" t="n">
+        <v>340.9733333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>337.2166666666665</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,22 +2457,27 @@
         <v>2.4885</v>
       </c>
       <c r="G48" t="n">
+        <v>340.9733333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>337.3333333333331</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,22 +2501,27 @@
         <v>148.2548</v>
       </c>
       <c r="G49" t="n">
+        <v>339.4933333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>337.3999999999998</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,22 +2545,27 @@
         <v>11200.8674</v>
       </c>
       <c r="G50" t="n">
+        <v>339.5066666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>337.4533333333331</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2341,22 +2589,27 @@
         <v>81.88</v>
       </c>
       <c r="G51" t="n">
+        <v>339.1066666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>337.4533333333331</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2380,22 +2633,27 @@
         <v>5.88</v>
       </c>
       <c r="G52" t="n">
+        <v>339.12</v>
+      </c>
+      <c r="H52" t="n">
         <v>337.5066666666665</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2419,22 +2677,27 @@
         <v>566.8776</v>
       </c>
       <c r="G53" t="n">
+        <v>338.9333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>337.5266666666665</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2458,22 +2721,27 @@
         <v>849.222</v>
       </c>
       <c r="G54" t="n">
+        <v>339.1</v>
+      </c>
+      <c r="H54" t="n">
         <v>337.6483333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2497,22 +2765,27 @@
         <v>6260.868</v>
       </c>
       <c r="G55" t="n">
+        <v>339.2666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>337.7366666666665</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,22 +2809,27 @@
         <v>2820</v>
       </c>
       <c r="G56" t="n">
+        <v>339.4333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>337.8249999999998</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2575,22 +2853,27 @@
         <v>359.021</v>
       </c>
       <c r="G57" t="n">
+        <v>339.72</v>
+      </c>
+      <c r="H57" t="n">
         <v>337.9299999999998</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,22 +2897,27 @@
         <v>324.98</v>
       </c>
       <c r="G58" t="n">
+        <v>339.8066666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>338.0349999999998</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,22 +2941,27 @@
         <v>62</v>
       </c>
       <c r="G59" t="n">
+        <v>339.8933333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>338.1399999999998</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,22 +2985,27 @@
         <v>1092.176</v>
       </c>
       <c r="G60" t="n">
+        <v>339.8933333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>338.2749999999997</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2731,22 +3029,27 @@
         <v>26.4882</v>
       </c>
       <c r="G61" t="n">
+        <v>340.1800000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>338.4616666666664</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,22 +3073,27 @@
         <v>80.73234368999999</v>
       </c>
       <c r="G62" t="n">
+        <v>340.6733333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>338.6066666666665</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,22 +3117,27 @@
         <v>652.48055631</v>
       </c>
       <c r="G63" t="n">
+        <v>341.0333333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>338.8116666666665</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,22 +3161,27 @@
         <v>864</v>
       </c>
       <c r="G64" t="n">
+        <v>341.6333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>339.0433333333332</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2887,22 +3205,27 @@
         <v>1393</v>
       </c>
       <c r="G65" t="n">
+        <v>342.3533333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>339.2916666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,22 +3249,27 @@
         <v>1255.5025</v>
       </c>
       <c r="G66" t="n">
+        <v>343.02</v>
+      </c>
+      <c r="H66" t="n">
         <v>339.5399999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2965,22 +3293,27 @@
         <v>1454.6712</v>
       </c>
       <c r="G67" t="n">
+        <v>343.8066666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>339.8049999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,22 +3337,27 @@
         <v>80</v>
       </c>
       <c r="G68" t="n">
+        <v>344.9933333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>340.1033333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,22 +3381,27 @@
         <v>3499.9254</v>
       </c>
       <c r="G69" t="n">
+        <v>345.7733333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>340.4016666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,22 +3425,27 @@
         <v>16677.6261</v>
       </c>
       <c r="G70" t="n">
+        <v>346.8866666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>340.8</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3121,22 +3469,27 @@
         <v>3</v>
       </c>
       <c r="G71" t="n">
+        <v>348.0666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>341.215</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3160,22 +3513,27 @@
         <v>4328.8979</v>
       </c>
       <c r="G72" t="n">
+        <v>348.98</v>
+      </c>
+      <c r="H72" t="n">
         <v>341.5816666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,22 +3557,27 @@
         <v>2906.0282</v>
       </c>
       <c r="G73" t="n">
+        <v>349.8866666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>341.9333333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3238,22 +3601,27 @@
         <v>7003</v>
       </c>
       <c r="G74" t="n">
+        <v>351.1333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>342.3650000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3277,22 +3645,27 @@
         <v>1223.7353</v>
       </c>
       <c r="G75" t="n">
+        <v>352.2533333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>342.7933333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3316,581 +3689,732 @@
         <v>4530.07597915</v>
       </c>
       <c r="G76" t="n">
+        <v>353.3066666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>343.1683333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>360</v>
+      </c>
+      <c r="C77" t="n">
+        <v>356.1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>361.1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>356.1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4748.6548</v>
+      </c>
+      <c r="G77" t="n">
+        <v>353.8866666666667</v>
+      </c>
+      <c r="H77" t="n">
+        <v>343.575</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>361.2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>364.8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>364.8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>361.2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5165.839</v>
+      </c>
+      <c r="G78" t="n">
+        <v>355.0466666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>344.1050000000001</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>364.7</v>
+      </c>
+      <c r="C79" t="n">
+        <v>360.3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>364.8</v>
+      </c>
+      <c r="E79" t="n">
+        <v>360.3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1486.92857514</v>
+      </c>
+      <c r="G79" t="n">
+        <v>355.8666666666667</v>
+      </c>
+      <c r="H79" t="n">
+        <v>344.4666666666668</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>363</v>
+      </c>
+      <c r="C80" t="n">
+        <v>365</v>
+      </c>
+      <c r="D80" t="n">
+        <v>365</v>
+      </c>
+      <c r="E80" t="n">
+        <v>363</v>
+      </c>
+      <c r="F80" t="n">
+        <v>768.5999</v>
+      </c>
+      <c r="G80" t="n">
+        <v>356.9333333333334</v>
+      </c>
+      <c r="H80" t="n">
+        <v>344.905</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>365</v>
+      </c>
+      <c r="C81" t="n">
+        <v>365</v>
+      </c>
+      <c r="D81" t="n">
+        <v>365</v>
+      </c>
+      <c r="E81" t="n">
+        <v>365</v>
+      </c>
+      <c r="F81" t="n">
+        <v>274.4286</v>
+      </c>
+      <c r="G81" t="n">
+        <v>358.0000000000001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>345.3216666666667</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>365</v>
+      </c>
+      <c r="C82" t="n">
+        <v>363</v>
+      </c>
+      <c r="D82" t="n">
+        <v>365</v>
+      </c>
+      <c r="E82" t="n">
+        <v>363</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>358.8666666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>345.705</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>363.2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>363.2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>189.4438</v>
+      </c>
+      <c r="G83" t="n">
+        <v>359.6133333333334</v>
+      </c>
+      <c r="H83" t="n">
+        <v>346.075</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>363.2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>366.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>366.9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>363.2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3443.6652</v>
+      </c>
+      <c r="G84" t="n">
+        <v>360.6066666666667</v>
+      </c>
+      <c r="H84" t="n">
+        <v>346.5083333333334</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="C85" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="F85" t="n">
+        <v>117.7424</v>
+      </c>
+      <c r="G85" t="n">
+        <v>361.2466666666667</v>
+      </c>
+      <c r="H85" t="n">
+        <v>346.9366666666667</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>364.2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>364.2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>364.2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>364.2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>160.4648</v>
+      </c>
+      <c r="G86" t="n">
+        <v>361.66</v>
+      </c>
+      <c r="H86" t="n">
+        <v>347.385</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>86.5842</v>
+      </c>
+      <c r="G87" t="n">
+        <v>362.2</v>
+      </c>
+      <c r="H87" t="n">
+        <v>347.815</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>361</v>
+      </c>
+      <c r="C88" t="n">
+        <v>361</v>
+      </c>
+      <c r="D88" t="n">
+        <v>361</v>
+      </c>
+      <c r="E88" t="n">
+        <v>361</v>
+      </c>
+      <c r="F88" t="n">
+        <v>228.2091</v>
+      </c>
+      <c r="G88" t="n">
+        <v>362.6066666666667</v>
+      </c>
+      <c r="H88" t="n">
+        <v>348.1516666666667</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>361</v>
+      </c>
+      <c r="C89" t="n">
+        <v>364</v>
+      </c>
+      <c r="D89" t="n">
+        <v>364</v>
+      </c>
+      <c r="E89" t="n">
+        <v>361</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5555.7645</v>
+      </c>
+      <c r="G89" t="n">
+        <v>362.8733333333334</v>
+      </c>
+      <c r="H89" t="n">
+        <v>348.6016666666667</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>361</v>
+      </c>
+      <c r="C90" t="n">
+        <v>361</v>
+      </c>
+      <c r="D90" t="n">
+        <v>361</v>
+      </c>
+      <c r="E90" t="n">
+        <v>361</v>
+      </c>
+      <c r="F90" t="n">
+        <v>100</v>
+      </c>
+      <c r="G90" t="n">
+        <v>362.9533333333334</v>
+      </c>
+      <c r="H90" t="n">
+        <v>349.0050000000001</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>363</v>
+      </c>
+      <c r="C91" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>363</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1637.0608</v>
+      </c>
+      <c r="G91" t="n">
+        <v>363.1800000000001</v>
+      </c>
+      <c r="H91" t="n">
+        <v>349.3800000000001</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>361</v>
+      </c>
+      <c r="C92" t="n">
+        <v>361</v>
+      </c>
+      <c r="D92" t="n">
+        <v>361</v>
+      </c>
+      <c r="E92" t="n">
+        <v>361</v>
+      </c>
+      <c r="F92" t="n">
+        <v>198.0729</v>
+      </c>
+      <c r="G92" t="n">
+        <v>363.5066666666667</v>
+      </c>
+      <c r="H92" t="n">
+        <v>349.76</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>360</v>
-      </c>
-      <c r="C77" t="n">
-        <v>356.1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>361.1</v>
-      </c>
-      <c r="E77" t="n">
-        <v>356.1</v>
-      </c>
-      <c r="F77" t="n">
-        <v>4748.6548</v>
-      </c>
-      <c r="G77" t="n">
-        <v>343.575</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>361.2</v>
-      </c>
-      <c r="C78" t="n">
-        <v>364.8</v>
-      </c>
-      <c r="D78" t="n">
-        <v>364.8</v>
-      </c>
-      <c r="E78" t="n">
-        <v>361.2</v>
-      </c>
-      <c r="F78" t="n">
-        <v>5165.839</v>
-      </c>
-      <c r="G78" t="n">
-        <v>344.1050000000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>364.7</v>
-      </c>
-      <c r="C79" t="n">
-        <v>360.3</v>
-      </c>
-      <c r="D79" t="n">
-        <v>364.8</v>
-      </c>
-      <c r="E79" t="n">
-        <v>360.3</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1486.92857514</v>
-      </c>
-      <c r="G79" t="n">
-        <v>344.4666666666668</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>363</v>
-      </c>
-      <c r="C80" t="n">
-        <v>365</v>
-      </c>
-      <c r="D80" t="n">
-        <v>365</v>
-      </c>
-      <c r="E80" t="n">
-        <v>363</v>
-      </c>
-      <c r="F80" t="n">
-        <v>768.5999</v>
-      </c>
-      <c r="G80" t="n">
-        <v>344.905</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>365</v>
-      </c>
-      <c r="C81" t="n">
-        <v>365</v>
-      </c>
-      <c r="D81" t="n">
-        <v>365</v>
-      </c>
-      <c r="E81" t="n">
-        <v>365</v>
-      </c>
-      <c r="F81" t="n">
-        <v>274.4286</v>
-      </c>
-      <c r="G81" t="n">
-        <v>345.3216666666667</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>365</v>
-      </c>
-      <c r="C82" t="n">
-        <v>363</v>
-      </c>
-      <c r="D82" t="n">
-        <v>365</v>
-      </c>
-      <c r="E82" t="n">
-        <v>363</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G82" t="n">
-        <v>345.705</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>363.1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>363.2</v>
-      </c>
-      <c r="D83" t="n">
-        <v>363.2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>363.1</v>
-      </c>
-      <c r="F83" t="n">
-        <v>189.4438</v>
-      </c>
-      <c r="G83" t="n">
-        <v>346.075</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>363.2</v>
-      </c>
-      <c r="C84" t="n">
-        <v>366.9</v>
-      </c>
-      <c r="D84" t="n">
-        <v>366.9</v>
-      </c>
-      <c r="E84" t="n">
-        <v>363.2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>3443.6652</v>
-      </c>
-      <c r="G84" t="n">
-        <v>346.5083333333334</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>366.6</v>
-      </c>
-      <c r="C85" t="n">
-        <v>366.6</v>
-      </c>
-      <c r="D85" t="n">
-        <v>366.6</v>
-      </c>
-      <c r="E85" t="n">
-        <v>366.6</v>
-      </c>
-      <c r="F85" t="n">
-        <v>117.7424</v>
-      </c>
-      <c r="G85" t="n">
-        <v>346.9366666666667</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>364.2</v>
-      </c>
-      <c r="C86" t="n">
-        <v>364.2</v>
-      </c>
-      <c r="D86" t="n">
-        <v>364.2</v>
-      </c>
-      <c r="E86" t="n">
-        <v>364.2</v>
-      </c>
-      <c r="F86" t="n">
-        <v>160.4648</v>
-      </c>
-      <c r="G86" t="n">
-        <v>347.385</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>363.1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>363.1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>363.1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>363.1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>86.5842</v>
-      </c>
-      <c r="G87" t="n">
-        <v>347.815</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>361</v>
-      </c>
-      <c r="C88" t="n">
-        <v>361</v>
-      </c>
-      <c r="D88" t="n">
-        <v>361</v>
-      </c>
-      <c r="E88" t="n">
-        <v>361</v>
-      </c>
-      <c r="F88" t="n">
-        <v>228.2091</v>
-      </c>
-      <c r="G88" t="n">
-        <v>348.1516666666667</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>361</v>
-      </c>
-      <c r="C89" t="n">
-        <v>364</v>
-      </c>
-      <c r="D89" t="n">
-        <v>364</v>
-      </c>
-      <c r="E89" t="n">
-        <v>361</v>
-      </c>
-      <c r="F89" t="n">
-        <v>5555.7645</v>
-      </c>
-      <c r="G89" t="n">
-        <v>348.6016666666667</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>361</v>
-      </c>
-      <c r="C90" t="n">
-        <v>361</v>
-      </c>
-      <c r="D90" t="n">
-        <v>361</v>
-      </c>
-      <c r="E90" t="n">
-        <v>361</v>
-      </c>
-      <c r="F90" t="n">
-        <v>100</v>
-      </c>
-      <c r="G90" t="n">
-        <v>349.0050000000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>363</v>
-      </c>
-      <c r="C91" t="n">
-        <v>363.5</v>
-      </c>
-      <c r="D91" t="n">
-        <v>363.5</v>
-      </c>
-      <c r="E91" t="n">
-        <v>363</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1637.0608</v>
-      </c>
-      <c r="G91" t="n">
-        <v>349.3800000000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>361</v>
-      </c>
-      <c r="C92" t="n">
-        <v>361</v>
-      </c>
-      <c r="D92" t="n">
-        <v>361</v>
-      </c>
-      <c r="E92" t="n">
-        <v>361</v>
-      </c>
-      <c r="F92" t="n">
-        <v>198.0729</v>
-      </c>
-      <c r="G92" t="n">
-        <v>349.76</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
+      <c r="N92" t="n">
+        <v>1.078758631041729</v>
       </c>
     </row>
     <row r="93">
@@ -3913,18 +4437,21 @@
         <v>4398.1391</v>
       </c>
       <c r="G93" t="n">
+        <v>363.1533333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>350.0516666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4475,21 @@
         <v>186.4888</v>
       </c>
       <c r="G94" t="n">
+        <v>363.2666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>350.065</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4513,21 @@
         <v>69.84</v>
       </c>
       <c r="G95" t="n">
+        <v>363.0666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>350.465</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4551,21 @@
         <v>6643.5483</v>
       </c>
       <c r="G96" t="n">
+        <v>362.6066666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>350.6833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4589,21 @@
         <v>583.6441</v>
       </c>
       <c r="G97" t="n">
+        <v>362.34</v>
+      </c>
+      <c r="H97" t="n">
         <v>351.0333333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4627,21 @@
         <v>280.99</v>
       </c>
       <c r="G98" t="n">
+        <v>362.0000000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>351.385</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4665,21 @@
         <v>50</v>
       </c>
       <c r="G99" t="n">
+        <v>361.1466666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>351.6566666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4703,21 @@
         <v>1804.4466</v>
       </c>
       <c r="G100" t="n">
+        <v>360.3466666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>351.9366666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4741,21 @@
         <v>3099.9731</v>
       </c>
       <c r="G101" t="n">
+        <v>360.0000000000001</v>
+      </c>
+      <c r="H101" t="n">
         <v>352.29</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4779,21 @@
         <v>1637.0608</v>
       </c>
       <c r="G102" t="n">
+        <v>359.2800000000001</v>
+      </c>
+      <c r="H102" t="n">
         <v>352.545</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4817,21 @@
         <v>7633.2764</v>
       </c>
       <c r="G103" t="n">
+        <v>359.0266666666668</v>
+      </c>
+      <c r="H103" t="n">
         <v>352.8316666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4855,21 @@
         <v>239</v>
       </c>
       <c r="G104" t="n">
+        <v>358.6933333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>353.1483333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4893,21 @@
         <v>1811</v>
       </c>
       <c r="G105" t="n">
+        <v>358.4400000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>353.385</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4931,21 @@
         <v>387</v>
       </c>
       <c r="G106" t="n">
+        <v>358.2466666666668</v>
+      </c>
+      <c r="H106" t="n">
         <v>353.7283333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4969,21 @@
         <v>122.3673</v>
       </c>
       <c r="G107" t="n">
+        <v>358.0600000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>354.0316666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5007,21 @@
         <v>2015.7361</v>
       </c>
       <c r="G108" t="n">
+        <v>357.9000000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>354.2833333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5045,21 @@
         <v>6363.592</v>
       </c>
       <c r="G109" t="n">
+        <v>357.5666666666668</v>
+      </c>
+      <c r="H109" t="n">
         <v>354.5833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5083,21 @@
         <v>3233.1903</v>
       </c>
       <c r="G110" t="n">
+        <v>357.2333333333335</v>
+      </c>
+      <c r="H110" t="n">
         <v>354.8966666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5121,21 @@
         <v>85.64530000000001</v>
       </c>
       <c r="G111" t="n">
+        <v>357.1600000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>355.1966666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5159,21 @@
         <v>3059.9339</v>
       </c>
       <c r="G112" t="n">
+        <v>357.0266666666668</v>
+      </c>
+      <c r="H112" t="n">
         <v>355.5099999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5197,21 @@
         <v>1672</v>
       </c>
       <c r="G113" t="n">
+        <v>356.6266666666668</v>
+      </c>
+      <c r="H113" t="n">
         <v>355.8083333333332</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5235,21 @@
         <v>12.78</v>
       </c>
       <c r="G114" t="n">
+        <v>356.5533333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>356.0199999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5273,21 @@
         <v>20095.37</v>
       </c>
       <c r="G115" t="n">
+        <v>356.7066666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>356.2966666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5311,21 @@
         <v>11</v>
       </c>
       <c r="G116" t="n">
+        <v>356.5666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>356.5733333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5349,21 @@
         <v>1.4</v>
       </c>
       <c r="G117" t="n">
+        <v>357.04</v>
+      </c>
+      <c r="H117" t="n">
         <v>356.875</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5387,21 @@
         <v>3134.2028</v>
       </c>
       <c r="G118" t="n">
+        <v>357.0199999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>357.135</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5425,21 @@
         <v>21.98</v>
       </c>
       <c r="G119" t="n">
+        <v>356.8799999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>357.3950000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5463,21 @@
         <v>3062.2236</v>
       </c>
       <c r="G120" t="n">
+        <v>356.8666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>357.6283333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5501,21 @@
         <v>3443.7889</v>
       </c>
       <c r="G121" t="n">
+        <v>356.6266666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>357.8400000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5539,21 @@
         <v>8095.3403</v>
       </c>
       <c r="G122" t="n">
+        <v>356.5466666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>358.0000000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5577,21 @@
         <v>1.4</v>
       </c>
       <c r="G123" t="n">
+        <v>356.6733333333332</v>
+      </c>
+      <c r="H123" t="n">
         <v>358.1933333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5615,21 @@
         <v>2244.2268</v>
       </c>
       <c r="G124" t="n">
+        <v>356.8066666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>358.3766666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5653,21 @@
         <v>120.8037</v>
       </c>
       <c r="G125" t="n">
+        <v>356.9399999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>358.5433333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5691,21 @@
         <v>579.3627</v>
       </c>
       <c r="G126" t="n">
+        <v>357.0066666666665</v>
+      </c>
+      <c r="H126" t="n">
         <v>358.6933333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5729,21 @@
         <v>296.2796</v>
       </c>
       <c r="G127" t="n">
+        <v>357.0733333333332</v>
+      </c>
+      <c r="H127" t="n">
         <v>358.8266666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5767,21 @@
         <v>987.5715</v>
       </c>
       <c r="G128" t="n">
+        <v>357.6266666666665</v>
+      </c>
+      <c r="H128" t="n">
         <v>358.9666666666668</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5805,21 @@
         <v>312.4627</v>
       </c>
       <c r="G129" t="n">
+        <v>358.2266666666665</v>
+      </c>
+      <c r="H129" t="n">
         <v>359.1333333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5843,21 @@
         <v>512</v>
       </c>
       <c r="G130" t="n">
+        <v>358.5666666666665</v>
+      </c>
+      <c r="H130" t="n">
         <v>359.2166666666668</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5881,21 @@
         <v>61.99</v>
       </c>
       <c r="G131" t="n">
+        <v>358.7066666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>359.2333333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5919,21 @@
         <v>241.7926</v>
       </c>
       <c r="G132" t="n">
+        <v>358.6799999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>359.3000000000001</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5957,21 @@
         <v>159.9027</v>
       </c>
       <c r="G133" t="n">
+        <v>358.8866666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>359.385</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5995,21 @@
         <v>30.6461</v>
       </c>
       <c r="G134" t="n">
+        <v>359.0199999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>359.3666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6033,21 @@
         <v>1050</v>
       </c>
       <c r="G135" t="n">
+        <v>359.0799999999999</v>
+      </c>
+      <c r="H135" t="n">
         <v>359.3350000000001</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6071,21 @@
         <v>10514.5473</v>
       </c>
       <c r="G136" t="n">
+        <v>358.72</v>
+      </c>
+      <c r="H136" t="n">
         <v>359.1933333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6109,21 @@
         <v>638</v>
       </c>
       <c r="G137" t="n">
+        <v>358.7799999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>359.2233333333335</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6147,21 @@
         <v>107</v>
       </c>
       <c r="G138" t="n">
+        <v>358.6266666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>359.0883333333335</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6185,21 @@
         <v>852.1999</v>
       </c>
       <c r="G139" t="n">
+        <v>358.5266666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>359.0416666666669</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6223,21 @@
         <v>51.6762</v>
       </c>
       <c r="G140" t="n">
+        <v>358.3266666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>358.8916666666668</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6261,21 @@
         <v>355.8167</v>
       </c>
       <c r="G141" t="n">
+        <v>357.9066666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>358.6700000000002</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6299,21 @@
         <v>2589</v>
       </c>
       <c r="G142" t="n">
+        <v>357.6333333333332</v>
+      </c>
+      <c r="H142" t="n">
         <v>358.5183333333335</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6337,21 @@
         <v>336</v>
       </c>
       <c r="G143" t="n">
+        <v>356.7466666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>358.2500000000002</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6375,21 @@
         <v>505.4212</v>
       </c>
       <c r="G144" t="n">
+        <v>356.0799999999999</v>
+      </c>
+      <c r="H144" t="n">
         <v>358.0016666666668</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6413,21 @@
         <v>5044.9185</v>
       </c>
       <c r="G145" t="n">
+        <v>355.3933333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>357.7533333333335</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6451,21 @@
         <v>795</v>
       </c>
       <c r="G146" t="n">
+        <v>354.9199999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>357.5483333333335</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6489,21 @@
         <v>608.9997</v>
       </c>
       <c r="G147" t="n">
+        <v>354.4466666666665</v>
+      </c>
+      <c r="H147" t="n">
         <v>357.3616666666669</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6527,21 @@
         <v>109.4749</v>
       </c>
       <c r="G148" t="n">
+        <v>353.9066666666665</v>
+      </c>
+      <c r="H148" t="n">
         <v>357.2100000000003</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6565,21 @@
         <v>490.5232</v>
       </c>
       <c r="G149" t="n">
+        <v>353.4399999999998</v>
+      </c>
+      <c r="H149" t="n">
         <v>357.0083333333336</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6603,21 @@
         <v>712</v>
       </c>
       <c r="G150" t="n">
+        <v>353.0399999999998</v>
+      </c>
+      <c r="H150" t="n">
         <v>356.856666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6641,21 @@
         <v>405.9998</v>
       </c>
       <c r="G151" t="n">
+        <v>353.0599999999998</v>
+      </c>
+      <c r="H151" t="n">
         <v>356.6633333333337</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6679,21 @@
         <v>156.0468</v>
       </c>
       <c r="G152" t="n">
+        <v>352.7266666666665</v>
+      </c>
+      <c r="H152" t="n">
         <v>356.5283333333337</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6717,21 @@
         <v>2659.0426</v>
       </c>
       <c r="G153" t="n">
+        <v>352.3866666666665</v>
+      </c>
+      <c r="H153" t="n">
         <v>356.396666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6755,21 @@
         <v>835</v>
       </c>
       <c r="G154" t="n">
+        <v>351.9933333333332</v>
+      </c>
+      <c r="H154" t="n">
         <v>356.2233333333336</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6793,21 @@
         <v>884.9</v>
       </c>
       <c r="G155" t="n">
+        <v>351.8999999999999</v>
+      </c>
+      <c r="H155" t="n">
         <v>356.1000000000003</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6831,21 @@
         <v>868</v>
       </c>
       <c r="G156" t="n">
+        <v>352.0333333333332</v>
+      </c>
+      <c r="H156" t="n">
         <v>356.026666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6869,21 @@
         <v>122.2766</v>
       </c>
       <c r="G157" t="n">
+        <v>352.0333333333332</v>
+      </c>
+      <c r="H157" t="n">
         <v>355.941666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6907,21 @@
         <v>497.6</v>
       </c>
       <c r="G158" t="n">
+        <v>352.4866666666665</v>
+      </c>
+      <c r="H158" t="n">
         <v>355.8716666666671</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6945,21 @@
         <v>203</v>
       </c>
       <c r="G159" t="n">
+        <v>352.6799999999998</v>
+      </c>
+      <c r="H159" t="n">
         <v>355.8850000000004</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6983,21 @@
         <v>6000</v>
       </c>
       <c r="G160" t="n">
+        <v>353.2266666666665</v>
+      </c>
+      <c r="H160" t="n">
         <v>355.9733333333339</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7021,21 @@
         <v>3139.5671</v>
       </c>
       <c r="G161" t="n">
+        <v>353.6733333333332</v>
+      </c>
+      <c r="H161" t="n">
         <v>355.9666666666672</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7059,21 @@
         <v>5110.3433</v>
       </c>
       <c r="G162" t="n">
+        <v>353.8866666666665</v>
+      </c>
+      <c r="H162" t="n">
         <v>356.0133333333338</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7097,21 @@
         <v>3.3277</v>
       </c>
       <c r="G163" t="n">
+        <v>354.4199999999999</v>
+      </c>
+      <c r="H163" t="n">
         <v>356.0583333333338</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7135,21 @@
         <v>3.99</v>
       </c>
       <c r="G164" t="n">
+        <v>354.7599999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>356.0250000000005</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7173,21 @@
         <v>300</v>
       </c>
       <c r="G165" t="n">
+        <v>355.3</v>
+      </c>
+      <c r="H165" t="n">
         <v>356.0716666666671</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7211,21 @@
         <v>843</v>
       </c>
       <c r="G166" t="n">
+        <v>356.1</v>
+      </c>
+      <c r="H166" t="n">
         <v>356.1266666666672</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7249,21 @@
         <v>620</v>
       </c>
       <c r="G167" t="n">
+        <v>357.0333333333332</v>
+      </c>
+      <c r="H167" t="n">
         <v>356.2716666666672</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7287,21 @@
         <v>50.4549</v>
       </c>
       <c r="G168" t="n">
+        <v>357.9799999999999</v>
+      </c>
+      <c r="H168" t="n">
         <v>356.4166666666672</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7325,21 @@
         <v>626.9314104600001</v>
       </c>
       <c r="G169" t="n">
+        <v>359.0066666666665</v>
+      </c>
+      <c r="H169" t="n">
         <v>356.5833333333339</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7363,21 @@
         <v>24562.4898</v>
       </c>
       <c r="G170" t="n">
+        <v>359.3066666666666</v>
+      </c>
+      <c r="H170" t="n">
         <v>356.6183333333339</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7401,21 @@
         <v>626.9314000000001</v>
       </c>
       <c r="G171" t="n">
+        <v>359.8666666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>356.7033333333338</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7439,21 @@
         <v>1860</v>
       </c>
       <c r="G172" t="n">
+        <v>360.1466666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>356.7216666666671</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7477,21 @@
         <v>59.629</v>
       </c>
       <c r="G173" t="n">
+        <v>360.42</v>
+      </c>
+      <c r="H173" t="n">
         <v>356.8200000000005</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7515,21 @@
         <v>1342.8334</v>
       </c>
       <c r="G174" t="n">
+        <v>360.5000000000001</v>
+      </c>
+      <c r="H174" t="n">
         <v>356.8716666666671</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7553,21 @@
         <v>1.4</v>
       </c>
       <c r="G175" t="n">
+        <v>360.4400000000001</v>
+      </c>
+      <c r="H175" t="n">
         <v>356.9066666666671</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7591,21 @@
         <v>198.6</v>
       </c>
       <c r="G176" t="n">
+        <v>360.4666666666668</v>
+      </c>
+      <c r="H176" t="n">
         <v>356.9416666666671</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7629,21 @@
         <v>226</v>
       </c>
       <c r="G177" t="n">
+        <v>360.86</v>
+      </c>
+      <c r="H177" t="n">
         <v>356.9683333333338</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7667,21 @@
         <v>1159.1566</v>
       </c>
       <c r="G178" t="n">
+        <v>361.1000000000001</v>
+      </c>
+      <c r="H178" t="n">
         <v>357.0783333333337</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7705,21 @@
         <v>53</v>
       </c>
       <c r="G179" t="n">
+        <v>361.5400000000001</v>
+      </c>
+      <c r="H179" t="n">
         <v>357.1900000000003</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7743,21 @@
         <v>1565.8719</v>
       </c>
       <c r="G180" t="n">
+        <v>361.6866666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>357.276666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7781,21 @@
         <v>200.8845</v>
       </c>
       <c r="G181" t="n">
+        <v>361.6666666666668</v>
+      </c>
+      <c r="H181" t="n">
         <v>357.386666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7819,21 @@
         <v>3708.514</v>
       </c>
       <c r="G182" t="n">
+        <v>361.5400000000001</v>
+      </c>
+      <c r="H182" t="n">
         <v>357.5200000000003</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7857,21 @@
         <v>620</v>
       </c>
       <c r="G183" t="n">
+        <v>361.4866666666668</v>
+      </c>
+      <c r="H183" t="n">
         <v>357.6200000000003</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7895,21 @@
         <v>134.0402</v>
       </c>
       <c r="G184" t="n">
+        <v>361.3533333333335</v>
+      </c>
+      <c r="H184" t="n">
         <v>357.7200000000003</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7933,21 @@
         <v>491</v>
       </c>
       <c r="G185" t="n">
+        <v>361.7466666666668</v>
+      </c>
+      <c r="H185" t="n">
         <v>357.8200000000003</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7971,21 @@
         <v>1438</v>
       </c>
       <c r="G186" t="n">
+        <v>361.9933333333335</v>
+      </c>
+      <c r="H186" t="n">
         <v>357.9500000000003</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8009,21 @@
         <v>78</v>
       </c>
       <c r="G187" t="n">
+        <v>362.5066666666668</v>
+      </c>
+      <c r="H187" t="n">
         <v>358.0800000000003</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8047,21 @@
         <v>619.1283</v>
       </c>
       <c r="G188" t="n">
+        <v>363.0400000000001</v>
+      </c>
+      <c r="H188" t="n">
         <v>358.1733333333336</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8085,21 @@
         <v>1300</v>
       </c>
       <c r="G189" t="n">
+        <v>363.6533333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>358.2283333333336</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8123,21 @@
         <v>310</v>
       </c>
       <c r="G190" t="n">
+        <v>364.2533333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>358.3283333333336</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8161,21 @@
         <v>620</v>
       </c>
       <c r="G191" t="n">
+        <v>364.8666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>358.4816666666669</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8199,21 @@
         <v>274.2585</v>
       </c>
       <c r="G192" t="n">
+        <v>365.4</v>
+      </c>
+      <c r="H192" t="n">
         <v>358.6483333333336</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8237,21 @@
         <v>1729.1953</v>
       </c>
       <c r="G193" t="n">
+        <v>365.8266666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>358.8133333333336</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8275,21 @@
         <v>2388.1263</v>
       </c>
       <c r="G194" t="n">
+        <v>366.2466666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>358.996666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8313,21 @@
         <v>372.5999</v>
       </c>
       <c r="G195" t="n">
+        <v>366.6933333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>359.1800000000003</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8351,21 @@
         <v>145.8917</v>
       </c>
       <c r="G196" t="n">
+        <v>367.0466666666666</v>
+      </c>
+      <c r="H196" t="n">
         <v>359.4683333333336</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8389,21 @@
         <v>3909.2751</v>
       </c>
       <c r="G197" t="n">
+        <v>367.3133333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>359.6533333333336</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8427,21 @@
         <v>3436</v>
       </c>
       <c r="G198" t="n">
+        <v>367.6399999999999</v>
+      </c>
+      <c r="H198" t="n">
         <v>359.8733333333337</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8465,21 @@
         <v>6033.3432</v>
       </c>
       <c r="G199" t="n">
+        <v>367.7799999999999</v>
+      </c>
+      <c r="H199" t="n">
         <v>360.0333333333336</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8503,21 @@
         <v>635</v>
       </c>
       <c r="G200" t="n">
+        <v>367.9133333333332</v>
+      </c>
+      <c r="H200" t="n">
         <v>360.216666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8541,21 @@
         <v>135</v>
       </c>
       <c r="G201" t="n">
+        <v>367.9933333333332</v>
+      </c>
+      <c r="H201" t="n">
         <v>360.471666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8579,21 @@
         <v>4814.6425</v>
       </c>
       <c r="G202" t="n">
+        <v>368.0733333333332</v>
+      </c>
+      <c r="H202" t="n">
         <v>360.6900000000003</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8617,21 @@
         <v>119.0357</v>
       </c>
       <c r="G203" t="n">
+        <v>368.2066666666666</v>
+      </c>
+      <c r="H203" t="n">
         <v>361.0383333333336</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8655,21 @@
         <v>517.1550999999999</v>
       </c>
       <c r="G204" t="n">
+        <v>368.3866666666665</v>
+      </c>
+      <c r="H204" t="n">
         <v>361.3050000000003</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8693,21 @@
         <v>8169.2939</v>
       </c>
       <c r="G205" t="n">
+        <v>368.3199999999999</v>
+      </c>
+      <c r="H205" t="n">
         <v>361.5600000000003</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8731,21 @@
         <v>0.0001</v>
       </c>
       <c r="G206" t="n">
+        <v>368.2399999999999</v>
+      </c>
+      <c r="H206" t="n">
         <v>361.8116666666669</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8769,21 @@
         <v>30</v>
       </c>
       <c r="G207" t="n">
+        <v>368.0399999999999</v>
+      </c>
+      <c r="H207" t="n">
         <v>362.0466666666669</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8807,21 @@
         <v>1338.382</v>
       </c>
       <c r="G208" t="n">
+        <v>367.7799999999999</v>
+      </c>
+      <c r="H208" t="n">
         <v>362.2816666666669</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8845,21 @@
         <v>9</v>
       </c>
       <c r="G209" t="n">
+        <v>367.5199999999999</v>
+      </c>
+      <c r="H209" t="n">
         <v>362.5166666666668</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8883,21 @@
         <v>75.8189</v>
       </c>
       <c r="G210" t="n">
+        <v>367.3933333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>362.7683333333335</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8921,21 @@
         <v>3449.1234</v>
       </c>
       <c r="G211" t="n">
+        <v>367.3266666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>363.0350000000001</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +8959,21 @@
         <v>690.3323</v>
       </c>
       <c r="G212" t="n">
+        <v>367.0066666666666</v>
+      </c>
+      <c r="H212" t="n">
         <v>363.2233333333335</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +8997,21 @@
         <v>4425.6742</v>
       </c>
       <c r="G213" t="n">
+        <v>366.62</v>
+      </c>
+      <c r="H213" t="n">
         <v>363.4316666666668</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +9035,21 @@
         <v>546.4512</v>
       </c>
       <c r="G214" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="H214" t="n">
         <v>363.6350000000002</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +9073,21 @@
         <v>619.6858</v>
       </c>
       <c r="G215" t="n">
+        <v>366.1866666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>363.7883333333335</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +9111,21 @@
         <v>0.0001</v>
       </c>
       <c r="G216" t="n">
+        <v>365.9733333333334</v>
+      </c>
+      <c r="H216" t="n">
         <v>363.9566666666668</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +9149,21 @@
         <v>77.1665</v>
       </c>
       <c r="G217" t="n">
+        <v>365.64</v>
+      </c>
+      <c r="H217" t="n">
         <v>364.0916666666668</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +9187,21 @@
         <v>1498.3436</v>
       </c>
       <c r="G218" t="n">
+        <v>365.24</v>
+      </c>
+      <c r="H218" t="n">
         <v>364.2266666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9225,21 @@
         <v>578.3572</v>
       </c>
       <c r="G219" t="n">
+        <v>364.84</v>
+      </c>
+      <c r="H219" t="n">
         <v>364.3450000000001</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9263,21 @@
         <v>4207.7786</v>
       </c>
       <c r="G220" t="n">
+        <v>364.6466666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>364.415</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9301,21 @@
         <v>32494.2595</v>
       </c>
       <c r="G221" t="n">
+        <v>364.4533333333334</v>
+      </c>
+      <c r="H221" t="n">
         <v>364.5066666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9339,21 @@
         <v>1802</v>
       </c>
       <c r="G222" t="n">
+        <v>364.3266666666668</v>
+      </c>
+      <c r="H222" t="n">
         <v>364.6566666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9377,21 @@
         <v>4181.9668</v>
       </c>
       <c r="G223" t="n">
+        <v>364.1266666666668</v>
+      </c>
+      <c r="H223" t="n">
         <v>364.7083333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9415,21 @@
         <v>171.5031</v>
       </c>
       <c r="G224" t="n">
+        <v>363.9266666666668</v>
+      </c>
+      <c r="H224" t="n">
         <v>364.8083333333333</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9453,21 @@
         <v>362</v>
       </c>
       <c r="G225" t="n">
+        <v>363.6666666666668</v>
+      </c>
+      <c r="H225" t="n">
         <v>364.86</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9491,21 @@
         <v>802.4992999999999</v>
       </c>
       <c r="G226" t="n">
+        <v>363.3466666666669</v>
+      </c>
+      <c r="H226" t="n">
         <v>364.8466666666666</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9529,21 @@
         <v>5910</v>
       </c>
       <c r="G227" t="n">
+        <v>363.4666666666669</v>
+      </c>
+      <c r="H227" t="n">
         <v>364.8316666666666</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9567,401 @@
         <v>1704</v>
       </c>
       <c r="G228" t="n">
+        <v>363.5800000000002</v>
+      </c>
+      <c r="H228" t="n">
         <v>364.8316666666666</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>366</v>
+      </c>
+      <c r="C229" t="n">
+        <v>366</v>
+      </c>
+      <c r="D229" t="n">
+        <v>366</v>
+      </c>
+      <c r="E229" t="n">
+        <v>366</v>
+      </c>
+      <c r="F229" t="n">
+        <v>130</v>
+      </c>
+      <c r="G229" t="n">
+        <v>363.7266666666668</v>
+      </c>
+      <c r="H229" t="n">
+        <v>364.8149999999999</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="C230" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="D230" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="E230" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="F230" t="n">
+        <v>4</v>
+      </c>
+      <c r="G230" t="n">
+        <v>363.9266666666668</v>
+      </c>
+      <c r="H230" t="n">
+        <v>364.9433333333333</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>366</v>
+      </c>
+      <c r="C231" t="n">
+        <v>366</v>
+      </c>
+      <c r="D231" t="n">
+        <v>366</v>
+      </c>
+      <c r="E231" t="n">
+        <v>366</v>
+      </c>
+      <c r="F231" t="n">
+        <v>59</v>
+      </c>
+      <c r="G231" t="n">
+        <v>364.0733333333335</v>
+      </c>
+      <c r="H231" t="n">
+        <v>365.0083333333333</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>366.7</v>
+      </c>
+      <c r="C232" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="D232" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="E232" t="n">
+        <v>366</v>
+      </c>
+      <c r="F232" t="n">
+        <v>3388.1147</v>
+      </c>
+      <c r="G232" t="n">
+        <v>364.3933333333335</v>
+      </c>
+      <c r="H232" t="n">
+        <v>365.1533333333333</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="C233" t="n">
+        <v>366</v>
+      </c>
+      <c r="D233" t="n">
+        <v>367.9</v>
+      </c>
+      <c r="E233" t="n">
+        <v>366</v>
+      </c>
+      <c r="F233" t="n">
+        <v>12380.9241</v>
+      </c>
+      <c r="G233" t="n">
+        <v>364.6600000000001</v>
+      </c>
+      <c r="H233" t="n">
+        <v>365.2866666666666</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>366</v>
+      </c>
+      <c r="C234" t="n">
+        <v>366</v>
+      </c>
+      <c r="D234" t="n">
+        <v>366</v>
+      </c>
+      <c r="E234" t="n">
+        <v>366</v>
+      </c>
+      <c r="F234" t="n">
+        <v>582.7832</v>
+      </c>
+      <c r="G234" t="n">
+        <v>364.9266666666668</v>
+      </c>
+      <c r="H234" t="n">
+        <v>365.4516666666667</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>364</v>
+      </c>
+      <c r="C235" t="n">
+        <v>364</v>
+      </c>
+      <c r="D235" t="n">
+        <v>364</v>
+      </c>
+      <c r="E235" t="n">
+        <v>364</v>
+      </c>
+      <c r="F235" t="n">
+        <v>29</v>
+      </c>
+      <c r="G235" t="n">
+        <v>364.9200000000001</v>
+      </c>
+      <c r="H235" t="n">
+        <v>365.535</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>364</v>
+      </c>
+      <c r="C236" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>364</v>
+      </c>
+      <c r="E236" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="F236" t="n">
+        <v>4866.2123</v>
+      </c>
+      <c r="G236" t="n">
+        <v>364.5933333333334</v>
+      </c>
+      <c r="H236" t="n">
+        <v>365.5383333333333</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>362.3</v>
+      </c>
+      <c r="C237" t="n">
+        <v>364.8</v>
+      </c>
+      <c r="D237" t="n">
+        <v>364.8</v>
+      </c>
+      <c r="E237" t="n">
+        <v>361.2</v>
+      </c>
+      <c r="F237" t="n">
+        <v>3647.1782</v>
+      </c>
+      <c r="G237" t="n">
+        <v>364.6400000000001</v>
+      </c>
+      <c r="H237" t="n">
+        <v>365.6016666666666</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>362.3</v>
+      </c>
+      <c r="C238" t="n">
+        <v>364</v>
+      </c>
+      <c r="D238" t="n">
+        <v>364</v>
+      </c>
+      <c r="E238" t="n">
+        <v>362</v>
+      </c>
+      <c r="F238" t="n">
+        <v>3597.3627</v>
+      </c>
+      <c r="G238" t="n">
+        <v>364.7066666666668</v>
+      </c>
+      <c r="H238" t="n">
+        <v>365.61</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-16 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N296"/>
+  <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,19 @@
         <v>-22162.54879999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="J57" t="n">
+        <v>335</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2305,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>335</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2342,23 @@
         <v>-23960.21699999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>334.9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>335</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2385,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>335</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2424,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>335</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2463,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>335</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2502,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>335</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2541,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>335</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2580,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>335</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2619,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>335</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2658,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>335</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,22 +2695,23 @@
         <v>-23995.41829999999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>334.1</v>
       </c>
       <c r="J68" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2872,26 +2736,23 @@
         <v>-23995.41829999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>333.1</v>
       </c>
       <c r="J69" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="K69" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2916,26 +2777,23 @@
         <v>-24389.46629999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>333.1</v>
       </c>
       <c r="J70" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="K70" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2960,26 +2818,23 @@
         <v>-23036.23499999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="J71" t="n">
-        <v>333</v>
-      </c>
-      <c r="K71" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3004,26 +2859,23 @@
         <v>-22807.02789999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>333.8</v>
       </c>
       <c r="J72" t="n">
-        <v>333.8</v>
-      </c>
-      <c r="K72" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3048,26 +2900,23 @@
         <v>-22807.02789999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>334.1</v>
       </c>
       <c r="J73" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="K73" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3092,26 +2941,23 @@
         <v>-22782.53843806999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>334.1</v>
       </c>
       <c r="J74" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="K74" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3136,26 +2982,23 @@
         <v>-23091.07843807</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>337.6</v>
       </c>
       <c r="J75" t="n">
-        <v>337.6</v>
-      </c>
-      <c r="K75" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3180,26 +3023,23 @@
         <v>-23066.58903807</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>331.7</v>
       </c>
       <c r="J76" t="n">
-        <v>331.7</v>
-      </c>
-      <c r="K76" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3224,26 +3064,23 @@
         <v>-21152.55893807</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="J77" t="n">
-        <v>333</v>
-      </c>
-      <c r="K77" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3268,26 +3105,21 @@
         <v>-21011.36683807</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>338.6</v>
-      </c>
-      <c r="K78" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3312,26 +3144,21 @@
         <v>-19372.90723807</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>338.7</v>
-      </c>
-      <c r="K79" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3356,26 +3183,21 @@
         <v>-19372.90723807</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>340</v>
-      </c>
-      <c r="K80" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3400,26 +3222,21 @@
         <v>-18727.47463807</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>340</v>
-      </c>
-      <c r="K81" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3446,22 +3263,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>335</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3488,22 +3302,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>335</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3530,22 +3341,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>335</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3572,22 +3380,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>335</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3612,26 +3417,21 @@
         <v>-22819.26373807</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>337.3</v>
-      </c>
-      <c r="K86" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3656,26 +3456,21 @@
         <v>-25334.42893807</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>340.8</v>
-      </c>
-      <c r="K87" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3702,22 +3497,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>335</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3742,26 +3534,21 @@
         <v>-25334.32893807</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="K89" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>335</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3788,22 +3575,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>335</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3830,22 +3614,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>335</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3872,22 +3653,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>335</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3914,22 +3692,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>335</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3956,22 +3731,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>335</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3998,22 +3770,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>335</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4040,22 +3809,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>335</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4082,22 +3848,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>335</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4124,22 +3887,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>335</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4166,22 +3926,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>335</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4208,22 +3965,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>335</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4250,22 +4004,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>335</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4290,24 +4041,23 @@
         <v>-2217.417513209996</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>340</v>
+      </c>
+      <c r="J102" t="n">
+        <v>335</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4334,22 +4084,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>335</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4376,22 +4123,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>335</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4418,22 +4162,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>335</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4460,22 +4201,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>335</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4502,22 +4240,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>335</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4544,22 +4279,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>335</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4586,22 +4318,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>335</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4628,22 +4357,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>335</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4670,22 +4396,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>335</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4712,22 +4435,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>335</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4754,22 +4474,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>335</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4796,22 +4513,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>335</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4838,22 +4552,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>335</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4880,22 +4591,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>335</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4922,22 +4630,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>335</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4964,22 +4669,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>335</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5006,22 +4708,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>335</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5048,22 +4747,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>335</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5090,22 +4786,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>335</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5132,22 +4825,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>335</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5174,22 +4864,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>335</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5216,22 +4903,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>335</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5258,22 +4942,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>335</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5300,22 +4981,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>335</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5342,22 +5020,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>335</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5384,22 +5059,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>335</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5426,22 +5098,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>335</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5468,22 +5137,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>335</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5510,22 +5176,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>335</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5552,22 +5215,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>335</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5594,22 +5254,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>335</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5636,22 +5293,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>335</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5678,22 +5332,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>335</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5720,22 +5371,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>335</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5762,22 +5410,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>335</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5804,22 +5449,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>335</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5846,22 +5488,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>335</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5888,22 +5527,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>335</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5930,22 +5566,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>335</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5972,22 +5605,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>335</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6014,22 +5644,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>335</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6056,22 +5683,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>335</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6098,22 +5722,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>335</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6140,22 +5761,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>335</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6182,22 +5800,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>335</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6224,24 +5839,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1.075514815923376</v>
-      </c>
-      <c r="N148" t="n">
-        <v>1.042642642642643</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>335</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6266,18 +5876,21 @@
         <v>12930.32313449001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>335</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6302,18 +5915,21 @@
         <v>12732.25023449001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>335</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6340,16 +5956,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>335</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6374,18 +5993,21 @@
         <v>8520.599934490005</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>335</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6410,18 +6032,21 @@
         <v>8520.599934490005</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>335</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6446,18 +6071,21 @@
         <v>1877.051634490004</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>335</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6484,16 +6112,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>335</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6518,18 +6149,21 @@
         <v>2179.705734490004</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>335</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6556,16 +6190,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>335</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6590,18 +6227,21 @@
         <v>3934.152334490004</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>335</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6628,16 +6268,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>335</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6664,16 +6307,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>335</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6698,18 +6344,21 @@
         <v>13030.34103449</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>335</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6734,18 +6383,21 @@
         <v>13269.34103449</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>335</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6772,16 +6424,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>335</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6806,18 +6461,21 @@
         <v>11845.34103449</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>335</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6844,16 +6502,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>335</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6880,16 +6541,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>335</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6916,16 +6580,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>335</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6952,16 +6619,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>335</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6988,16 +6658,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>335</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7024,16 +6697,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>335</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7060,16 +6736,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>335</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7096,16 +6775,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>335</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7132,16 +6814,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>335</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7168,16 +6853,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>335</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7204,16 +6892,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>335</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7240,16 +6931,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>335</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7276,16 +6970,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>335</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7312,16 +7009,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>335</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7348,16 +7048,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>335</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7384,16 +7087,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>335</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7420,16 +7126,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>335</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7456,16 +7165,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>335</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7492,16 +7204,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>335</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7528,16 +7243,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>335</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7564,16 +7282,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>335</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7600,16 +7321,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>335</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7636,16 +7360,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>335</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7672,16 +7399,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>335</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7708,16 +7438,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>335</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7744,16 +7477,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>335</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7780,16 +7516,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>335</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7816,16 +7555,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>335</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7852,16 +7594,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>335</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7888,16 +7633,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>335</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7924,16 +7672,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>335</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7960,16 +7711,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>335</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7996,16 +7750,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>335</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8032,16 +7789,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>335</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8068,16 +7828,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>335</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8104,16 +7867,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>335</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8140,16 +7906,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>335</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8176,16 +7945,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>335</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8212,16 +7984,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>335</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8248,16 +8023,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>335</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8284,16 +8062,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>335</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8320,16 +8101,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>335</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8356,16 +8140,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>335</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8392,16 +8179,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>335</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8428,16 +8218,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>335</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8464,16 +8257,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>335</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8500,16 +8296,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>335</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8536,16 +8335,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>335</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8572,16 +8374,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>335</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8608,16 +8413,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>335</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8644,16 +8452,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>335</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8680,16 +8491,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>335</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8716,16 +8530,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>335</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8752,16 +8569,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>335</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8788,16 +8608,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>335</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8824,16 +8647,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>335</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8860,16 +8686,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>335</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8896,16 +8725,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>335</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8932,16 +8764,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>335</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8968,16 +8803,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>335</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9004,16 +8842,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>335</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9040,16 +8881,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>335</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9076,16 +8920,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>335</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9112,16 +8959,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>335</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9148,16 +8998,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>335</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9182,18 +9035,23 @@
         <v>-17449.25685504999</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>335</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1.063955223880597</v>
+      </c>
       <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+        <v>1.042642642642643</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9218,18 +9076,15 @@
         <v>-17508.88585504999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9254,18 +9109,15 @@
         <v>-18851.71925504999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9292,16 +9144,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9326,18 +9175,15 @@
         <v>-18850.31925504999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9364,16 +9210,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9400,16 +9243,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9434,18 +9274,15 @@
         <v>-17412.16265504999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9470,18 +9307,15 @@
         <v>-18978.03455504999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9508,16 +9342,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9544,16 +9375,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9580,16 +9408,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9616,16 +9441,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9652,16 +9474,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9686,18 +9505,15 @@
         <v>-13630.63605504999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9722,18 +9538,15 @@
         <v>-13630.63605504999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9760,16 +9573,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9796,16 +9606,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9832,16 +9639,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9868,16 +9672,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9904,16 +9705,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9940,16 +9738,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9976,16 +9771,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10012,16 +9804,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10048,16 +9837,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10084,16 +9870,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10120,16 +9903,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10156,16 +9936,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10192,16 +9969,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10228,16 +10002,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10264,16 +10035,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10300,16 +10068,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10336,16 +10101,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10372,16 +10134,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10408,16 +10167,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10444,16 +10200,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10480,16 +10233,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10516,16 +10266,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10552,16 +10299,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10588,16 +10332,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10624,16 +10365,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10660,16 +10398,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10696,16 +10431,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10732,16 +10464,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10768,16 +10497,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10804,16 +10530,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10840,16 +10563,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10876,16 +10596,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10912,16 +10629,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10948,16 +10662,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10984,16 +10695,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11020,16 +10728,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11056,16 +10761,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11092,16 +10794,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11128,16 +10827,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11164,16 +10860,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11200,16 +10893,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11236,16 +10926,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11272,16 +10959,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11308,16 +10992,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11344,16 +11025,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11380,16 +11058,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11416,16 +11091,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11452,16 +11124,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11488,16 +11157,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11524,16 +11190,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11560,18 +11223,15 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-16 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1738,10 +1738,14 @@
         <v>-17730.3171</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>335.1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1771,11 +1775,19 @@
         <v>-17273.3171</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1816,19 @@
         <v>-18204.3662</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1857,19 @@
         <v>-18204.3662</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1901,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1940,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1976,19 @@
         <v>-18433.6482</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>335</v>
+      </c>
+      <c r="J47" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2017,19 @@
         <v>-18433.6482</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>335</v>
+      </c>
+      <c r="J48" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2061,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2097,19 @@
         <v>-20442.7663</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>339</v>
+      </c>
+      <c r="J50" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2141,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2177,19 @@
         <v>-23090.88499999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>333</v>
+      </c>
+      <c r="J52" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2218,19 @@
         <v>-22162.54879999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>333</v>
+      </c>
+      <c r="J53" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2259,19 @@
         <v>-22162.54879999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>335</v>
+      </c>
+      <c r="J54" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2300,19 @@
         <v>-22162.54879999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>335</v>
+      </c>
+      <c r="J55" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2341,19 @@
         <v>-22162.54879999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>335</v>
+      </c>
+      <c r="J56" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,15 +2382,19 @@
         <v>-22162.54879999999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>335</v>
       </c>
       <c r="J57" t="n">
-        <v>335</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>335.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,15 +2423,17 @@
         <v>-22265.54879999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>335</v>
+      </c>
       <c r="J58" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2342,17 +2464,17 @@
         <v>-23960.21699999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>334.9</v>
       </c>
       <c r="J59" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2383,11 +2505,13 @@
         <v>-18820.21699999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>333.1</v>
+      </c>
       <c r="J60" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2422,11 +2546,13 @@
         <v>-19502.39979999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>338.7</v>
+      </c>
       <c r="J61" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2461,11 +2587,13 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>335.1</v>
+      </c>
       <c r="J62" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2500,11 +2628,13 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>334.1</v>
+      </c>
       <c r="J63" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2539,11 +2669,13 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>334.1</v>
+      </c>
       <c r="J64" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2578,11 +2710,13 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>334.1</v>
+      </c>
       <c r="J65" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2617,11 +2751,13 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>334.1</v>
+      </c>
       <c r="J66" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2656,11 +2792,13 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>334.1</v>
+      </c>
       <c r="J67" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2695,13 +2833,13 @@
         <v>-23995.41829999999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>334.1</v>
       </c>
       <c r="J68" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2736,13 +2874,13 @@
         <v>-23995.41829999999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>333.1</v>
       </c>
       <c r="J69" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2777,13 +2915,13 @@
         <v>-24389.46629999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>333.1</v>
       </c>
       <c r="J70" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2818,13 +2956,13 @@
         <v>-23036.23499999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>333</v>
       </c>
       <c r="J71" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2859,13 +2997,13 @@
         <v>-22807.02789999999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>333.8</v>
       </c>
       <c r="J72" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2900,13 +3038,13 @@
         <v>-22807.02789999999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>334.1</v>
       </c>
       <c r="J73" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2941,13 +3079,13 @@
         <v>-22782.53843806999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>334.1</v>
       </c>
       <c r="J74" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2982,13 +3120,13 @@
         <v>-23091.07843807</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>337.6</v>
       </c>
       <c r="J75" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3023,13 +3161,13 @@
         <v>-23066.58903807</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>331.7</v>
       </c>
       <c r="J76" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3064,13 +3202,13 @@
         <v>-21152.55893807</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>333</v>
       </c>
       <c r="J77" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3105,11 +3243,13 @@
         <v>-21011.36683807</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>338.6</v>
+      </c>
       <c r="J78" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3144,11 +3284,13 @@
         <v>-19372.90723807</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>338.7</v>
+      </c>
       <c r="J79" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3183,11 +3325,13 @@
         <v>-19372.90723807</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>340</v>
+      </c>
       <c r="J80" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3222,11 +3366,13 @@
         <v>-18727.47463807</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>340</v>
+      </c>
       <c r="J81" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3261,11 +3407,13 @@
         <v>-22026.37183807</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>341</v>
+      </c>
       <c r="J82" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3300,11 +3448,13 @@
         <v>-22026.37183807</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>340.9</v>
+      </c>
       <c r="J83" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3343,7 +3493,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3378,11 +3528,13 @@
         <v>-22822.75373807</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>337.3</v>
+      </c>
       <c r="J85" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3417,11 +3569,13 @@
         <v>-22819.26373807</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>337.3</v>
+      </c>
       <c r="J86" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3456,11 +3610,13 @@
         <v>-25334.42893807</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>340.8</v>
+      </c>
       <c r="J87" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3499,7 +3655,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3534,11 +3690,13 @@
         <v>-25334.32893807</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>336.8</v>
+      </c>
       <c r="J89" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3577,7 +3735,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3616,7 +3774,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3651,11 +3809,13 @@
         <v>-17648.40421321</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>342</v>
+      </c>
       <c r="J92" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3694,7 +3854,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3733,7 +3893,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3772,7 +3932,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3811,7 +3971,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3850,7 +4010,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3889,7 +4049,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3928,7 +4088,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3963,11 +4123,13 @@
         <v>-2941.382513209996</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>337.8</v>
+      </c>
       <c r="J100" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4002,11 +4164,13 @@
         <v>-2217.417513209996</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>337</v>
+      </c>
       <c r="J101" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4041,13 +4205,11 @@
         <v>-2217.417513209996</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4086,7 +4248,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4125,7 +4287,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4164,7 +4326,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4203,7 +4365,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4242,7 +4404,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4281,7 +4443,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4320,7 +4482,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4359,7 +4521,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4398,7 +4560,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4437,7 +4599,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4476,7 +4638,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4515,7 +4677,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4554,7 +4716,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4593,7 +4755,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4632,7 +4794,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4671,7 +4833,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4710,7 +4872,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4749,7 +4911,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4788,7 +4950,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4827,7 +4989,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4866,7 +5028,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4905,7 +5067,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4944,7 +5106,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4983,7 +5145,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5022,7 +5184,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5061,7 +5223,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5100,7 +5262,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5139,7 +5301,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5178,7 +5340,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5217,7 +5379,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5256,7 +5418,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5295,7 +5457,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5334,7 +5496,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5373,7 +5535,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5412,7 +5574,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5451,7 +5613,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5490,7 +5652,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5529,7 +5691,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5568,7 +5730,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5607,7 +5769,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5646,7 +5808,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5685,7 +5847,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5724,7 +5886,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5763,7 +5925,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5802,7 +5964,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5841,7 +6003,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5876,11 +6038,11 @@
         <v>12930.32313449001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5915,11 +6077,11 @@
         <v>12732.25023449001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5958,7 +6120,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5993,11 +6155,11 @@
         <v>8520.599934490005</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6032,11 +6194,11 @@
         <v>8520.599934490005</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6071,11 +6233,11 @@
         <v>1877.051634490004</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6114,7 +6276,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6149,11 +6311,11 @@
         <v>2179.705734490004</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6192,7 +6354,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6227,11 +6389,11 @@
         <v>3934.152334490004</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6270,7 +6432,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6309,7 +6471,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6344,11 +6506,11 @@
         <v>13030.34103449</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6383,11 +6545,11 @@
         <v>13269.34103449</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6426,7 +6588,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6461,11 +6623,11 @@
         <v>11845.34103449</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6500,21 +6662,23 @@
         <v>11722.97373449</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>335</v>
+        <v>335.1</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>1.063934646374217</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1.036108624291256</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6539,17 +6703,11 @@
         <v>9707.237634490004</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>335</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6578,17 +6736,11 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>335</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6617,17 +6769,11 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>335</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6656,17 +6802,11 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>335</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6695,17 +6835,11 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>335</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6734,17 +6868,11 @@
         <v>1671.645634490004</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>335</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6776,14 +6904,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>335</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6812,17 +6934,11 @@
         <v>21779.79563449</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>335</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6851,17 +6967,11 @@
         <v>21779.79563449</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>335</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6893,14 +7003,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>335</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6932,14 +7036,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>335</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6968,17 +7066,11 @@
         <v>18646.99283449001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>335</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7007,17 +7099,11 @@
         <v>21709.21643449001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>335</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7046,17 +7132,11 @@
         <v>21709.21643449001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>335</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7085,17 +7165,11 @@
         <v>21709.21643449001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>335</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7124,17 +7198,11 @@
         <v>21710.61643449001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>335</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7163,17 +7231,11 @@
         <v>21710.61643449001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>335</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7205,14 +7267,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>335</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7244,14 +7300,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>335</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7283,14 +7333,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>335</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7319,17 +7363,11 @@
         <v>22118.82523449001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>335</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7361,14 +7399,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>335</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7397,17 +7429,11 @@
         <v>22431.28793449001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>335</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7439,14 +7465,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>335</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7475,17 +7495,11 @@
         <v>22369.29793449001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>335</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7517,14 +7531,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>335</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7553,17 +7561,11 @@
         <v>22498.55453449001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>335</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7592,17 +7594,11 @@
         <v>21448.55453449001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>335</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7634,14 +7630,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>335</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7673,14 +7663,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>335</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7712,14 +7696,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>335</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7751,14 +7729,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>335</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7790,14 +7762,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>335</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7829,14 +7795,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>335</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7868,14 +7828,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>335</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7904,17 +7858,11 @@
         <v>14162.71423449001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>335</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7943,17 +7891,11 @@
         <v>14668.13543449001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>335</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7982,17 +7924,11 @@
         <v>9623.216934490007</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>335</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8021,17 +7957,11 @@
         <v>10418.21693449001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>335</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8060,17 +7990,11 @@
         <v>10418.21693449001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>335</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8099,17 +8023,11 @@
         <v>10418.21693449001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>335</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8141,14 +8059,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>335</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8180,14 +8092,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>335</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8219,14 +8125,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>335</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8258,14 +8158,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>335</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8297,14 +8191,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>335</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8333,17 +8221,11 @@
         <v>7915.221134490006</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>335</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8372,17 +8254,11 @@
         <v>8800.121134490006</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>335</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8411,17 +8287,11 @@
         <v>7932.121134490006</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>335</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8450,17 +8320,11 @@
         <v>8054.397734490006</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>335</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8489,17 +8353,11 @@
         <v>8054.397734490006</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>335</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8528,17 +8386,11 @@
         <v>8257.397734490005</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>335</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8567,17 +8419,11 @@
         <v>14257.39773449</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>335</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8609,14 +8455,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>335</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8648,14 +8488,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>335</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8687,14 +8521,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>335</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8726,14 +8554,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>335</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8765,14 +8587,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>335</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8804,14 +8620,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>335</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8843,14 +8653,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>335</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8882,14 +8686,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>335</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8921,14 +8719,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>335</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8960,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>335</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8999,14 +8785,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>335</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9035,23 +8815,15 @@
         <v>-17449.25685504999</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>335</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
-        <v>1.063955223880597</v>
-      </c>
-      <c r="M230" t="n">
-        <v>1.042642642642643</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9076,7 +8848,7 @@
         <v>-17508.88585504999</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9109,7 +8881,7 @@
         <v>-18851.71925504999</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9175,7 +8947,7 @@
         <v>-18850.31925504999</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9274,7 +9046,7 @@
         <v>-17412.16265504999</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9307,7 +9079,7 @@
         <v>-18978.03455504999</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9373,7 +9145,7 @@
         <v>-15068.63605504999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9406,7 +9178,7 @@
         <v>-15068.63605504999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9505,7 +9277,7 @@
         <v>-13630.63605504999</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9538,7 +9310,7 @@
         <v>-13630.63605504999</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9571,7 +9343,7 @@
         <v>-13011.50775504999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9604,7 +9376,7 @@
         <v>-14311.50775504999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9637,7 +9409,7 @@
         <v>-14001.50775504999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9670,7 +9442,7 @@
         <v>-13381.50775504999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9703,7 +9475,7 @@
         <v>-13107.24925504999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9736,7 +9508,7 @@
         <v>-11378.05395504999</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10099,7 +9871,7 @@
         <v>-10954.68625504999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10132,7 +9904,7 @@
         <v>-19123.98015504999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10165,7 +9937,7 @@
         <v>-19123.98015504999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10198,7 +9970,7 @@
         <v>-19153.98015504999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10231,7 +10003,7 @@
         <v>-19153.98015504999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10264,7 +10036,7 @@
         <v>-19153.98015504999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10297,7 +10069,7 @@
         <v>-19078.16125504999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10330,7 +10102,7 @@
         <v>-15629.03785504999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10363,7 +10135,7 @@
         <v>-16319.37015504999</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10396,7 +10168,7 @@
         <v>-20745.04435504999</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10429,7 +10201,7 @@
         <v>-21291.49555504999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10462,7 +10234,7 @@
         <v>-21291.49555504999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10495,7 +10267,7 @@
         <v>-21291.49555504999</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10528,7 +10300,7 @@
         <v>-21368.66205504999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10561,7 +10333,7 @@
         <v>-21368.66205504999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10594,7 +10366,7 @@
         <v>-21368.66205504999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11023,7 +10795,7 @@
         <v>-13311.73555504999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11056,7 +10828,7 @@
         <v>-25692.65965504999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11089,7 +10861,7 @@
         <v>-25692.65965504999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11232,6 +11004,6 @@
       <c r="M296" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-16 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1738,14 +1738,10 @@
         <v>-17730.3171</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1775,708 +1771,578 @@
         <v>-17273.3171</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>339.6</v>
+      </c>
+      <c r="C43" t="n">
         <v>335.1</v>
       </c>
-      <c r="J42" t="n">
+      <c r="D43" t="n">
+        <v>339.6</v>
+      </c>
+      <c r="E43" t="n">
         <v>335.1</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="F43" t="n">
+        <v>931.0491</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-18204.3662</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>380.3101</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-18204.3662</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>194.36</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-18204.3662</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>335</v>
+      </c>
+      <c r="D46" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>335</v>
+      </c>
+      <c r="F46" t="n">
+        <v>229.282</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-18433.6482</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>335</v>
+      </c>
+      <c r="C47" t="n">
+        <v>335</v>
+      </c>
+      <c r="D47" t="n">
+        <v>335</v>
+      </c>
+      <c r="E47" t="n">
+        <v>335</v>
+      </c>
+      <c r="F47" t="n">
+        <v>272.8434</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-18433.6482</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>335</v>
+      </c>
+      <c r="D48" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>335</v>
+      </c>
+      <c r="F48" t="n">
+        <v>249.85</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-18433.6482</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>335</v>
+      </c>
+      <c r="C49" t="n">
+        <v>339</v>
+      </c>
+      <c r="D49" t="n">
+        <v>339</v>
+      </c>
+      <c r="E49" t="n">
+        <v>335</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-18430.1482</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>335</v>
+      </c>
+      <c r="C50" t="n">
+        <v>335</v>
+      </c>
+      <c r="D50" t="n">
+        <v>335</v>
+      </c>
+      <c r="E50" t="n">
+        <v>335</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2012.6181</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-20442.7663</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>333</v>
+      </c>
+      <c r="D51" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>333</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2648.1187</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-23090.88499999999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>333</v>
+      </c>
+      <c r="D52" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>333</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2165.542</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-23090.88499999999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>333</v>
+      </c>
+      <c r="C53" t="n">
+        <v>335</v>
+      </c>
+      <c r="D53" t="n">
+        <v>335</v>
+      </c>
+      <c r="E53" t="n">
+        <v>333</v>
+      </c>
+      <c r="F53" t="n">
+        <v>928.3362</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-22162.54879999999</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>335</v>
+      </c>
+      <c r="C54" t="n">
+        <v>335</v>
+      </c>
+      <c r="D54" t="n">
+        <v>335</v>
+      </c>
+      <c r="E54" t="n">
+        <v>335</v>
+      </c>
+      <c r="F54" t="n">
+        <v>93.8246</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-22162.54879999999</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>335</v>
+      </c>
+      <c r="C55" t="n">
+        <v>335</v>
+      </c>
+      <c r="D55" t="n">
+        <v>335</v>
+      </c>
+      <c r="E55" t="n">
+        <v>335</v>
+      </c>
+      <c r="F55" t="n">
+        <v>652</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-22162.54879999999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>335</v>
+      </c>
+      <c r="C56" t="n">
+        <v>335</v>
+      </c>
+      <c r="D56" t="n">
+        <v>335</v>
+      </c>
+      <c r="E56" t="n">
+        <v>335</v>
+      </c>
+      <c r="F56" t="n">
+        <v>597.01492536</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-22162.54879999999</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>335</v>
+      </c>
+      <c r="C57" t="n">
+        <v>335</v>
+      </c>
+      <c r="D57" t="n">
+        <v>335</v>
+      </c>
+      <c r="E57" t="n">
+        <v>335</v>
+      </c>
+      <c r="F57" t="n">
+        <v>907</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-22162.54879999999</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="D58" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>103</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-22265.54879999999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1694.6682</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-23960.21699999999</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>339.6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>339.6</v>
-      </c>
-      <c r="E43" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>931.0491</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-18204.3662</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>338.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>380.3101</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-18204.3662</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>194.36</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-18204.3662</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>335</v>
-      </c>
-      <c r="D46" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>335</v>
-      </c>
-      <c r="F46" t="n">
-        <v>229.282</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-18433.6482</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>335</v>
-      </c>
-      <c r="C47" t="n">
-        <v>335</v>
-      </c>
-      <c r="D47" t="n">
-        <v>335</v>
-      </c>
-      <c r="E47" t="n">
-        <v>335</v>
-      </c>
-      <c r="F47" t="n">
-        <v>272.8434</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-18433.6482</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>335</v>
-      </c>
-      <c r="J47" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>338.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>335</v>
-      </c>
-      <c r="D48" t="n">
-        <v>338.5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>335</v>
-      </c>
-      <c r="F48" t="n">
-        <v>249.85</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-18433.6482</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>335</v>
-      </c>
-      <c r="J48" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>335</v>
-      </c>
-      <c r="C49" t="n">
-        <v>339</v>
-      </c>
-      <c r="D49" t="n">
-        <v>339</v>
-      </c>
-      <c r="E49" t="n">
-        <v>335</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-18430.1482</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>335</v>
-      </c>
-      <c r="C50" t="n">
-        <v>335</v>
-      </c>
-      <c r="D50" t="n">
-        <v>335</v>
-      </c>
-      <c r="E50" t="n">
-        <v>335</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2012.6181</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-20442.7663</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>339</v>
-      </c>
-      <c r="J50" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>334.5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>333</v>
-      </c>
-      <c r="D51" t="n">
-        <v>334.5</v>
-      </c>
-      <c r="E51" t="n">
-        <v>333</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2648.1187</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-23090.88499999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>333</v>
-      </c>
-      <c r="D52" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>333</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2165.542</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-23090.88499999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>333</v>
-      </c>
-      <c r="J52" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>333</v>
-      </c>
-      <c r="C53" t="n">
-        <v>335</v>
-      </c>
-      <c r="D53" t="n">
-        <v>335</v>
-      </c>
-      <c r="E53" t="n">
-        <v>333</v>
-      </c>
-      <c r="F53" t="n">
-        <v>928.3362</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-22162.54879999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>333</v>
-      </c>
-      <c r="J53" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>335</v>
-      </c>
-      <c r="C54" t="n">
-        <v>335</v>
-      </c>
-      <c r="D54" t="n">
-        <v>335</v>
-      </c>
-      <c r="E54" t="n">
-        <v>335</v>
-      </c>
-      <c r="F54" t="n">
-        <v>93.8246</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-22162.54879999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>335</v>
-      </c>
-      <c r="J54" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>335</v>
-      </c>
-      <c r="C55" t="n">
-        <v>335</v>
-      </c>
-      <c r="D55" t="n">
-        <v>335</v>
-      </c>
-      <c r="E55" t="n">
-        <v>335</v>
-      </c>
-      <c r="F55" t="n">
-        <v>652</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-22162.54879999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>335</v>
-      </c>
-      <c r="J55" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>335</v>
-      </c>
-      <c r="C56" t="n">
-        <v>335</v>
-      </c>
-      <c r="D56" t="n">
-        <v>335</v>
-      </c>
-      <c r="E56" t="n">
-        <v>335</v>
-      </c>
-      <c r="F56" t="n">
-        <v>597.01492536</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-22162.54879999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>335</v>
-      </c>
-      <c r="J56" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>335</v>
-      </c>
-      <c r="C57" t="n">
-        <v>335</v>
-      </c>
-      <c r="D57" t="n">
-        <v>335</v>
-      </c>
-      <c r="E57" t="n">
-        <v>335</v>
-      </c>
-      <c r="F57" t="n">
-        <v>907</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-22162.54879999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>335</v>
-      </c>
-      <c r="J57" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="C58" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="D58" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="E58" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="F58" t="n">
-        <v>103</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-22265.54879999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>335</v>
-      </c>
-      <c r="J58" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="C59" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="E59" t="n">
-        <v>333.1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1694.6682</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-23960.21699999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2510,9 +2376,7 @@
       <c r="I60" t="n">
         <v>333.1</v>
       </c>
-      <c r="J60" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2546,14 +2410,10 @@
         <v>-19502.39979999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>338.7</v>
-      </c>
-      <c r="J61" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2587,14 +2447,10 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2633,9 +2489,7 @@
       <c r="I63" t="n">
         <v>334.1</v>
       </c>
-      <c r="J63" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2674,9 +2528,7 @@
       <c r="I64" t="n">
         <v>334.1</v>
       </c>
-      <c r="J64" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2715,9 +2567,7 @@
       <c r="I65" t="n">
         <v>334.1</v>
       </c>
-      <c r="J65" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2756,9 +2606,7 @@
       <c r="I66" t="n">
         <v>334.1</v>
       </c>
-      <c r="J66" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2797,9 +2645,7 @@
       <c r="I67" t="n">
         <v>334.1</v>
       </c>
-      <c r="J67" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2838,9 +2684,7 @@
       <c r="I68" t="n">
         <v>334.1</v>
       </c>
-      <c r="J68" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2879,9 +2723,7 @@
       <c r="I69" t="n">
         <v>333.1</v>
       </c>
-      <c r="J69" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2920,9 +2762,7 @@
       <c r="I70" t="n">
         <v>333.1</v>
       </c>
-      <c r="J70" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2961,9 +2801,7 @@
       <c r="I71" t="n">
         <v>333</v>
       </c>
-      <c r="J71" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3002,9 +2840,7 @@
       <c r="I72" t="n">
         <v>333.8</v>
       </c>
-      <c r="J72" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,9 +2879,7 @@
       <c r="I73" t="n">
         <v>334.1</v>
       </c>
-      <c r="J73" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,9 +2918,7 @@
       <c r="I74" t="n">
         <v>334.1</v>
       </c>
-      <c r="J74" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3125,9 +2957,7 @@
       <c r="I75" t="n">
         <v>337.6</v>
       </c>
-      <c r="J75" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3166,9 +2996,7 @@
       <c r="I76" t="n">
         <v>331.7</v>
       </c>
-      <c r="J76" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,9 +3035,7 @@
       <c r="I77" t="n">
         <v>333</v>
       </c>
-      <c r="J77" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3243,14 +3069,10 @@
         <v>-21011.36683807</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>338.6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3284,14 +3106,10 @@
         <v>-19372.90723807</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>338.7</v>
-      </c>
-      <c r="J79" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3325,14 +3143,10 @@
         <v>-19372.90723807</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>340</v>
-      </c>
-      <c r="J80" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3366,14 +3180,10 @@
         <v>-18727.47463807</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>340</v>
-      </c>
-      <c r="J81" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,14 +3217,10 @@
         <v>-22026.37183807</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>341</v>
-      </c>
-      <c r="J82" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,14 +3254,10 @@
         <v>-22026.37183807</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>340.9</v>
-      </c>
-      <c r="J83" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,9 +3294,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3528,14 +3328,10 @@
         <v>-22822.75373807</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>337.3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3569,14 +3365,10 @@
         <v>-22819.26373807</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>337.3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,14 +3402,10 @@
         <v>-25334.42893807</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>340.8</v>
-      </c>
-      <c r="J87" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,9 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3690,14 +3476,10 @@
         <v>-25334.32893807</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="J89" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,9 +3516,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,9 +3553,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3809,14 +3587,10 @@
         <v>-17648.40421321</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>342</v>
-      </c>
-      <c r="J92" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3853,9 +3627,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3892,9 +3664,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3931,9 +3701,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3970,9 +3738,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4009,9 +3775,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4048,9 +3812,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4087,9 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4123,14 +3883,10 @@
         <v>-2941.382513209996</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>337.8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4164,14 +3920,10 @@
         <v>-2217.417513209996</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>337</v>
-      </c>
-      <c r="J101" t="n">
-        <v>335.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4208,9 +3960,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4247,9 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4286,9 +4034,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4325,9 +4071,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4364,9 +4108,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4403,9 +4145,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4442,9 +4182,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4481,9 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4520,9 +4256,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4559,9 +4293,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4598,9 +4330,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4637,9 +4367,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4676,9 +4404,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4715,9 +4441,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4754,9 +4478,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4793,9 +4515,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4832,9 +4552,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4871,9 +4589,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4910,9 +4626,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4949,9 +4663,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,20 +4697,16 @@
         <v>-19581.67806952</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>335.1</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -5027,14 +4735,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5063,17 +4765,11 @@
         <v>-18188.67806952</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5105,14 +4801,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5144,14 +4834,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5183,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5219,17 +4897,11 @@
         <v>23.61923048000608</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5258,17 +4930,11 @@
         <v>26.61923048000608</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5297,17 +4963,11 @@
         <v>-4302.278669519994</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5336,17 +4996,11 @@
         <v>-7208.306869519995</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5378,14 +5032,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5414,17 +5062,11 @@
         <v>-1429.042169519995</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5453,17 +5095,11 @@
         <v>3101.033809630006</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5495,14 +5131,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5534,14 +5164,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5573,14 +5197,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5612,14 +5230,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5651,14 +5263,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5690,14 +5296,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5729,14 +5329,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5768,14 +5362,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5807,14 +5395,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5846,14 +5428,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5885,14 +5461,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5924,14 +5494,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5963,14 +5527,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6002,14 +5560,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6041,14 +5593,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6080,14 +5626,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6119,14 +5659,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6158,14 +5692,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6197,14 +5725,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6236,14 +5758,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6275,14 +5791,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6314,14 +5824,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6353,14 +5857,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6392,14 +5890,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6431,14 +5923,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6470,14 +5956,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6509,14 +5989,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6548,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6587,14 +6055,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6626,14 +6088,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6662,23 +6118,15 @@
         <v>11722.97373449</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>1.063934646374217</v>
-      </c>
-      <c r="M165" t="n">
-        <v>1.036108624291256</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6703,7 +6151,7 @@
         <v>9707.237634490004</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6736,7 +6184,7 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6769,7 +6217,7 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6802,7 +6250,7 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6835,7 +6283,7 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6868,7 +6316,7 @@
         <v>1671.645634490004</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6934,7 +6382,7 @@
         <v>21779.79563449</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6967,7 +6415,7 @@
         <v>21779.79563449</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7066,7 +6514,7 @@
         <v>18646.99283449001</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7099,7 +6547,7 @@
         <v>21709.21643449001</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7132,7 +6580,7 @@
         <v>21709.21643449001</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7165,7 +6613,7 @@
         <v>21709.21643449001</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7198,7 +6646,7 @@
         <v>21710.61643449001</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7231,7 +6679,7 @@
         <v>21710.61643449001</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7363,7 +6811,7 @@
         <v>22118.82523449001</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7429,7 +6877,7 @@
         <v>22431.28793449001</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7495,7 +6943,7 @@
         <v>22369.29793449001</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7561,7 +7009,7 @@
         <v>22498.55453449001</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7594,7 +7042,7 @@
         <v>21448.55453449001</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7858,7 +7306,7 @@
         <v>14162.71423449001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7891,7 +7339,7 @@
         <v>14668.13543449001</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7924,7 +7372,7 @@
         <v>9623.216934490007</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7957,7 +7405,7 @@
         <v>10418.21693449001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7990,7 +7438,7 @@
         <v>10418.21693449001</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8023,7 +7471,7 @@
         <v>10418.21693449001</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8221,7 +7669,7 @@
         <v>7915.221134490006</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8254,7 +7702,7 @@
         <v>8800.121134490006</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8287,7 +7735,7 @@
         <v>7932.121134490006</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8320,7 +7768,7 @@
         <v>8054.397734490006</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8353,7 +7801,7 @@
         <v>8054.397734490006</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8386,7 +7834,7 @@
         <v>8257.397734490005</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8419,7 +7867,7 @@
         <v>14257.39773449</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -9145,7 +8593,7 @@
         <v>-15068.63605504999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9178,7 +8626,7 @@
         <v>-15068.63605504999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9277,7 +8725,7 @@
         <v>-13630.63605504999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9343,7 +8791,7 @@
         <v>-13011.50775504999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9376,7 +8824,7 @@
         <v>-14311.50775504999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9409,7 +8857,7 @@
         <v>-14001.50775504999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9442,7 +8890,7 @@
         <v>-13381.50775504999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9475,7 +8923,7 @@
         <v>-13107.24925504999</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9508,7 +8956,7 @@
         <v>-11378.05395504999</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9871,7 +9319,7 @@
         <v>-10954.68625504999</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9904,7 +9352,7 @@
         <v>-19123.98015504999</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9937,7 +9385,7 @@
         <v>-19123.98015504999</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9970,7 +9418,7 @@
         <v>-19153.98015504999</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10003,7 +9451,7 @@
         <v>-19153.98015504999</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10036,7 +9484,7 @@
         <v>-19153.98015504999</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10069,7 +9517,7 @@
         <v>-19078.16125504999</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10102,7 +9550,7 @@
         <v>-15629.03785504999</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10135,7 +9583,7 @@
         <v>-16319.37015504999</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10168,7 +9616,7 @@
         <v>-20745.04435504999</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10201,7 +9649,7 @@
         <v>-21291.49555504999</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10234,7 +9682,7 @@
         <v>-21291.49555504999</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10267,7 +9715,7 @@
         <v>-21291.49555504999</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10300,7 +9748,7 @@
         <v>-21368.66205504999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10333,7 +9781,7 @@
         <v>-21368.66205504999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10366,7 +9814,7 @@
         <v>-21368.66205504999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10795,7 +10243,7 @@
         <v>-13311.73555504999</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10828,7 +10276,7 @@
         <v>-25692.65965504999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10861,7 +10309,7 @@
         <v>-25692.65965504999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11004,6 +10452,6 @@
       <c r="M296" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-16 BackTest STRAT.xlsx
@@ -2332,17 +2332,11 @@
         <v>-23960.21699999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>334.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2371,17 +2365,11 @@
         <v>-18820.21699999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>333.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2451,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,17 +2464,11 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>334.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2523,17 +2497,11 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>334.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2562,17 +2530,11 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>334.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2601,17 +2563,11 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>334.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2640,17 +2596,11 @@
         <v>-19841.61979999999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>334.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2679,17 +2629,11 @@
         <v>-23995.41829999999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>334.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2718,17 +2662,11 @@
         <v>-23995.41829999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>333.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2757,17 +2695,11 @@
         <v>-24389.46629999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>333.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2804,7 +2736,7 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -3069,9 +3001,11 @@
         <v>-21011.36683807</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>338.6</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3106,9 +3040,11 @@
         <v>-19372.90723807</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>338.7</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3143,9 +3079,11 @@
         <v>-19372.90723807</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>340</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3180,9 +3118,11 @@
         <v>-18727.47463807</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>340</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3365,9 +3305,11 @@
         <v>-22819.26373807</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>337.3</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3476,9 +3418,11 @@
         <v>-25334.32893807</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>336.8</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3513,9 +3457,11 @@
         <v>-27384.32893807</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>341</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3550,9 +3496,11 @@
         <v>-27380.82893807</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>338.2</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3587,9 +3535,11 @@
         <v>-17648.40421321</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>342</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -4697,16 +4647,18 @@
         <v>-19581.67806952</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
       <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -4736,7 +4688,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4765,11 +4721,15 @@
         <v>-18188.67806952</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4802,7 +4762,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4835,7 +4799,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +4836,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4897,11 +4869,15 @@
         <v>23.61923048000608</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4930,11 +4906,15 @@
         <v>26.61923048000608</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4963,11 +4943,15 @@
         <v>-4302.278669519994</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4996,11 +4980,15 @@
         <v>-7208.306869519995</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5033,7 +5021,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5062,11 +5054,15 @@
         <v>-1429.042169519995</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5095,11 +5091,15 @@
         <v>3101.033809630006</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5132,7 +5132,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5165,7 +5169,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5198,7 +5206,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5231,7 +5243,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5264,7 +5280,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5297,7 +5317,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5330,7 +5354,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5363,7 +5391,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5396,7 +5428,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5425,14 +5461,16 @@
         <v>6152.291134490005</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -5458,7 +5496,7 @@
         <v>6065.706934490005</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5491,7 +5529,7 @@
         <v>5837.497834490005</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5557,7 +5595,7 @@
         <v>11293.26233449001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5590,7 +5628,7 @@
         <v>12930.32313449001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5623,7 +5661,7 @@
         <v>12732.25023449001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5656,7 +5694,7 @@
         <v>8334.111134490005</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5689,7 +5727,7 @@
         <v>8520.599934490005</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5722,7 +5760,7 @@
         <v>8520.599934490005</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5755,7 +5793,7 @@
         <v>1877.051634490004</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5788,7 +5826,7 @@
         <v>2460.695734490004</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5821,7 +5859,7 @@
         <v>2179.705734490004</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5854,7 +5892,7 @@
         <v>2129.705734490004</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5887,7 +5925,7 @@
         <v>3934.152334490004</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5920,7 +5958,7 @@
         <v>7034.125434490004</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5953,7 +5991,7 @@
         <v>5397.064634490004</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5986,7 +6024,7 @@
         <v>13030.34103449</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6019,7 +6057,7 @@
         <v>13269.34103449</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6052,7 +6090,7 @@
         <v>11458.34103449</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6085,7 +6123,7 @@
         <v>11845.34103449</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6118,7 +6156,7 @@
         <v>11722.97373449</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6151,7 +6189,7 @@
         <v>9707.237634490004</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6184,7 +6222,7 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6217,7 +6255,7 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6283,7 +6321,7 @@
         <v>3343.645634490004</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6415,7 +6453,7 @@
         <v>21779.79563449</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6844,7 +6882,7 @@
         <v>22431.28793449001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6877,7 +6915,7 @@
         <v>22431.28793449001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6910,7 +6948,7 @@
         <v>22369.29793449001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -8890,7 +8928,7 @@
         <v>-13381.50775504999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8923,7 +8961,7 @@
         <v>-13107.24925504999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8956,7 +8994,7 @@
         <v>-11378.05395504999</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8989,7 +9027,7 @@
         <v>-11378.05395504999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9022,7 +9060,7 @@
         <v>-11750.65385504999</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9055,7 +9093,7 @@
         <v>-11750.65385504999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9088,7 +9126,7 @@
         <v>-7841.378755049992</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9121,7 +9159,7 @@
         <v>-4405.378755049992</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9154,7 +9192,7 @@
         <v>-10438.72195504999</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9187,7 +9225,7 @@
         <v>-11073.72195504999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9220,7 +9258,7 @@
         <v>-11073.72195504999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9253,7 +9291,7 @@
         <v>-11073.72195504999</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9286,7 +9324,7 @@
         <v>-10954.68625504999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9319,7 +9357,7 @@
         <v>-10954.68625504999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9352,7 +9390,7 @@
         <v>-19123.98015504999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-16 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M296"/>
+  <dimension ref="A1:L296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>128.9</v>
       </c>
       <c r="G2" t="n">
-        <v>-8341.608900000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>89.09999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>-8252.508900000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>204</v>
       </c>
       <c r="G4" t="n">
-        <v>-8048.508900000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>226.5533</v>
       </c>
       <c r="G5" t="n">
-        <v>-8275.0622</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>204</v>
       </c>
       <c r="G6" t="n">
-        <v>-8479.0622</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>-8477.0622</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1.6</v>
       </c>
       <c r="G8" t="n">
-        <v>-8475.4622</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>138</v>
       </c>
       <c r="G9" t="n">
-        <v>-8613.4622</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>-8611.4622</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>-8609.4622</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>-8611.4622</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2129.69</v>
       </c>
       <c r="G13" t="n">
-        <v>-6481.772199999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>60</v>
       </c>
       <c r="G14" t="n">
-        <v>-6541.772199999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1.5</v>
       </c>
       <c r="G15" t="n">
-        <v>-6540.272199999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>0.2318</v>
       </c>
       <c r="G16" t="n">
-        <v>-6540.503999999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>-6538.503999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>74.06999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-6612.573999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>193.5903</v>
       </c>
       <c r="G19" t="n">
-        <v>-6806.164299999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>26.65</v>
       </c>
       <c r="G20" t="n">
-        <v>-6806.164299999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>194.2019</v>
       </c>
       <c r="G21" t="n">
-        <v>-7000.366199999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>9.99</v>
       </c>
       <c r="G22" t="n">
-        <v>-7000.366199999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>244.6599</v>
       </c>
       <c r="G23" t="n">
-        <v>-7000.366199999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>46</v>
       </c>
       <c r="G24" t="n">
-        <v>-7046.366199999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>372.7154</v>
       </c>
       <c r="G25" t="n">
-        <v>-7419.081599999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>418.4575</v>
       </c>
       <c r="G26" t="n">
-        <v>-7837.539099999998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>47.1065</v>
       </c>
       <c r="G27" t="n">
-        <v>-7884.645599999998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>185</v>
       </c>
       <c r="G28" t="n">
-        <v>-7699.645599999998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>967.97</v>
       </c>
       <c r="G29" t="n">
-        <v>-8667.615599999997</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>880.4096</v>
       </c>
       <c r="G30" t="n">
-        <v>-7787.205999999997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>5108.7584</v>
       </c>
       <c r="G31" t="n">
-        <v>-12895.9644</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>65.44</v>
       </c>
       <c r="G32" t="n">
-        <v>-12830.5244</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>137.63</v>
       </c>
       <c r="G33" t="n">
-        <v>-12692.8944</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>0.2808</v>
       </c>
       <c r="G34" t="n">
-        <v>-12692.8944</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2832.8592</v>
       </c>
       <c r="G35" t="n">
-        <v>-15525.7536</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>987.658</v>
       </c>
       <c r="G36" t="n">
-        <v>-16513.4116</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>169.8</v>
       </c>
       <c r="G37" t="n">
-        <v>-16683.2116</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1047.1055</v>
       </c>
       <c r="G38" t="n">
-        <v>-17730.3171</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1080.2379</v>
       </c>
       <c r="G39" t="n">
-        <v>-17730.3171</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>9</v>
       </c>
       <c r="G40" t="n">
-        <v>-17730.3171</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>524.1204</v>
       </c>
       <c r="G41" t="n">
-        <v>-17730.3171</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>457</v>
       </c>
       <c r="G42" t="n">
-        <v>-17273.3171</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>931.0491</v>
       </c>
       <c r="G43" t="n">
-        <v>-18204.3662</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>380.3101</v>
       </c>
       <c r="G44" t="n">
-        <v>-18204.3662</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>194.36</v>
       </c>
       <c r="G45" t="n">
-        <v>-18204.3662</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>229.282</v>
       </c>
       <c r="G46" t="n">
-        <v>-18433.6482</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>272.8434</v>
       </c>
       <c r="G47" t="n">
-        <v>-18433.6482</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>249.85</v>
       </c>
       <c r="G48" t="n">
-        <v>-18433.6482</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>3.5</v>
       </c>
       <c r="G49" t="n">
-        <v>-18430.1482</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2012.6181</v>
       </c>
       <c r="G50" t="n">
-        <v>-20442.7663</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>2648.1187</v>
       </c>
       <c r="G51" t="n">
-        <v>-23090.88499999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2165.542</v>
       </c>
       <c r="G52" t="n">
-        <v>-23090.88499999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>928.3362</v>
       </c>
       <c r="G53" t="n">
-        <v>-22162.54879999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>93.8246</v>
       </c>
       <c r="G54" t="n">
-        <v>-22162.54879999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>652</v>
       </c>
       <c r="G55" t="n">
-        <v>-22162.54879999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>597.01492536</v>
       </c>
       <c r="G56" t="n">
-        <v>-22162.54879999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>907</v>
       </c>
       <c r="G57" t="n">
-        <v>-22162.54879999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>103</v>
       </c>
       <c r="G58" t="n">
-        <v>-22265.54879999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1694.6682</v>
       </c>
       <c r="G59" t="n">
-        <v>-23960.21699999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>5140</v>
       </c>
       <c r="G60" t="n">
-        <v>-18820.21699999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>682.1828</v>
       </c>
       <c r="G61" t="n">
-        <v>-19502.39979999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>339.22</v>
       </c>
       <c r="G62" t="n">
-        <v>-19841.61979999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>50</v>
       </c>
       <c r="G63" t="n">
-        <v>-19841.61979999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>27.96</v>
       </c>
       <c r="G64" t="n">
-        <v>-19841.61979999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>159.4282</v>
       </c>
       <c r="G65" t="n">
-        <v>-19841.61979999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>48.93</v>
       </c>
       <c r="G66" t="n">
-        <v>-19841.61979999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>55.67</v>
       </c>
       <c r="G67" t="n">
-        <v>-19841.61979999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>4153.7985</v>
       </c>
       <c r="G68" t="n">
-        <v>-23995.41829999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1916.394</v>
       </c>
       <c r="G69" t="n">
-        <v>-23995.41829999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,19 @@
         <v>394.048</v>
       </c>
       <c r="G70" t="n">
-        <v>-24389.46629999999</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>333.1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>333.1</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,24 +2517,23 @@
         <v>1353.2313</v>
       </c>
       <c r="G71" t="n">
-        <v>-23036.23499999999</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="I71" t="n">
-        <v>333</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2764,24 +2555,23 @@
         <v>229.2071</v>
       </c>
       <c r="G72" t="n">
-        <v>-22807.02789999999</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>333.8</v>
       </c>
       <c r="I72" t="n">
-        <v>333.8</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2803,24 +2593,23 @@
         <v>833.2499</v>
       </c>
       <c r="G73" t="n">
-        <v>-22807.02789999999</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>334.1</v>
       </c>
       <c r="I73" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,24 +2631,23 @@
         <v>24.48946193</v>
       </c>
       <c r="G74" t="n">
-        <v>-22782.53843806999</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>334.1</v>
       </c>
       <c r="I74" t="n">
-        <v>334.1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2881,24 +2669,23 @@
         <v>308.54</v>
       </c>
       <c r="G75" t="n">
-        <v>-23091.07843807</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>337.6</v>
       </c>
       <c r="I75" t="n">
-        <v>337.6</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2920,24 +2707,23 @@
         <v>24.4894</v>
       </c>
       <c r="G76" t="n">
-        <v>-23066.58903807</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>331.7</v>
       </c>
       <c r="I76" t="n">
-        <v>331.7</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2959,24 +2745,23 @@
         <v>1914.0301</v>
       </c>
       <c r="G77" t="n">
-        <v>-21152.55893807</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="I77" t="n">
-        <v>333</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2998,24 +2783,23 @@
         <v>141.1921</v>
       </c>
       <c r="G78" t="n">
-        <v>-21011.36683807</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>338.6</v>
       </c>
       <c r="I78" t="n">
-        <v>338.6</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3037,24 +2821,21 @@
         <v>1638.4596</v>
       </c>
       <c r="G79" t="n">
-        <v>-19372.90723807</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>338.7</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3076,24 +2857,21 @@
         <v>1812.5196</v>
       </c>
       <c r="G80" t="n">
-        <v>-19372.90723807</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>340</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3115,24 +2893,21 @@
         <v>645.4326</v>
       </c>
       <c r="G81" t="n">
-        <v>-18727.47463807</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>340</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3154,22 +2929,21 @@
         <v>3298.8972</v>
       </c>
       <c r="G82" t="n">
-        <v>-22026.37183807</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3191,22 +2965,21 @@
         <v>347.6468</v>
       </c>
       <c r="G83" t="n">
-        <v>-22026.37183807</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3228,22 +3001,21 @@
         <v>796.3819</v>
       </c>
       <c r="G84" t="n">
-        <v>-22822.75373807</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3265,22 +3037,21 @@
         <v>815.6423</v>
       </c>
       <c r="G85" t="n">
-        <v>-22822.75373807</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3302,24 +3073,21 @@
         <v>3.49</v>
       </c>
       <c r="G86" t="n">
-        <v>-22819.26373807</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>337.3</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3341,22 +3109,21 @@
         <v>2515.1652</v>
       </c>
       <c r="G87" t="n">
-        <v>-25334.42893807</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3378,22 +3145,21 @@
         <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>-25336.42893807</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3415,24 +3181,21 @@
         <v>2.1</v>
       </c>
       <c r="G89" t="n">
-        <v>-25334.32893807</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3454,24 +3217,21 @@
         <v>2050</v>
       </c>
       <c r="G90" t="n">
-        <v>-27384.32893807</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>341</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3493,24 +3253,21 @@
         <v>3.5</v>
       </c>
       <c r="G91" t="n">
-        <v>-27380.82893807</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>338.2</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3532,24 +3289,21 @@
         <v>9732.42472486</v>
       </c>
       <c r="G92" t="n">
-        <v>-17648.40421321</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>342</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
+        <v>333.1</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3571,22 +3325,21 @@
         <v>1704.959</v>
       </c>
       <c r="G93" t="n">
-        <v>-19353.36321321</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3608,22 +3361,21 @@
         <v>12373.0027</v>
       </c>
       <c r="G94" t="n">
-        <v>-6980.360513209996</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3645,22 +3397,21 @@
         <v>130.0095</v>
       </c>
       <c r="G95" t="n">
-        <v>-7110.370013209997</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3682,22 +3433,21 @@
         <v>220.32</v>
       </c>
       <c r="G96" t="n">
-        <v>-7330.690013209996</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3719,22 +3469,21 @@
         <v>5025.28</v>
       </c>
       <c r="G97" t="n">
-        <v>-2305.410013209997</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3756,22 +3505,21 @@
         <v>3695.44</v>
       </c>
       <c r="G98" t="n">
-        <v>-2305.410013209997</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3793,22 +3541,21 @@
         <v>779</v>
       </c>
       <c r="G99" t="n">
-        <v>-2305.410013209997</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3830,22 +3577,21 @@
         <v>635.9725</v>
       </c>
       <c r="G100" t="n">
-        <v>-2941.382513209996</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3867,22 +3613,21 @@
         <v>723.965</v>
       </c>
       <c r="G101" t="n">
-        <v>-2217.417513209996</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3904,22 +3649,21 @@
         <v>626</v>
       </c>
       <c r="G102" t="n">
-        <v>-2217.417513209996</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3941,22 +3685,21 @@
         <v>1.6112</v>
       </c>
       <c r="G103" t="n">
-        <v>-2215.806313209996</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3978,22 +3721,21 @@
         <v>8800</v>
       </c>
       <c r="G104" t="n">
-        <v>-11015.80631321</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4015,22 +3757,21 @@
         <v>91.6356</v>
       </c>
       <c r="G105" t="n">
-        <v>-11015.80631321</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4052,22 +3793,21 @@
         <v>2.4885</v>
       </c>
       <c r="G106" t="n">
-        <v>-11013.31781321</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4089,22 +3829,21 @@
         <v>148.2548</v>
       </c>
       <c r="G107" t="n">
-        <v>-11161.57261321</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4126,22 +3865,21 @@
         <v>11200.8674</v>
       </c>
       <c r="G108" t="n">
-        <v>-22362.44001321</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4163,22 +3901,21 @@
         <v>81.88</v>
       </c>
       <c r="G109" t="n">
-        <v>-22280.56001321</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4200,22 +3937,21 @@
         <v>5.88</v>
       </c>
       <c r="G110" t="n">
-        <v>-22286.44001321</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4237,22 +3973,21 @@
         <v>566.8776</v>
       </c>
       <c r="G111" t="n">
-        <v>-22853.31761321</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4274,22 +4009,21 @@
         <v>849.222</v>
       </c>
       <c r="G112" t="n">
-        <v>-22004.09561321</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4311,22 +4045,21 @@
         <v>6260.868</v>
       </c>
       <c r="G113" t="n">
-        <v>-22004.09561321</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4348,22 +4081,21 @@
         <v>2820</v>
       </c>
       <c r="G114" t="n">
-        <v>-22004.09561321</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4385,22 +4117,21 @@
         <v>359.021</v>
       </c>
       <c r="G115" t="n">
-        <v>-21645.07461321</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4422,22 +4153,21 @@
         <v>324.98</v>
       </c>
       <c r="G116" t="n">
-        <v>-21645.07461321</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4459,22 +4189,21 @@
         <v>62</v>
       </c>
       <c r="G117" t="n">
-        <v>-21645.07461321</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4496,22 +4225,21 @@
         <v>1092.176</v>
       </c>
       <c r="G118" t="n">
-        <v>-20552.89861321</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4533,22 +4261,21 @@
         <v>26.4882</v>
       </c>
       <c r="G119" t="n">
-        <v>-20526.41041321</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4570,22 +4297,21 @@
         <v>80.73234368999999</v>
       </c>
       <c r="G120" t="n">
-        <v>-20445.67806952</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4607,22 +4333,21 @@
         <v>652.48055631</v>
       </c>
       <c r="G121" t="n">
-        <v>-20445.67806952</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4644,22 +4369,21 @@
         <v>864</v>
       </c>
       <c r="G122" t="n">
-        <v>-19581.67806952</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4681,22 +4405,21 @@
         <v>1393</v>
       </c>
       <c r="G123" t="n">
-        <v>-18188.67806952</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4718,22 +4441,21 @@
         <v>1255.5025</v>
       </c>
       <c r="G124" t="n">
-        <v>-18188.67806952</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4755,22 +4477,21 @@
         <v>1454.6712</v>
       </c>
       <c r="G125" t="n">
-        <v>-16734.00686952</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4792,22 +4513,21 @@
         <v>80</v>
       </c>
       <c r="G126" t="n">
-        <v>-16654.00686952</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4829,22 +4549,21 @@
         <v>3499.9254</v>
       </c>
       <c r="G127" t="n">
-        <v>-16654.00686952</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4866,22 +4585,21 @@
         <v>16677.6261</v>
       </c>
       <c r="G128" t="n">
-        <v>23.61923048000608</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4903,22 +4621,21 @@
         <v>3</v>
       </c>
       <c r="G129" t="n">
-        <v>26.61923048000608</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4940,22 +4657,21 @@
         <v>4328.8979</v>
       </c>
       <c r="G130" t="n">
-        <v>-4302.278669519994</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4977,22 +4693,21 @@
         <v>2906.0282</v>
       </c>
       <c r="G131" t="n">
-        <v>-7208.306869519995</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5014,22 +4729,21 @@
         <v>7003</v>
       </c>
       <c r="G132" t="n">
-        <v>-205.3068695199945</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5051,22 +4765,21 @@
         <v>1223.7353</v>
       </c>
       <c r="G133" t="n">
-        <v>-1429.042169519995</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5088,22 +4801,21 @@
         <v>4530.07597915</v>
       </c>
       <c r="G134" t="n">
-        <v>3101.033809630006</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5125,22 +4837,21 @@
         <v>4748.6548</v>
       </c>
       <c r="G135" t="n">
-        <v>-1647.620990369995</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5162,22 +4873,21 @@
         <v>5165.839</v>
       </c>
       <c r="G136" t="n">
-        <v>3518.218009630005</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5199,22 +4909,21 @@
         <v>1486.92857514</v>
       </c>
       <c r="G137" t="n">
-        <v>2031.289434490005</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5236,22 +4945,21 @@
         <v>768.5999</v>
       </c>
       <c r="G138" t="n">
-        <v>2799.889334490005</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5273,22 +4981,21 @@
         <v>274.4286</v>
       </c>
       <c r="G139" t="n">
-        <v>2799.889334490005</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5310,22 +5017,21 @@
         <v>2.5</v>
       </c>
       <c r="G140" t="n">
-        <v>2797.389334490005</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5347,22 +5053,21 @@
         <v>189.4438</v>
       </c>
       <c r="G141" t="n">
-        <v>2986.833134490005</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5384,22 +5089,21 @@
         <v>3443.6652</v>
       </c>
       <c r="G142" t="n">
-        <v>6430.498334490005</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5421,22 +5125,21 @@
         <v>117.7424</v>
       </c>
       <c r="G143" t="n">
-        <v>6312.755934490005</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5458,185 +5161,203 @@
         <v>160.4648</v>
       </c>
       <c r="G144" t="n">
-        <v>6152.291134490005</v>
-      </c>
-      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>86.5842</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>361</v>
+      </c>
+      <c r="C146" t="n">
+        <v>361</v>
+      </c>
+      <c r="D146" t="n">
+        <v>361</v>
+      </c>
+      <c r="E146" t="n">
+        <v>361</v>
+      </c>
+      <c r="F146" t="n">
+        <v>228.2091</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>361</v>
+      </c>
+      <c r="C147" t="n">
+        <v>364</v>
+      </c>
+      <c r="D147" t="n">
+        <v>364</v>
+      </c>
+      <c r="E147" t="n">
+        <v>361</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5555.7645</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>361</v>
+      </c>
+      <c r="C148" t="n">
+        <v>361</v>
+      </c>
+      <c r="D148" t="n">
+        <v>361</v>
+      </c>
+      <c r="E148" t="n">
+        <v>361</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>363</v>
+      </c>
+      <c r="C149" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>363</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1637.0608</v>
+      </c>
+      <c r="G149" t="n">
         <v>2</v>
       </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>363.1</v>
-      </c>
-      <c r="C145" t="n">
-        <v>363.1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>363.1</v>
-      </c>
-      <c r="E145" t="n">
-        <v>363.1</v>
-      </c>
-      <c r="F145" t="n">
-        <v>86.5842</v>
-      </c>
-      <c r="G145" t="n">
-        <v>6065.706934490005</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>361</v>
-      </c>
-      <c r="C146" t="n">
-        <v>361</v>
-      </c>
-      <c r="D146" t="n">
-        <v>361</v>
-      </c>
-      <c r="E146" t="n">
-        <v>361</v>
-      </c>
-      <c r="F146" t="n">
-        <v>228.2091</v>
-      </c>
-      <c r="G146" t="n">
-        <v>5837.497834490005</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>361</v>
-      </c>
-      <c r="C147" t="n">
-        <v>364</v>
-      </c>
-      <c r="D147" t="n">
-        <v>364</v>
-      </c>
-      <c r="E147" t="n">
-        <v>361</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5555.7645</v>
-      </c>
-      <c r="G147" t="n">
-        <v>11393.26233449001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>361</v>
-      </c>
-      <c r="C148" t="n">
-        <v>361</v>
-      </c>
-      <c r="D148" t="n">
-        <v>361</v>
-      </c>
-      <c r="E148" t="n">
-        <v>361</v>
-      </c>
-      <c r="F148" t="n">
-        <v>100</v>
-      </c>
-      <c r="G148" t="n">
-        <v>11293.26233449001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>363</v>
-      </c>
-      <c r="C149" t="n">
-        <v>363.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>363.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>363</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1637.0608</v>
-      </c>
-      <c r="G149" t="n">
-        <v>12930.32313449001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1.086263884719304</v>
+      </c>
       <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>1.042642642642643</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5658,18 +5379,15 @@
         <v>198.0729</v>
       </c>
       <c r="G150" t="n">
-        <v>12732.25023449001</v>
-      </c>
-      <c r="H150" t="n">
         <v>2</v>
       </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5691,18 +5409,15 @@
         <v>4398.1391</v>
       </c>
       <c r="G151" t="n">
-        <v>8334.111134490005</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5724,18 +5439,15 @@
         <v>186.4888</v>
       </c>
       <c r="G152" t="n">
-        <v>8520.599934490005</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5757,18 +5469,15 @@
         <v>69.84</v>
       </c>
       <c r="G153" t="n">
-        <v>8520.599934490005</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5790,18 +5499,15 @@
         <v>6643.5483</v>
       </c>
       <c r="G154" t="n">
-        <v>1877.051634490004</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5823,18 +5529,15 @@
         <v>583.6441</v>
       </c>
       <c r="G155" t="n">
-        <v>2460.695734490004</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5856,18 +5559,15 @@
         <v>280.99</v>
       </c>
       <c r="G156" t="n">
-        <v>2179.705734490004</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5889,18 +5589,15 @@
         <v>50</v>
       </c>
       <c r="G157" t="n">
-        <v>2129.705734490004</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5922,18 +5619,15 @@
         <v>1804.4466</v>
       </c>
       <c r="G158" t="n">
-        <v>3934.152334490004</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5955,18 +5649,15 @@
         <v>3099.9731</v>
       </c>
       <c r="G159" t="n">
-        <v>7034.125434490004</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5988,18 +5679,15 @@
         <v>1637.0608</v>
       </c>
       <c r="G160" t="n">
-        <v>5397.064634490004</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6021,18 +5709,15 @@
         <v>7633.2764</v>
       </c>
       <c r="G161" t="n">
-        <v>13030.34103449</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6054,18 +5739,15 @@
         <v>239</v>
       </c>
       <c r="G162" t="n">
-        <v>13269.34103449</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6087,18 +5769,15 @@
         <v>1811</v>
       </c>
       <c r="G163" t="n">
-        <v>11458.34103449</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6120,18 +5799,15 @@
         <v>387</v>
       </c>
       <c r="G164" t="n">
-        <v>11845.34103449</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6153,18 +5829,15 @@
         <v>122.3673</v>
       </c>
       <c r="G165" t="n">
-        <v>11722.97373449</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6186,18 +5859,15 @@
         <v>2015.7361</v>
       </c>
       <c r="G166" t="n">
-        <v>9707.237634490004</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6219,18 +5889,15 @@
         <v>6363.592</v>
       </c>
       <c r="G167" t="n">
-        <v>3343.645634490004</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6252,18 +5919,15 @@
         <v>3233.1903</v>
       </c>
       <c r="G168" t="n">
-        <v>3343.645634490004</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6285,18 +5949,15 @@
         <v>85.64530000000001</v>
       </c>
       <c r="G169" t="n">
-        <v>3343.645634490004</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6318,18 +5979,15 @@
         <v>3059.9339</v>
       </c>
       <c r="G170" t="n">
-        <v>3343.645634490004</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6351,18 +6009,15 @@
         <v>1672</v>
       </c>
       <c r="G171" t="n">
-        <v>1671.645634490004</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6384,18 +6039,15 @@
         <v>12.78</v>
       </c>
       <c r="G172" t="n">
-        <v>1684.425634490004</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6417,18 +6069,15 @@
         <v>20095.37</v>
       </c>
       <c r="G173" t="n">
-        <v>21779.79563449</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6450,18 +6099,15 @@
         <v>11</v>
       </c>
       <c r="G174" t="n">
-        <v>21779.79563449</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6483,18 +6129,15 @@
         <v>1.4</v>
       </c>
       <c r="G175" t="n">
-        <v>21781.19563449001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6516,18 +6159,15 @@
         <v>3134.2028</v>
       </c>
       <c r="G176" t="n">
-        <v>18646.99283449001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6549,18 +6189,15 @@
         <v>21.98</v>
       </c>
       <c r="G177" t="n">
-        <v>18646.99283449001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6582,18 +6219,15 @@
         <v>3062.2236</v>
       </c>
       <c r="G178" t="n">
-        <v>21709.21643449001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6615,18 +6249,15 @@
         <v>3443.7889</v>
       </c>
       <c r="G179" t="n">
-        <v>21709.21643449001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6648,18 +6279,15 @@
         <v>8095.3403</v>
       </c>
       <c r="G180" t="n">
-        <v>21709.21643449001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6681,18 +6309,15 @@
         <v>1.4</v>
       </c>
       <c r="G181" t="n">
-        <v>21710.61643449001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6714,18 +6339,15 @@
         <v>2244.2268</v>
       </c>
       <c r="G182" t="n">
-        <v>21710.61643449001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6747,18 +6369,15 @@
         <v>120.8037</v>
       </c>
       <c r="G183" t="n">
-        <v>21710.61643449001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6780,18 +6399,15 @@
         <v>579.3627</v>
       </c>
       <c r="G184" t="n">
-        <v>21131.25373449001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6813,18 +6429,15 @@
         <v>296.2796</v>
       </c>
       <c r="G185" t="n">
-        <v>21131.25373449001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6846,18 +6459,15 @@
         <v>987.5715</v>
       </c>
       <c r="G186" t="n">
-        <v>22118.82523449001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6879,18 +6489,15 @@
         <v>312.4627</v>
       </c>
       <c r="G187" t="n">
-        <v>22431.28793449001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6912,18 +6519,15 @@
         <v>512</v>
       </c>
       <c r="G188" t="n">
-        <v>22431.28793449001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6945,18 +6549,15 @@
         <v>61.99</v>
       </c>
       <c r="G189" t="n">
-        <v>22369.29793449001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6978,18 +6579,15 @@
         <v>241.7926</v>
       </c>
       <c r="G190" t="n">
-        <v>22369.29793449001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7011,18 +6609,15 @@
         <v>159.9027</v>
       </c>
       <c r="G191" t="n">
-        <v>22529.20063449001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7044,18 +6639,15 @@
         <v>30.6461</v>
       </c>
       <c r="G192" t="n">
-        <v>22498.55453449001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7077,18 +6669,15 @@
         <v>1050</v>
       </c>
       <c r="G193" t="n">
-        <v>21448.55453449001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7110,18 +6699,15 @@
         <v>10514.5473</v>
       </c>
       <c r="G194" t="n">
-        <v>10934.00723449001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7143,18 +6729,15 @@
         <v>638</v>
       </c>
       <c r="G195" t="n">
-        <v>11572.00723449001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7176,18 +6759,15 @@
         <v>107</v>
       </c>
       <c r="G196" t="n">
-        <v>11465.00723449001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7209,18 +6789,15 @@
         <v>852.1999</v>
       </c>
       <c r="G197" t="n">
-        <v>12317.20713449001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7242,18 +6819,15 @@
         <v>51.6762</v>
       </c>
       <c r="G198" t="n">
-        <v>12265.53093449001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7275,18 +6849,15 @@
         <v>355.8167</v>
       </c>
       <c r="G199" t="n">
-        <v>11909.71423449001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7308,18 +6879,15 @@
         <v>2589</v>
       </c>
       <c r="G200" t="n">
-        <v>14498.71423449001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7341,18 +6909,15 @@
         <v>336</v>
       </c>
       <c r="G201" t="n">
-        <v>14162.71423449001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7374,18 +6939,15 @@
         <v>505.4212</v>
       </c>
       <c r="G202" t="n">
-        <v>14668.13543449001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7407,18 +6969,15 @@
         <v>5044.9185</v>
       </c>
       <c r="G203" t="n">
-        <v>9623.216934490007</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7440,18 +6999,15 @@
         <v>795</v>
       </c>
       <c r="G204" t="n">
-        <v>10418.21693449001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7473,18 +7029,15 @@
         <v>608.9997</v>
       </c>
       <c r="G205" t="n">
-        <v>10418.21693449001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7506,18 +7059,15 @@
         <v>109.4749</v>
       </c>
       <c r="G206" t="n">
-        <v>10418.21693449001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7539,18 +7089,15 @@
         <v>490.5232</v>
       </c>
       <c r="G207" t="n">
-        <v>10418.21693449001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7572,18 +7119,15 @@
         <v>712</v>
       </c>
       <c r="G208" t="n">
-        <v>10418.21693449001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7605,18 +7149,15 @@
         <v>405.9998</v>
       </c>
       <c r="G209" t="n">
-        <v>10418.21693449001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7638,18 +7179,15 @@
         <v>156.0468</v>
       </c>
       <c r="G210" t="n">
-        <v>10574.26373449001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7671,18 +7209,15 @@
         <v>2659.0426</v>
       </c>
       <c r="G211" t="n">
-        <v>7915.221134490006</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7704,18 +7239,15 @@
         <v>835</v>
       </c>
       <c r="G212" t="n">
-        <v>7915.221134490006</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7737,18 +7269,15 @@
         <v>884.9</v>
       </c>
       <c r="G213" t="n">
-        <v>8800.121134490006</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7770,18 +7299,15 @@
         <v>868</v>
       </c>
       <c r="G214" t="n">
-        <v>7932.121134490006</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7803,18 +7329,15 @@
         <v>122.2766</v>
       </c>
       <c r="G215" t="n">
-        <v>8054.397734490006</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7836,18 +7359,15 @@
         <v>497.6</v>
       </c>
       <c r="G216" t="n">
-        <v>8054.397734490006</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7869,18 +7389,15 @@
         <v>203</v>
       </c>
       <c r="G217" t="n">
-        <v>8257.397734490005</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7902,18 +7419,15 @@
         <v>6000</v>
       </c>
       <c r="G218" t="n">
-        <v>14257.39773449</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7935,18 +7449,15 @@
         <v>3139.5671</v>
       </c>
       <c r="G219" t="n">
-        <v>11117.83063449</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7968,18 +7479,15 @@
         <v>5110.3433</v>
       </c>
       <c r="G220" t="n">
-        <v>6007.487334490004</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8001,18 +7509,15 @@
         <v>3.3277</v>
       </c>
       <c r="G221" t="n">
-        <v>6010.815034490004</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8034,18 +7539,15 @@
         <v>3.99</v>
       </c>
       <c r="G222" t="n">
-        <v>6006.825034490004</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8067,18 +7569,15 @@
         <v>300</v>
       </c>
       <c r="G223" t="n">
-        <v>6306.825034490004</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8100,18 +7599,15 @@
         <v>843</v>
       </c>
       <c r="G224" t="n">
-        <v>7149.825034490004</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8133,18 +7629,15 @@
         <v>620</v>
       </c>
       <c r="G225" t="n">
-        <v>7769.825034490004</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8166,18 +7659,15 @@
         <v>50.4549</v>
       </c>
       <c r="G226" t="n">
-        <v>7719.370134490005</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8199,18 +7689,15 @@
         <v>626.9314104600001</v>
       </c>
       <c r="G227" t="n">
-        <v>8346.301544950005</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8232,18 +7719,15 @@
         <v>24562.4898</v>
       </c>
       <c r="G228" t="n">
-        <v>-16216.18825504999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8265,18 +7749,15 @@
         <v>626.9314000000001</v>
       </c>
       <c r="G229" t="n">
-        <v>-15589.25685504999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8298,18 +7779,15 @@
         <v>1860</v>
       </c>
       <c r="G230" t="n">
-        <v>-17449.25685504999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8331,18 +7809,15 @@
         <v>59.629</v>
       </c>
       <c r="G231" t="n">
-        <v>-17508.88585504999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8364,18 +7839,15 @@
         <v>1342.8334</v>
       </c>
       <c r="G232" t="n">
-        <v>-18851.71925504999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8397,18 +7869,15 @@
         <v>1.4</v>
       </c>
       <c r="G233" t="n">
-        <v>-18850.31925504999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8430,18 +7899,15 @@
         <v>198.6</v>
       </c>
       <c r="G234" t="n">
-        <v>-18850.31925504999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8463,18 +7929,15 @@
         <v>226</v>
       </c>
       <c r="G235" t="n">
-        <v>-18624.31925504999</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8496,18 +7959,15 @@
         <v>1159.1566</v>
       </c>
       <c r="G236" t="n">
-        <v>-17465.16265504999</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8529,18 +7989,15 @@
         <v>53</v>
       </c>
       <c r="G237" t="n">
-        <v>-17412.16265504999</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8562,18 +8019,15 @@
         <v>1565.8719</v>
       </c>
       <c r="G238" t="n">
-        <v>-18978.03455504999</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8595,18 +8049,15 @@
         <v>200.8845</v>
       </c>
       <c r="G239" t="n">
-        <v>-18777.15005504999</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8628,18 +8079,15 @@
         <v>3708.514</v>
       </c>
       <c r="G240" t="n">
-        <v>-15068.63605504999</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8661,18 +8109,15 @@
         <v>620</v>
       </c>
       <c r="G241" t="n">
-        <v>-15068.63605504999</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8694,18 +8139,15 @@
         <v>134.0402</v>
       </c>
       <c r="G242" t="n">
-        <v>-15068.63605504999</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8727,18 +8169,15 @@
         <v>491</v>
       </c>
       <c r="G243" t="n">
-        <v>-15068.63605504999</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8760,18 +8199,15 @@
         <v>1438</v>
       </c>
       <c r="G244" t="n">
-        <v>-13630.63605504999</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8793,18 +8229,15 @@
         <v>78</v>
       </c>
       <c r="G245" t="n">
-        <v>-13630.63605504999</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8826,18 +8259,15 @@
         <v>619.1283</v>
       </c>
       <c r="G246" t="n">
-        <v>-13011.50775504999</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8859,18 +8289,15 @@
         <v>1300</v>
       </c>
       <c r="G247" t="n">
-        <v>-14311.50775504999</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8892,18 +8319,15 @@
         <v>310</v>
       </c>
       <c r="G248" t="n">
-        <v>-14001.50775504999</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8925,18 +8349,15 @@
         <v>620</v>
       </c>
       <c r="G249" t="n">
-        <v>-13381.50775504999</v>
-      </c>
-      <c r="H249" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8958,18 +8379,15 @@
         <v>274.2585</v>
       </c>
       <c r="G250" t="n">
-        <v>-13107.24925504999</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8991,18 +8409,15 @@
         <v>1729.1953</v>
       </c>
       <c r="G251" t="n">
-        <v>-11378.05395504999</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9024,18 +8439,15 @@
         <v>2388.1263</v>
       </c>
       <c r="G252" t="n">
-        <v>-11378.05395504999</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9057,18 +8469,15 @@
         <v>372.5999</v>
       </c>
       <c r="G253" t="n">
-        <v>-11750.65385504999</v>
-      </c>
-      <c r="H253" t="n">
         <v>2</v>
       </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9090,18 +8499,15 @@
         <v>145.8917</v>
       </c>
       <c r="G254" t="n">
-        <v>-11750.65385504999</v>
-      </c>
-      <c r="H254" t="n">
         <v>2</v>
       </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9123,18 +8529,15 @@
         <v>3909.2751</v>
       </c>
       <c r="G255" t="n">
-        <v>-7841.378755049992</v>
-      </c>
-      <c r="H255" t="n">
         <v>2</v>
       </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9156,18 +8559,15 @@
         <v>3436</v>
       </c>
       <c r="G256" t="n">
-        <v>-4405.378755049992</v>
-      </c>
-      <c r="H256" t="n">
         <v>2</v>
       </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9189,18 +8589,15 @@
         <v>6033.3432</v>
       </c>
       <c r="G257" t="n">
-        <v>-10438.72195504999</v>
-      </c>
-      <c r="H257" t="n">
         <v>2</v>
       </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9222,18 +8619,15 @@
         <v>635</v>
       </c>
       <c r="G258" t="n">
-        <v>-11073.72195504999</v>
-      </c>
-      <c r="H258" t="n">
         <v>2</v>
       </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9255,18 +8649,15 @@
         <v>135</v>
       </c>
       <c r="G259" t="n">
-        <v>-11073.72195504999</v>
-      </c>
-      <c r="H259" t="n">
         <v>2</v>
       </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9288,18 +8679,15 @@
         <v>4814.6425</v>
       </c>
       <c r="G260" t="n">
-        <v>-11073.72195504999</v>
-      </c>
-      <c r="H260" t="n">
         <v>2</v>
       </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9321,18 +8709,15 @@
         <v>119.0357</v>
       </c>
       <c r="G261" t="n">
-        <v>-10954.68625504999</v>
-      </c>
-      <c r="H261" t="n">
         <v>2</v>
       </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9354,18 +8739,15 @@
         <v>517.1550999999999</v>
       </c>
       <c r="G262" t="n">
-        <v>-10954.68625504999</v>
-      </c>
-      <c r="H262" t="n">
         <v>2</v>
       </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9387,18 +8769,15 @@
         <v>8169.2939</v>
       </c>
       <c r="G263" t="n">
-        <v>-19123.98015504999</v>
-      </c>
-      <c r="H263" t="n">
         <v>2</v>
       </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9420,18 +8799,15 @@
         <v>0.0001</v>
       </c>
       <c r="G264" t="n">
-        <v>-19123.98015504999</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9453,18 +8829,15 @@
         <v>30</v>
       </c>
       <c r="G265" t="n">
-        <v>-19153.98015504999</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9486,18 +8859,15 @@
         <v>1338.382</v>
       </c>
       <c r="G266" t="n">
-        <v>-19153.98015504999</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9519,18 +8889,15 @@
         <v>9</v>
       </c>
       <c r="G267" t="n">
-        <v>-19153.98015504999</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9552,18 +8919,15 @@
         <v>75.8189</v>
       </c>
       <c r="G268" t="n">
-        <v>-19078.16125504999</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9585,18 +8949,15 @@
         <v>3449.1234</v>
       </c>
       <c r="G269" t="n">
-        <v>-15629.03785504999</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9618,18 +8979,15 @@
         <v>690.3323</v>
       </c>
       <c r="G270" t="n">
-        <v>-16319.37015504999</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9651,18 +9009,15 @@
         <v>4425.6742</v>
       </c>
       <c r="G271" t="n">
-        <v>-20745.04435504999</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9684,18 +9039,15 @@
         <v>546.4512</v>
       </c>
       <c r="G272" t="n">
-        <v>-21291.49555504999</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9717,18 +9069,15 @@
         <v>619.6858</v>
       </c>
       <c r="G273" t="n">
-        <v>-21291.49555504999</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9750,18 +9099,15 @@
         <v>0.0001</v>
       </c>
       <c r="G274" t="n">
-        <v>-21291.49555504999</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9783,18 +9129,15 @@
         <v>77.1665</v>
       </c>
       <c r="G275" t="n">
-        <v>-21368.66205504999</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9816,18 +9159,15 @@
         <v>1498.3436</v>
       </c>
       <c r="G276" t="n">
-        <v>-21368.66205504999</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9849,18 +9189,15 @@
         <v>578.3572</v>
       </c>
       <c r="G277" t="n">
-        <v>-21368.66205504999</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9882,18 +9219,15 @@
         <v>4207.7786</v>
       </c>
       <c r="G278" t="n">
-        <v>-17160.88345504999</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9915,18 +9249,15 @@
         <v>32494.2595</v>
       </c>
       <c r="G279" t="n">
-        <v>-17160.88345504999</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9948,18 +9279,15 @@
         <v>1802</v>
       </c>
       <c r="G280" t="n">
-        <v>-17160.88345504999</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9981,18 +9309,15 @@
         <v>4181.9668</v>
       </c>
       <c r="G281" t="n">
-        <v>-21342.85025504999</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10014,18 +9339,15 @@
         <v>171.5031</v>
       </c>
       <c r="G282" t="n">
-        <v>-21342.85025504999</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10047,18 +9369,15 @@
         <v>362</v>
       </c>
       <c r="G283" t="n">
-        <v>-20980.85025504999</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10080,18 +9399,15 @@
         <v>802.4992999999999</v>
       </c>
       <c r="G284" t="n">
-        <v>-20980.85025504999</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10113,18 +9429,15 @@
         <v>5910</v>
       </c>
       <c r="G285" t="n">
-        <v>-15070.85025504999</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10146,18 +9459,15 @@
         <v>1704</v>
       </c>
       <c r="G286" t="n">
-        <v>-16774.85025504999</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10179,18 +9489,15 @@
         <v>130</v>
       </c>
       <c r="G287" t="n">
-        <v>-16644.85025504999</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10212,18 +9519,15 @@
         <v>4</v>
       </c>
       <c r="G288" t="n">
-        <v>-16640.85025504999</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10245,18 +9549,15 @@
         <v>59</v>
       </c>
       <c r="G289" t="n">
-        <v>-16699.85025504999</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10278,18 +9579,15 @@
         <v>3388.1147</v>
       </c>
       <c r="G290" t="n">
-        <v>-13311.73555504999</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10311,18 +9609,15 @@
         <v>12380.9241</v>
       </c>
       <c r="G291" t="n">
-        <v>-25692.65965504999</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10344,18 +9639,15 @@
         <v>582.7832</v>
       </c>
       <c r="G292" t="n">
-        <v>-25692.65965504999</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10377,18 +9669,15 @@
         <v>29</v>
       </c>
       <c r="G293" t="n">
-        <v>-25721.65965504999</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10410,18 +9699,15 @@
         <v>4866.2123</v>
       </c>
       <c r="G294" t="n">
-        <v>-30587.87195504999</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10443,18 +9729,15 @@
         <v>3647.1782</v>
       </c>
       <c r="G295" t="n">
-        <v>-26940.69375504999</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10476,18 +9759,15 @@
         <v>3597.3627</v>
       </c>
       <c r="G296" t="n">
-        <v>-30538.05645504999</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
